--- a/config_debug/fishmatch_ui.xlsx
+++ b/config_debug/fishmatch_ui.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\JyQipai_doc\config_3D\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTHLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24345" windowHeight="12465" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24345" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="config|配置" sheetId="3" r:id="rId1"/>
@@ -1780,18 +1780,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>50000福利券</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000福利券</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000福利券</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>黄金段位</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1861,6 +1849,18 @@
   </si>
   <si>
     <t>"200000鲸币",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5万福利券</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2万福利券</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1万福利券</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2369,10 +2369,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C54" sqref="C54"/>
-      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
+      <selection pane="bottomLeft" activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10186,7 +10186,7 @@
   <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD12"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10269,7 +10269,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>354</v>
+        <v>372</v>
       </c>
       <c r="E2" s="3">
         <v>50000</v>
@@ -10293,7 +10293,7 @@
       </c>
       <c r="K2" s="3" t="str">
         <f>""""&amp;D2&amp;""""&amp;","</f>
-        <v>"50000福利券",</v>
+        <v>"5万福利券",</v>
       </c>
       <c r="L2" s="21">
         <v>0.05</v>
@@ -10325,7 +10325,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="E3" s="3">
         <v>20000</v>
@@ -10349,7 +10349,7 @@
       </c>
       <c r="K3" s="3" t="str">
         <f t="shared" ref="K3:K4" si="2">""""&amp;D3&amp;""""&amp;","</f>
-        <v>"20000福利券",</v>
+        <v>"2万福利券",</v>
       </c>
       <c r="L3" s="21">
         <v>0.04</v>
@@ -10381,7 +10381,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="E4" s="3">
         <v>10000</v>
@@ -10405,7 +10405,7 @@
       </c>
       <c r="K4" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>"10000福利券",</v>
+        <v>"1万福利券",</v>
       </c>
       <c r="L4" s="21">
         <v>0.03</v>
@@ -10824,7 +10824,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C54" sqref="C54"/>
       <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
@@ -19581,10 +19581,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -19610,10 +19610,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -19639,7 +19639,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>302</v>
@@ -19654,7 +19654,7 @@
         <v>2799</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>308</v>
@@ -19668,10 +19668,10 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -19697,7 +19697,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>301</v>
@@ -19712,7 +19712,7 @@
         <v>3499</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>309</v>
@@ -19726,7 +19726,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>302</v>
@@ -19741,7 +19741,7 @@
         <v>2799</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>307</v>
@@ -19755,10 +19755,10 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -19773,7 +19773,7 @@
         <v>350</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -19784,7 +19784,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>301</v>
@@ -19813,7 +19813,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>302</v>
@@ -19828,7 +19828,7 @@
         <v>2799</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>309</v>
@@ -19842,10 +19842,10 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -19857,10 +19857,10 @@
         <v>-1</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -19871,7 +19871,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>301</v>
@@ -19886,10 +19886,10 @@
         <v>3499</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -19900,7 +19900,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>302</v>
@@ -19915,7 +19915,7 @@
         <v>2799</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>309</v>

--- a/config_debug/fishmatch_ui.xlsx
+++ b/config_debug/fishmatch_ui.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24345" windowHeight="12465"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24345" windowHeight="12465" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="config|配置" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2694" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2696" uniqueCount="378">
   <si>
     <t>id|行号</t>
   </si>
@@ -1863,6 +1863,42 @@
     <t>1万福利券</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>award</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>icon|奖励图标</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi_min|进入最小金币限制</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi_max|进入最大金币限制</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1871,7 +1907,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1912,6 +1948,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF191F25"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1982,7 +2024,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2089,6 +2131,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2369,7 +2414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C54" sqref="C54"/>
       <selection pane="bottomLeft" activeCell="P2" sqref="P2"/>
@@ -19178,10 +19223,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -19197,17 +19242,18 @@
     <col min="9" max="9" width="17.75" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.375" customWidth="1"/>
-    <col min="13" max="13" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.625" customWidth="1"/>
-    <col min="15" max="15" width="18.75" customWidth="1"/>
-    <col min="17" max="17" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.25" customWidth="1"/>
+    <col min="12" max="13" width="18.375" customWidth="1"/>
+    <col min="14" max="14" width="13.375" customWidth="1"/>
+    <col min="15" max="15" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.625" customWidth="1"/>
+    <col min="17" max="17" width="18.75" customWidth="1"/>
+    <col min="19" max="19" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" s="2" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -19239,37 +19285,43 @@
         <v>296</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>293</v>
+        <v>375</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="V1" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -19303,35 +19355,41 @@
       <c r="K2" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="13">
         <v>1000</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2" s="13">
+        <v>2000000</v>
+      </c>
+      <c r="N2" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O2" s="3">
         <v>10</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="P2" s="15" t="s">
         <v>341</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
         <v>101</v>
       </c>
-      <c r="R2">
+      <c r="T2">
         <v>76</v>
       </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -19365,35 +19423,41 @@
       <c r="K3" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="13">
+        <v>10000</v>
+      </c>
+      <c r="M3" s="13">
+        <v>20000000</v>
+      </c>
+      <c r="N3" s="3">
         <v>1000</v>
       </c>
-      <c r="M3" s="3">
+      <c r="O3" s="3">
         <v>10</v>
       </c>
-      <c r="N3" s="15" t="s">
+      <c r="P3" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
         <v>101</v>
       </c>
-      <c r="R3">
+      <c r="T3">
         <v>77</v>
       </c>
-      <c r="S3">
-        <v>1</v>
-      </c>
-      <c r="T3">
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -19427,35 +19491,41 @@
       <c r="K4" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="43">
+        <v>100000</v>
+      </c>
+      <c r="M4" s="3">
+        <v>99999999999</v>
+      </c>
+      <c r="N4" s="3">
         <v>1000</v>
       </c>
-      <c r="M4" s="3">
+      <c r="O4" s="3">
         <v>10</v>
       </c>
-      <c r="N4" s="15" t="s">
+      <c r="P4" s="15" t="s">
         <v>343</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
         <v>101</v>
       </c>
-      <c r="R4">
+      <c r="T4">
         <v>80</v>
       </c>
-      <c r="S4">
-        <v>1</v>
-      </c>
-      <c r="T4">
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -19489,31 +19559,37 @@
       <c r="K5" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="43">
+        <v>1000000</v>
+      </c>
+      <c r="M5" s="3">
+        <v>99999999999</v>
+      </c>
+      <c r="N5" s="3">
         <v>1000</v>
       </c>
-      <c r="M5" s="3">
+      <c r="O5" s="3">
         <v>10</v>
       </c>
-      <c r="N5" s="15" t="s">
+      <c r="P5" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="Q5" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
         <v>102</v>
       </c>
-      <c r="R5">
+      <c r="T5">
         <v>82</v>
       </c>
-      <c r="S5">
+      <c r="U5">
         <v>2</v>
       </c>
-      <c r="T5">
+      <c r="V5">
         <v>4</v>
       </c>
     </row>

--- a/config_debug/fishmatch_ui.xlsx
+++ b/config_debug/fishmatch_ui.xlsx
@@ -1848,10 +1848,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>"200000鲸币",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>5万福利券</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1897,6 +1893,10 @@
   </si>
   <si>
     <t>jing_bi_max|进入最大金币限制</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"200000鲸币",</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2414,10 +2414,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y101"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C54" sqref="C54"/>
-      <selection pane="bottomLeft" activeCell="P2" sqref="P2"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2:L101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2545,16 +2545,16 @@
         <v>317</v>
       </c>
       <c r="I2" s="14">
-        <v>1589977800</v>
+        <v>1593608100</v>
       </c>
       <c r="J2" s="14">
-        <v>1589979600</v>
+        <v>1593608400</v>
       </c>
       <c r="K2" s="14">
-        <v>1589817600</v>
+        <v>1590665100</v>
       </c>
       <c r="L2" s="14">
-        <v>1589990399</v>
+        <v>1593694800</v>
       </c>
       <c r="M2" s="16" t="s">
         <v>38</v>
@@ -2622,16 +2622,16 @@
         <v>317</v>
       </c>
       <c r="I3" s="14">
-        <v>1590150600</v>
+        <v>1594212900</v>
       </c>
       <c r="J3" s="14">
-        <v>1590152400</v>
+        <v>1594213200</v>
       </c>
       <c r="K3" s="14">
-        <v>1589990400</v>
+        <v>1590666900</v>
       </c>
       <c r="L3">
-        <v>1590163199</v>
+        <v>1594299600</v>
       </c>
       <c r="M3" s="16" t="s">
         <v>38</v>
@@ -2699,16 +2699,16 @@
         <v>317</v>
       </c>
       <c r="I4" s="14">
-        <v>1590409800</v>
+        <v>1594817700</v>
       </c>
       <c r="J4" s="14">
-        <v>1590411600</v>
+        <v>1594818000</v>
       </c>
       <c r="K4" s="14">
-        <v>1590163200</v>
+        <v>1590668700</v>
       </c>
       <c r="L4">
-        <v>1590422399</v>
+        <v>1594904400</v>
       </c>
       <c r="M4" s="16" t="s">
         <v>38</v>
@@ -2776,16 +2776,16 @@
         <v>317</v>
       </c>
       <c r="I5" s="14">
-        <v>1590582600</v>
+        <v>1595422500</v>
       </c>
       <c r="J5" s="14">
-        <v>1590584400</v>
+        <v>1595422800</v>
       </c>
       <c r="K5" s="14">
-        <v>1590422400</v>
+        <v>1590670500</v>
       </c>
       <c r="L5">
-        <v>1590595199</v>
+        <v>1595509200</v>
       </c>
       <c r="M5" s="16" t="s">
         <v>38</v>
@@ -2853,16 +2853,16 @@
         <v>317</v>
       </c>
       <c r="I6" s="40">
-        <v>1590755400</v>
+        <v>1596027300</v>
       </c>
       <c r="J6" s="14">
-        <v>1590757200</v>
+        <v>1596027600</v>
       </c>
       <c r="K6">
-        <v>1590595200</v>
+        <v>1590672300</v>
       </c>
       <c r="L6">
-        <v>1590767999</v>
+        <v>1596114000</v>
       </c>
       <c r="M6" s="16" t="s">
         <v>38</v>
@@ -2930,16 +2930,16 @@
         <v>317</v>
       </c>
       <c r="I7" s="40">
-        <v>1591014600</v>
+        <v>1596632100</v>
       </c>
       <c r="J7" s="14">
-        <v>1591016400</v>
+        <v>1596632400</v>
       </c>
       <c r="K7" s="14">
-        <v>1590768000</v>
+        <v>1590674100</v>
       </c>
       <c r="L7">
-        <v>1591027199</v>
+        <v>1596718800</v>
       </c>
       <c r="M7" s="16" t="s">
         <v>38</v>
@@ -3007,16 +3007,16 @@
         <v>317</v>
       </c>
       <c r="I8" s="40">
-        <v>1591187400</v>
+        <v>1597236900</v>
       </c>
       <c r="J8" s="14">
-        <v>1591189200</v>
+        <v>1597237200</v>
       </c>
       <c r="K8">
-        <v>1591027200</v>
+        <v>1590675900</v>
       </c>
       <c r="L8">
-        <v>1591199999</v>
+        <v>1597323600</v>
       </c>
       <c r="M8" s="16" t="s">
         <v>38</v>
@@ -3084,16 +3084,16 @@
         <v>317</v>
       </c>
       <c r="I9" s="40">
-        <v>1591360200</v>
+        <v>1597841700</v>
       </c>
       <c r="J9" s="14">
-        <v>1591362000</v>
+        <v>1597842000</v>
       </c>
       <c r="K9">
-        <v>1591200000</v>
+        <v>1590677700</v>
       </c>
       <c r="L9">
-        <v>1591372799</v>
+        <v>1597928400</v>
       </c>
       <c r="M9" s="16" t="s">
         <v>38</v>
@@ -3161,16 +3161,16 @@
         <v>317</v>
       </c>
       <c r="I10" s="40">
-        <v>1591619400</v>
+        <v>1598446500</v>
       </c>
       <c r="J10" s="14">
-        <v>1591621200</v>
+        <v>1598446800</v>
       </c>
       <c r="K10">
-        <v>1591372800</v>
+        <v>1590679500</v>
       </c>
       <c r="L10">
-        <v>1591631999</v>
+        <v>1598533200</v>
       </c>
       <c r="M10" s="16" t="s">
         <v>38</v>
@@ -3238,16 +3238,16 @@
         <v>317</v>
       </c>
       <c r="I11" s="40">
-        <v>1591792200</v>
+        <v>1599051300</v>
       </c>
       <c r="J11" s="14">
-        <v>1591794000</v>
+        <v>1599051600</v>
       </c>
       <c r="K11">
-        <v>1591632000</v>
+        <v>1590681300</v>
       </c>
       <c r="L11">
-        <v>1591804799</v>
+        <v>1599138000</v>
       </c>
       <c r="M11" s="16" t="s">
         <v>38</v>
@@ -3315,16 +3315,16 @@
         <v>317</v>
       </c>
       <c r="I12" s="8">
-        <v>1591965000</v>
+        <v>1599656100</v>
       </c>
       <c r="J12" s="14">
-        <v>1591966800</v>
+        <v>1599656400</v>
       </c>
       <c r="K12" s="8">
-        <v>1591804800</v>
+        <v>1590683100</v>
       </c>
       <c r="L12" s="8">
-        <v>1591977599</v>
+        <v>1599742800</v>
       </c>
       <c r="M12" s="16" t="s">
         <v>38</v>
@@ -3392,16 +3392,16 @@
         <v>317</v>
       </c>
       <c r="I13" s="8">
-        <v>1592224200</v>
+        <v>1600260900</v>
       </c>
       <c r="J13" s="14">
-        <v>1592226000</v>
+        <v>1600261200</v>
       </c>
       <c r="K13" s="8">
-        <v>1591977600</v>
+        <v>1590684900</v>
       </c>
       <c r="L13" s="8">
-        <v>1592236799</v>
+        <v>1600347600</v>
       </c>
       <c r="M13" s="16" t="s">
         <v>38</v>
@@ -3469,16 +3469,16 @@
         <v>317</v>
       </c>
       <c r="I14" s="8">
-        <v>1592397000</v>
+        <v>1600865700</v>
       </c>
       <c r="J14" s="14">
-        <v>1592398800</v>
+        <v>1600866000</v>
       </c>
       <c r="K14" s="8">
-        <v>1592236800</v>
+        <v>1590686700</v>
       </c>
       <c r="L14" s="8">
-        <v>1592409599</v>
+        <v>1600952400</v>
       </c>
       <c r="M14" s="16" t="s">
         <v>38</v>
@@ -3546,16 +3546,16 @@
         <v>317</v>
       </c>
       <c r="I15" s="8">
-        <v>1592569800</v>
+        <v>1601470500</v>
       </c>
       <c r="J15" s="14">
-        <v>1592571600</v>
+        <v>1601470800</v>
       </c>
       <c r="K15" s="8">
-        <v>1592409600</v>
+        <v>1590688500</v>
       </c>
       <c r="L15" s="8">
-        <v>1592582399</v>
+        <v>1601557200</v>
       </c>
       <c r="M15" s="16" t="s">
         <v>38</v>
@@ -3623,16 +3623,16 @@
         <v>317</v>
       </c>
       <c r="I16" s="8">
-        <v>1592829000</v>
+        <v>1602075300</v>
       </c>
       <c r="J16" s="14">
-        <v>1592830800</v>
+        <v>1602075600</v>
       </c>
       <c r="K16" s="8">
-        <v>1592582400</v>
+        <v>1590690300</v>
       </c>
       <c r="L16" s="8">
-        <v>1592841599</v>
+        <v>1602162000</v>
       </c>
       <c r="M16" s="16" t="s">
         <v>38</v>
@@ -3700,16 +3700,16 @@
         <v>317</v>
       </c>
       <c r="I17" s="8">
-        <v>1593001800</v>
+        <v>1602680100</v>
       </c>
       <c r="J17" s="14">
-        <v>1593003600</v>
+        <v>1602680400</v>
       </c>
       <c r="K17" s="8">
-        <v>1592841600</v>
+        <v>1590692100</v>
       </c>
       <c r="L17" s="8">
-        <v>1593014399</v>
+        <v>1602766800</v>
       </c>
       <c r="M17" s="16" t="s">
         <v>38</v>
@@ -3777,16 +3777,16 @@
         <v>317</v>
       </c>
       <c r="I18" s="8">
-        <v>1593174600</v>
+        <v>1603284900</v>
       </c>
       <c r="J18" s="14">
-        <v>1593176400</v>
+        <v>1603285200</v>
       </c>
       <c r="K18" s="8">
-        <v>1593014400</v>
+        <v>1590693900</v>
       </c>
       <c r="L18" s="8">
-        <v>1593187199</v>
+        <v>1603371600</v>
       </c>
       <c r="M18" s="16" t="s">
         <v>38</v>
@@ -3854,16 +3854,16 @@
         <v>317</v>
       </c>
       <c r="I19" s="8">
-        <v>1593433800</v>
+        <v>1603889700</v>
       </c>
       <c r="J19" s="14">
-        <v>1593435600</v>
+        <v>1603890000</v>
       </c>
       <c r="K19" s="8">
-        <v>1593187200</v>
+        <v>1590695700</v>
       </c>
       <c r="L19" s="8">
-        <v>1593446399</v>
+        <v>1603976400</v>
       </c>
       <c r="M19" s="16" t="s">
         <v>38</v>
@@ -3931,16 +3931,16 @@
         <v>317</v>
       </c>
       <c r="I20" s="8">
-        <v>1593606600</v>
+        <v>1604494500</v>
       </c>
       <c r="J20" s="14">
-        <v>1593608400</v>
+        <v>1604494800</v>
       </c>
       <c r="K20" s="8">
-        <v>1593446400</v>
+        <v>1590697500</v>
       </c>
       <c r="L20" s="8">
-        <v>1593619199</v>
+        <v>1604581200</v>
       </c>
       <c r="M20" s="16" t="s">
         <v>38</v>
@@ -4008,16 +4008,16 @@
         <v>317</v>
       </c>
       <c r="I21" s="8">
-        <v>1593779400</v>
+        <v>1605099300</v>
       </c>
       <c r="J21" s="14">
-        <v>1593781200</v>
+        <v>1605099600</v>
       </c>
       <c r="K21" s="8">
-        <v>1593619200</v>
+        <v>1590699300</v>
       </c>
       <c r="L21" s="8">
-        <v>1593791999</v>
+        <v>1605186000</v>
       </c>
       <c r="M21" s="16" t="s">
         <v>38</v>
@@ -4085,16 +4085,16 @@
         <v>317</v>
       </c>
       <c r="I22" s="8">
-        <v>1594038600</v>
+        <v>1605704100</v>
       </c>
       <c r="J22" s="14">
-        <v>1594040400</v>
+        <v>1605704400</v>
       </c>
       <c r="K22" s="8">
-        <v>1593792000</v>
+        <v>1590701100</v>
       </c>
       <c r="L22" s="8">
-        <v>1594051199</v>
+        <v>1605790800</v>
       </c>
       <c r="M22" s="16" t="s">
         <v>38</v>
@@ -4162,16 +4162,16 @@
         <v>317</v>
       </c>
       <c r="I23" s="8">
-        <v>1594211400</v>
+        <v>1606308900</v>
       </c>
       <c r="J23" s="14">
-        <v>1594213200</v>
+        <v>1606309200</v>
       </c>
       <c r="K23" s="8">
-        <v>1594051200</v>
+        <v>1590702900</v>
       </c>
       <c r="L23" s="8">
-        <v>1594223999</v>
+        <v>1606395600</v>
       </c>
       <c r="M23" s="16" t="s">
         <v>38</v>
@@ -4239,16 +4239,16 @@
         <v>317</v>
       </c>
       <c r="I24" s="8">
-        <v>1594384200</v>
+        <v>1606913700</v>
       </c>
       <c r="J24" s="14">
-        <v>1594386000</v>
+        <v>1606914000</v>
       </c>
       <c r="K24" s="8">
-        <v>1594224000</v>
+        <v>1590704700</v>
       </c>
       <c r="L24" s="8">
-        <v>1594396799</v>
+        <v>1607000400</v>
       </c>
       <c r="M24" s="16" t="s">
         <v>38</v>
@@ -4316,16 +4316,16 @@
         <v>317</v>
       </c>
       <c r="I25" s="8">
-        <v>1594643400</v>
+        <v>1607518500</v>
       </c>
       <c r="J25" s="14">
-        <v>1594645200</v>
+        <v>1607518800</v>
       </c>
       <c r="K25" s="8">
-        <v>1594396800</v>
+        <v>1590706500</v>
       </c>
       <c r="L25" s="8">
-        <v>1594655999</v>
+        <v>1607605200</v>
       </c>
       <c r="M25" s="16" t="s">
         <v>38</v>
@@ -4393,16 +4393,16 @@
         <v>317</v>
       </c>
       <c r="I26" s="8">
-        <v>1594816200</v>
+        <v>1608123300</v>
       </c>
       <c r="J26" s="14">
-        <v>1594818000</v>
+        <v>1608123600</v>
       </c>
       <c r="K26" s="8">
-        <v>1594656000</v>
+        <v>1590708300</v>
       </c>
       <c r="L26" s="8">
-        <v>1594828799</v>
+        <v>1608210000</v>
       </c>
       <c r="M26" s="16" t="s">
         <v>38</v>
@@ -4470,16 +4470,16 @@
         <v>317</v>
       </c>
       <c r="I27" s="8">
-        <v>1594989000</v>
+        <v>1608728100</v>
       </c>
       <c r="J27" s="14">
-        <v>1594990800</v>
+        <v>1608728400</v>
       </c>
       <c r="K27" s="8">
-        <v>1594828800</v>
+        <v>1590710100</v>
       </c>
       <c r="L27" s="8">
-        <v>1595001599</v>
+        <v>1608814800</v>
       </c>
       <c r="M27" s="16" t="s">
         <v>38</v>
@@ -4547,16 +4547,16 @@
         <v>317</v>
       </c>
       <c r="I28" s="8">
-        <v>1595248200</v>
+        <v>1609332900</v>
       </c>
       <c r="J28" s="14">
-        <v>1595250000</v>
+        <v>1609333200</v>
       </c>
       <c r="K28" s="8">
-        <v>1595001600</v>
+        <v>1590711900</v>
       </c>
       <c r="L28" s="8">
-        <v>1595260799</v>
+        <v>1609419600</v>
       </c>
       <c r="M28" s="16" t="s">
         <v>38</v>
@@ -4624,16 +4624,16 @@
         <v>317</v>
       </c>
       <c r="I29" s="8">
-        <v>1595421000</v>
+        <v>1609937700</v>
       </c>
       <c r="J29" s="14">
-        <v>1595422800</v>
+        <v>1609938000</v>
       </c>
       <c r="K29" s="8">
-        <v>1595260800</v>
+        <v>1590713700</v>
       </c>
       <c r="L29" s="8">
-        <v>1595433599</v>
+        <v>1610024400</v>
       </c>
       <c r="M29" s="16" t="s">
         <v>38</v>
@@ -4701,16 +4701,16 @@
         <v>317</v>
       </c>
       <c r="I30" s="8">
-        <v>1595593800</v>
+        <v>1610542500</v>
       </c>
       <c r="J30" s="14">
-        <v>1595595600</v>
+        <v>1610542800</v>
       </c>
       <c r="K30" s="8">
-        <v>1595433600</v>
+        <v>1590715500</v>
       </c>
       <c r="L30" s="8">
-        <v>1595606399</v>
+        <v>1610629200</v>
       </c>
       <c r="M30" s="16" t="s">
         <v>38</v>
@@ -4778,16 +4778,16 @@
         <v>317</v>
       </c>
       <c r="I31" s="8">
-        <v>1595853000</v>
+        <v>1611147300</v>
       </c>
       <c r="J31" s="14">
-        <v>1595854800</v>
+        <v>1611147600</v>
       </c>
       <c r="K31" s="8">
-        <v>1595606400</v>
+        <v>1590717300</v>
       </c>
       <c r="L31" s="8">
-        <v>1595865599</v>
+        <v>1611234000</v>
       </c>
       <c r="M31" s="16" t="s">
         <v>38</v>
@@ -4855,16 +4855,16 @@
         <v>317</v>
       </c>
       <c r="I32" s="8">
-        <v>1596025800</v>
+        <v>1611752100</v>
       </c>
       <c r="J32" s="14">
-        <v>1596027600</v>
+        <v>1611752400</v>
       </c>
       <c r="K32" s="8">
-        <v>1595865600</v>
+        <v>1590719100</v>
       </c>
       <c r="L32" s="8">
-        <v>1596038399</v>
+        <v>1611838800</v>
       </c>
       <c r="M32" s="16" t="s">
         <v>38</v>
@@ -4932,16 +4932,16 @@
         <v>317</v>
       </c>
       <c r="I33" s="8">
-        <v>1596198600</v>
+        <v>1612356900</v>
       </c>
       <c r="J33" s="14">
-        <v>1596200400</v>
+        <v>1612357200</v>
       </c>
       <c r="K33" s="8">
-        <v>1596038400</v>
+        <v>1590720900</v>
       </c>
       <c r="L33" s="8">
-        <v>1596211199</v>
+        <v>1612443600</v>
       </c>
       <c r="M33" s="16" t="s">
         <v>38</v>
@@ -5009,16 +5009,16 @@
         <v>317</v>
       </c>
       <c r="I34" s="8">
-        <v>1596457800</v>
+        <v>1612961700</v>
       </c>
       <c r="J34" s="14">
-        <v>1596459600</v>
+        <v>1612962000</v>
       </c>
       <c r="K34" s="8">
-        <v>1596211200</v>
+        <v>1590722700</v>
       </c>
       <c r="L34" s="8">
-        <v>1596470399</v>
+        <v>1613048400</v>
       </c>
       <c r="M34" s="16" t="s">
         <v>38</v>
@@ -5086,16 +5086,16 @@
         <v>317</v>
       </c>
       <c r="I35" s="8">
-        <v>1596630600</v>
+        <v>1613566500</v>
       </c>
       <c r="J35" s="14">
-        <v>1596632400</v>
+        <v>1613566800</v>
       </c>
       <c r="K35" s="8">
-        <v>1596470400</v>
+        <v>1590724500</v>
       </c>
       <c r="L35" s="8">
-        <v>1596643199</v>
+        <v>1613653200</v>
       </c>
       <c r="M35" s="16" t="s">
         <v>38</v>
@@ -5163,16 +5163,16 @@
         <v>317</v>
       </c>
       <c r="I36" s="8">
-        <v>1596803400</v>
+        <v>1614171300</v>
       </c>
       <c r="J36" s="14">
-        <v>1596805200</v>
+        <v>1614171600</v>
       </c>
       <c r="K36" s="8">
-        <v>1596643200</v>
+        <v>1590726300</v>
       </c>
       <c r="L36" s="8">
-        <v>1596815999</v>
+        <v>1614258000</v>
       </c>
       <c r="M36" s="16" t="s">
         <v>38</v>
@@ -5240,16 +5240,16 @@
         <v>317</v>
       </c>
       <c r="I37" s="8">
-        <v>1597062600</v>
+        <v>1614776100</v>
       </c>
       <c r="J37" s="14">
-        <v>1597064400</v>
+        <v>1614776400</v>
       </c>
       <c r="K37" s="8">
-        <v>1596816000</v>
+        <v>1590728100</v>
       </c>
       <c r="L37" s="8">
-        <v>1597075199</v>
+        <v>1614862800</v>
       </c>
       <c r="M37" s="16" t="s">
         <v>38</v>
@@ -5317,16 +5317,16 @@
         <v>317</v>
       </c>
       <c r="I38" s="8">
-        <v>1597235400</v>
+        <v>1615380900</v>
       </c>
       <c r="J38" s="14">
-        <v>1597237200</v>
+        <v>1615381200</v>
       </c>
       <c r="K38" s="8">
-        <v>1597075200</v>
+        <v>1590729900</v>
       </c>
       <c r="L38" s="8">
-        <v>1597247999</v>
+        <v>1615467600</v>
       </c>
       <c r="M38" s="16" t="s">
         <v>38</v>
@@ -5394,16 +5394,16 @@
         <v>317</v>
       </c>
       <c r="I39" s="8">
-        <v>1597408200</v>
+        <v>1615985700</v>
       </c>
       <c r="J39" s="14">
-        <v>1597410000</v>
+        <v>1615986000</v>
       </c>
       <c r="K39" s="8">
-        <v>1597248000</v>
+        <v>1590731700</v>
       </c>
       <c r="L39" s="8">
-        <v>1597420799</v>
+        <v>1616072400</v>
       </c>
       <c r="M39" s="16" t="s">
         <v>38</v>
@@ -5471,16 +5471,16 @@
         <v>317</v>
       </c>
       <c r="I40" s="8">
-        <v>1597667400</v>
+        <v>1616590500</v>
       </c>
       <c r="J40" s="14">
-        <v>1597669200</v>
+        <v>1616590800</v>
       </c>
       <c r="K40" s="8">
-        <v>1597420800</v>
+        <v>1590733500</v>
       </c>
       <c r="L40" s="8">
-        <v>1597679999</v>
+        <v>1616677200</v>
       </c>
       <c r="M40" s="16" t="s">
         <v>38</v>
@@ -5548,16 +5548,16 @@
         <v>317</v>
       </c>
       <c r="I41" s="8">
-        <v>1597840200</v>
+        <v>1617195300</v>
       </c>
       <c r="J41" s="14">
-        <v>1597842000</v>
+        <v>1617195600</v>
       </c>
       <c r="K41" s="8">
-        <v>1597680000</v>
+        <v>1590735300</v>
       </c>
       <c r="L41" s="8">
-        <v>1597852799</v>
+        <v>1617282000</v>
       </c>
       <c r="M41" s="16" t="s">
         <v>38</v>
@@ -5625,16 +5625,16 @@
         <v>317</v>
       </c>
       <c r="I42" s="8">
-        <v>1598013000</v>
+        <v>1617800100</v>
       </c>
       <c r="J42" s="14">
-        <v>1598014800</v>
+        <v>1617800400</v>
       </c>
       <c r="K42" s="8">
-        <v>1597852800</v>
+        <v>1590737100</v>
       </c>
       <c r="L42" s="8">
-        <v>1598025599</v>
+        <v>1617886800</v>
       </c>
       <c r="M42" s="16" t="s">
         <v>38</v>
@@ -5702,16 +5702,16 @@
         <v>317</v>
       </c>
       <c r="I43" s="8">
-        <v>1598272200</v>
+        <v>1618404900</v>
       </c>
       <c r="J43" s="14">
-        <v>1598274000</v>
+        <v>1618405200</v>
       </c>
       <c r="K43" s="8">
-        <v>1598025600</v>
+        <v>1590738900</v>
       </c>
       <c r="L43" s="8">
-        <v>1598284799</v>
+        <v>1618491600</v>
       </c>
       <c r="M43" s="16" t="s">
         <v>38</v>
@@ -5779,16 +5779,16 @@
         <v>317</v>
       </c>
       <c r="I44" s="8">
-        <v>1598445000</v>
+        <v>1619009700</v>
       </c>
       <c r="J44" s="14">
-        <v>1598446800</v>
+        <v>1619010000</v>
       </c>
       <c r="K44" s="8">
-        <v>1598284800</v>
+        <v>1590740700</v>
       </c>
       <c r="L44" s="8">
-        <v>1598457599</v>
+        <v>1619096400</v>
       </c>
       <c r="M44" s="16" t="s">
         <v>38</v>
@@ -5856,16 +5856,16 @@
         <v>317</v>
       </c>
       <c r="I45" s="8">
-        <v>1598617800</v>
+        <v>1619614500</v>
       </c>
       <c r="J45" s="14">
-        <v>1598619600</v>
+        <v>1619614800</v>
       </c>
       <c r="K45" s="8">
-        <v>1598457600</v>
+        <v>1590742500</v>
       </c>
       <c r="L45" s="8">
-        <v>1598630399</v>
+        <v>1619701200</v>
       </c>
       <c r="M45" s="16" t="s">
         <v>38</v>
@@ -5933,16 +5933,16 @@
         <v>317</v>
       </c>
       <c r="I46" s="8">
-        <v>1598877000</v>
+        <v>1620219300</v>
       </c>
       <c r="J46" s="14">
-        <v>1598878800</v>
+        <v>1620219600</v>
       </c>
       <c r="K46" s="8">
-        <v>1598630400</v>
+        <v>1590744300</v>
       </c>
       <c r="L46" s="8">
-        <v>1598889599</v>
+        <v>1620306000</v>
       </c>
       <c r="M46" s="16" t="s">
         <v>38</v>
@@ -6010,16 +6010,16 @@
         <v>317</v>
       </c>
       <c r="I47" s="8">
-        <v>1599049800</v>
+        <v>1620824100</v>
       </c>
       <c r="J47" s="14">
-        <v>1599051600</v>
+        <v>1620824400</v>
       </c>
       <c r="K47" s="8">
-        <v>1598889600</v>
+        <v>1590746100</v>
       </c>
       <c r="L47" s="8">
-        <v>1599062399</v>
+        <v>1620910800</v>
       </c>
       <c r="M47" s="16" t="s">
         <v>38</v>
@@ -6087,16 +6087,16 @@
         <v>317</v>
       </c>
       <c r="I48" s="8">
-        <v>1599222600</v>
+        <v>1621428900</v>
       </c>
       <c r="J48" s="14">
-        <v>1599224400</v>
+        <v>1621429200</v>
       </c>
       <c r="K48" s="8">
-        <v>1599062400</v>
+        <v>1590747900</v>
       </c>
       <c r="L48" s="8">
-        <v>1599235199</v>
+        <v>1621515600</v>
       </c>
       <c r="M48" s="16" t="s">
         <v>38</v>
@@ -6164,16 +6164,16 @@
         <v>317</v>
       </c>
       <c r="I49" s="8">
-        <v>1599481800</v>
+        <v>1622033700</v>
       </c>
       <c r="J49" s="14">
-        <v>1599483600</v>
+        <v>1622034000</v>
       </c>
       <c r="K49" s="8">
-        <v>1599235200</v>
+        <v>1590749700</v>
       </c>
       <c r="L49" s="8">
-        <v>1599494399</v>
+        <v>1622120400</v>
       </c>
       <c r="M49" s="16" t="s">
         <v>38</v>
@@ -6241,16 +6241,16 @@
         <v>317</v>
       </c>
       <c r="I50" s="8">
-        <v>1599654600</v>
+        <v>1622638500</v>
       </c>
       <c r="J50" s="14">
-        <v>1599656400</v>
+        <v>1622638800</v>
       </c>
       <c r="K50" s="8">
-        <v>1599494400</v>
+        <v>1590751500</v>
       </c>
       <c r="L50" s="8">
-        <v>1599667199</v>
+        <v>1622725200</v>
       </c>
       <c r="M50" s="16" t="s">
         <v>38</v>
@@ -6318,16 +6318,16 @@
         <v>317</v>
       </c>
       <c r="I51" s="8">
-        <v>1599827400</v>
+        <v>1623243300</v>
       </c>
       <c r="J51" s="31">
-        <v>1599829200</v>
+        <v>1623243600</v>
       </c>
       <c r="K51" s="30">
-        <v>1599667200</v>
+        <v>1590753300</v>
       </c>
       <c r="L51" s="30">
-        <v>1599839999</v>
+        <v>1623330000</v>
       </c>
       <c r="M51" s="29" t="s">
         <v>38</v>
@@ -6395,16 +6395,16 @@
         <v>317</v>
       </c>
       <c r="I52" s="8">
-        <v>1600086600</v>
+        <v>1623848100</v>
       </c>
       <c r="J52" s="14">
-        <v>1600088400</v>
+        <v>1623848400</v>
       </c>
       <c r="K52" s="8">
-        <v>1599840000</v>
+        <v>1590755100</v>
       </c>
       <c r="L52" s="8">
-        <v>1600099199</v>
+        <v>1623934800</v>
       </c>
       <c r="M52" s="16" t="s">
         <v>38</v>
@@ -6472,16 +6472,16 @@
         <v>317</v>
       </c>
       <c r="I53" s="8">
-        <v>1600259400</v>
+        <v>1624452900</v>
       </c>
       <c r="J53" s="14">
-        <v>1600261200</v>
+        <v>1624453200</v>
       </c>
       <c r="K53" s="8">
-        <v>1600099200</v>
+        <v>1590756900</v>
       </c>
       <c r="L53" s="8">
-        <v>1600271999</v>
+        <v>1624539600</v>
       </c>
       <c r="M53" s="16" t="s">
         <v>38</v>
@@ -6549,16 +6549,16 @@
         <v>317</v>
       </c>
       <c r="I54" s="8">
-        <v>1600432200</v>
+        <v>1625057700</v>
       </c>
       <c r="J54" s="14">
-        <v>1600434000</v>
+        <v>1625058000</v>
       </c>
       <c r="K54" s="8">
-        <v>1600272000</v>
+        <v>1590758700</v>
       </c>
       <c r="L54" s="8">
-        <v>1600444799</v>
+        <v>1625144400</v>
       </c>
       <c r="M54" s="16" t="s">
         <v>38</v>
@@ -6626,16 +6626,16 @@
         <v>317</v>
       </c>
       <c r="I55" s="8">
-        <v>1600691400</v>
+        <v>1625662500</v>
       </c>
       <c r="J55" s="14">
-        <v>1600693200</v>
+        <v>1625662800</v>
       </c>
       <c r="K55" s="8">
-        <v>1600444800</v>
+        <v>1590760500</v>
       </c>
       <c r="L55" s="8">
-        <v>1600703999</v>
+        <v>1625749200</v>
       </c>
       <c r="M55" s="16" t="s">
         <v>38</v>
@@ -6703,16 +6703,16 @@
         <v>317</v>
       </c>
       <c r="I56" s="8">
-        <v>1600864200</v>
+        <v>1626267300</v>
       </c>
       <c r="J56" s="14">
-        <v>1600866000</v>
+        <v>1626267600</v>
       </c>
       <c r="K56" s="8">
-        <v>1600704000</v>
+        <v>1590762300</v>
       </c>
       <c r="L56" s="8">
-        <v>1600876799</v>
+        <v>1626354000</v>
       </c>
       <c r="M56" s="16" t="s">
         <v>38</v>
@@ -6780,16 +6780,16 @@
         <v>317</v>
       </c>
       <c r="I57" s="8">
-        <v>1601037000</v>
+        <v>1626872100</v>
       </c>
       <c r="J57" s="14">
-        <v>1601038800</v>
+        <v>1626872400</v>
       </c>
       <c r="K57" s="8">
-        <v>1600876800</v>
+        <v>1590764100</v>
       </c>
       <c r="L57" s="8">
-        <v>1601049599</v>
+        <v>1626958800</v>
       </c>
       <c r="M57" s="16" t="s">
         <v>38</v>
@@ -6857,16 +6857,16 @@
         <v>317</v>
       </c>
       <c r="I58" s="8">
-        <v>1601296200</v>
+        <v>1627476900</v>
       </c>
       <c r="J58" s="14">
-        <v>1601298000</v>
+        <v>1627477200</v>
       </c>
       <c r="K58" s="8">
-        <v>1601049600</v>
+        <v>1590765900</v>
       </c>
       <c r="L58" s="8">
-        <v>1601308799</v>
+        <v>1627563600</v>
       </c>
       <c r="M58" s="16" t="s">
         <v>38</v>
@@ -6934,16 +6934,16 @@
         <v>317</v>
       </c>
       <c r="I59" s="8">
-        <v>1601469000</v>
+        <v>1628081700</v>
       </c>
       <c r="J59" s="14">
-        <v>1601470800</v>
+        <v>1628082000</v>
       </c>
       <c r="K59" s="8">
-        <v>1601308800</v>
+        <v>1590767700</v>
       </c>
       <c r="L59" s="8">
-        <v>1601481599</v>
+        <v>1628168400</v>
       </c>
       <c r="M59" s="16" t="s">
         <v>38</v>
@@ -7011,16 +7011,16 @@
         <v>317</v>
       </c>
       <c r="I60" s="8">
-        <v>1601641800</v>
+        <v>1628686500</v>
       </c>
       <c r="J60" s="14">
-        <v>1601643600</v>
+        <v>1628686800</v>
       </c>
       <c r="K60" s="8">
-        <v>1601481600</v>
+        <v>1590769500</v>
       </c>
       <c r="L60" s="8">
-        <v>1601654399</v>
+        <v>1628773200</v>
       </c>
       <c r="M60" s="16" t="s">
         <v>38</v>
@@ -7088,16 +7088,16 @@
         <v>317</v>
       </c>
       <c r="I61" s="8">
-        <v>1601901000</v>
+        <v>1629291300</v>
       </c>
       <c r="J61" s="14">
-        <v>1601902800</v>
+        <v>1629291600</v>
       </c>
       <c r="K61" s="8">
-        <v>1601654400</v>
+        <v>1590771300</v>
       </c>
       <c r="L61" s="8">
-        <v>1601913599</v>
+        <v>1629378000</v>
       </c>
       <c r="M61" s="16" t="s">
         <v>38</v>
@@ -7165,16 +7165,16 @@
         <v>317</v>
       </c>
       <c r="I62" s="8">
-        <v>1602073800</v>
+        <v>1629896100</v>
       </c>
       <c r="J62" s="14">
-        <v>1602075600</v>
+        <v>1629896400</v>
       </c>
       <c r="K62" s="8">
-        <v>1601913600</v>
+        <v>1590773100</v>
       </c>
       <c r="L62" s="8">
-        <v>1602086399</v>
+        <v>1629982800</v>
       </c>
       <c r="M62" s="16" t="s">
         <v>38</v>
@@ -7242,16 +7242,16 @@
         <v>317</v>
       </c>
       <c r="I63" s="8">
-        <v>1602246600</v>
+        <v>1630500900</v>
       </c>
       <c r="J63" s="14">
-        <v>1602248400</v>
+        <v>1630501200</v>
       </c>
       <c r="K63" s="8">
-        <v>1602086400</v>
+        <v>1590774900</v>
       </c>
       <c r="L63" s="8">
-        <v>1602259199</v>
+        <v>1630587600</v>
       </c>
       <c r="M63" s="16" t="s">
         <v>38</v>
@@ -7319,16 +7319,16 @@
         <v>317</v>
       </c>
       <c r="I64" s="8">
-        <v>1602505800</v>
+        <v>1631105700</v>
       </c>
       <c r="J64" s="14">
-        <v>1602507600</v>
+        <v>1631106000</v>
       </c>
       <c r="K64" s="8">
-        <v>1602259200</v>
+        <v>1590776700</v>
       </c>
       <c r="L64" s="8">
-        <v>1602518399</v>
+        <v>1631192400</v>
       </c>
       <c r="M64" s="16" t="s">
         <v>38</v>
@@ -7396,16 +7396,16 @@
         <v>317</v>
       </c>
       <c r="I65" s="8">
-        <v>1602678600</v>
+        <v>1631710500</v>
       </c>
       <c r="J65" s="14">
-        <v>1602680400</v>
+        <v>1631710800</v>
       </c>
       <c r="K65" s="8">
-        <v>1602518400</v>
+        <v>1590778500</v>
       </c>
       <c r="L65" s="8">
-        <v>1602691199</v>
+        <v>1631797200</v>
       </c>
       <c r="M65" s="16" t="s">
         <v>38</v>
@@ -7473,16 +7473,16 @@
         <v>317</v>
       </c>
       <c r="I66" s="8">
-        <v>1602851400</v>
+        <v>1632315300</v>
       </c>
       <c r="J66" s="14">
-        <v>1602853200</v>
+        <v>1632315600</v>
       </c>
       <c r="K66" s="8">
-        <v>1602691200</v>
+        <v>1590780300</v>
       </c>
       <c r="L66" s="8">
-        <v>1602863999</v>
+        <v>1632402000</v>
       </c>
       <c r="M66" s="16" t="s">
         <v>38</v>
@@ -7550,16 +7550,16 @@
         <v>317</v>
       </c>
       <c r="I67" s="8">
-        <v>1603110600</v>
+        <v>1632920100</v>
       </c>
       <c r="J67" s="14">
-        <v>1603112400</v>
+        <v>1632920400</v>
       </c>
       <c r="K67" s="8">
-        <v>1602864000</v>
+        <v>1590782100</v>
       </c>
       <c r="L67" s="8">
-        <v>1603123199</v>
+        <v>1633006800</v>
       </c>
       <c r="M67" s="16" t="s">
         <v>38</v>
@@ -7627,16 +7627,16 @@
         <v>317</v>
       </c>
       <c r="I68" s="8">
-        <v>1603283400</v>
+        <v>1633524900</v>
       </c>
       <c r="J68" s="14">
-        <v>1603285200</v>
+        <v>1633525200</v>
       </c>
       <c r="K68" s="8">
-        <v>1603123200</v>
+        <v>1590783900</v>
       </c>
       <c r="L68" s="8">
-        <v>1603295999</v>
+        <v>1633611600</v>
       </c>
       <c r="M68" s="16" t="s">
         <v>38</v>
@@ -7704,16 +7704,16 @@
         <v>317</v>
       </c>
       <c r="I69" s="8">
-        <v>1603456200</v>
+        <v>1634129700</v>
       </c>
       <c r="J69" s="14">
-        <v>1603458000</v>
+        <v>1634130000</v>
       </c>
       <c r="K69" s="8">
-        <v>1603296000</v>
+        <v>1590785700</v>
       </c>
       <c r="L69" s="8">
-        <v>1603468799</v>
+        <v>1634216400</v>
       </c>
       <c r="M69" s="16" t="s">
         <v>38</v>
@@ -7781,16 +7781,16 @@
         <v>317</v>
       </c>
       <c r="I70" s="8">
-        <v>1603715400</v>
+        <v>1634734500</v>
       </c>
       <c r="J70" s="14">
-        <v>1603717200</v>
+        <v>1634734800</v>
       </c>
       <c r="K70" s="8">
-        <v>1603468800</v>
+        <v>1590787500</v>
       </c>
       <c r="L70" s="8">
-        <v>1603727999</v>
+        <v>1634821200</v>
       </c>
       <c r="M70" s="16" t="s">
         <v>38</v>
@@ -7858,16 +7858,16 @@
         <v>317</v>
       </c>
       <c r="I71" s="8">
-        <v>1603888200</v>
+        <v>1635339300</v>
       </c>
       <c r="J71" s="14">
-        <v>1603890000</v>
+        <v>1635339600</v>
       </c>
       <c r="K71" s="8">
-        <v>1603728000</v>
+        <v>1590789300</v>
       </c>
       <c r="L71" s="8">
-        <v>1603900799</v>
+        <v>1635426000</v>
       </c>
       <c r="M71" s="16" t="s">
         <v>38</v>
@@ -7935,16 +7935,16 @@
         <v>317</v>
       </c>
       <c r="I72" s="8">
-        <v>1604061000</v>
+        <v>1635944100</v>
       </c>
       <c r="J72" s="14">
-        <v>1604062800</v>
+        <v>1635944400</v>
       </c>
       <c r="K72" s="8">
-        <v>1603900800</v>
+        <v>1590791100</v>
       </c>
       <c r="L72" s="8">
-        <v>1604073599</v>
+        <v>1636030800</v>
       </c>
       <c r="M72" s="16" t="s">
         <v>38</v>
@@ -8012,16 +8012,16 @@
         <v>317</v>
       </c>
       <c r="I73" s="8">
-        <v>1604320200</v>
+        <v>1636548900</v>
       </c>
       <c r="J73" s="14">
-        <v>1604322000</v>
+        <v>1636549200</v>
       </c>
       <c r="K73" s="8">
-        <v>1604073600</v>
+        <v>1590792900</v>
       </c>
       <c r="L73" s="8">
-        <v>1604332799</v>
+        <v>1636635600</v>
       </c>
       <c r="M73" s="16" t="s">
         <v>38</v>
@@ -8089,16 +8089,16 @@
         <v>317</v>
       </c>
       <c r="I74" s="8">
-        <v>1604493000</v>
+        <v>1637153700</v>
       </c>
       <c r="J74" s="14">
-        <v>1604494800</v>
+        <v>1637154000</v>
       </c>
       <c r="K74" s="8">
-        <v>1604332800</v>
+        <v>1590794700</v>
       </c>
       <c r="L74" s="8">
-        <v>1604505599</v>
+        <v>1637240400</v>
       </c>
       <c r="M74" s="16" t="s">
         <v>38</v>
@@ -8166,16 +8166,16 @@
         <v>317</v>
       </c>
       <c r="I75" s="8">
-        <v>1604665800</v>
+        <v>1637758500</v>
       </c>
       <c r="J75" s="14">
-        <v>1604667600</v>
+        <v>1637758800</v>
       </c>
       <c r="K75" s="8">
-        <v>1604505600</v>
+        <v>1590796500</v>
       </c>
       <c r="L75" s="8">
-        <v>1604678399</v>
+        <v>1637845200</v>
       </c>
       <c r="M75" s="16" t="s">
         <v>38</v>
@@ -8243,16 +8243,16 @@
         <v>317</v>
       </c>
       <c r="I76" s="8">
-        <v>1604925000</v>
+        <v>1638363300</v>
       </c>
       <c r="J76" s="14">
-        <v>1604926800</v>
+        <v>1638363600</v>
       </c>
       <c r="K76" s="8">
-        <v>1604678400</v>
+        <v>1590798300</v>
       </c>
       <c r="L76" s="8">
-        <v>1604937599</v>
+        <v>1638450000</v>
       </c>
       <c r="M76" s="16" t="s">
         <v>38</v>
@@ -8320,16 +8320,16 @@
         <v>317</v>
       </c>
       <c r="I77" s="8">
-        <v>1605097800</v>
+        <v>1638968100</v>
       </c>
       <c r="J77" s="14">
-        <v>1605099600</v>
+        <v>1638968400</v>
       </c>
       <c r="K77" s="8">
-        <v>1604937600</v>
+        <v>1590800100</v>
       </c>
       <c r="L77" s="8">
-        <v>1605110399</v>
+        <v>1639054800</v>
       </c>
       <c r="M77" s="16" t="s">
         <v>38</v>
@@ -8397,16 +8397,16 @@
         <v>317</v>
       </c>
       <c r="I78" s="8">
-        <v>1605270600</v>
+        <v>1639572900</v>
       </c>
       <c r="J78" s="14">
-        <v>1605272400</v>
+        <v>1639573200</v>
       </c>
       <c r="K78" s="8">
-        <v>1605110400</v>
+        <v>1590801900</v>
       </c>
       <c r="L78" s="8">
-        <v>1605283199</v>
+        <v>1639659600</v>
       </c>
       <c r="M78" s="16" t="s">
         <v>38</v>
@@ -8474,16 +8474,16 @@
         <v>317</v>
       </c>
       <c r="I79" s="14">
-        <v>1605529800</v>
+        <v>1640177700</v>
       </c>
       <c r="J79" s="14">
-        <v>1605531600</v>
+        <v>1640178000</v>
       </c>
       <c r="K79" s="8">
-        <v>1605283200</v>
+        <v>1590803700</v>
       </c>
       <c r="L79" s="8">
-        <v>1605542399</v>
+        <v>1640264400</v>
       </c>
       <c r="M79" s="16" t="s">
         <v>38</v>
@@ -8551,16 +8551,16 @@
         <v>317</v>
       </c>
       <c r="I80" s="14">
-        <v>1605702600</v>
+        <v>1640782500</v>
       </c>
       <c r="J80" s="14">
-        <v>1605704400</v>
+        <v>1640782800</v>
       </c>
       <c r="K80" s="8">
-        <v>1605542400</v>
+        <v>1590805500</v>
       </c>
       <c r="L80" s="8">
-        <v>1605715199</v>
+        <v>1640869200</v>
       </c>
       <c r="M80" s="16" t="s">
         <v>38</v>
@@ -8628,16 +8628,16 @@
         <v>317</v>
       </c>
       <c r="I81" s="14">
-        <v>1605875400</v>
+        <v>1641387300</v>
       </c>
       <c r="J81" s="14">
-        <v>1605877200</v>
+        <v>1641387600</v>
       </c>
       <c r="K81" s="8">
-        <v>1605715200</v>
+        <v>1590807300</v>
       </c>
       <c r="L81" s="8">
-        <v>1605887999</v>
+        <v>1641474000</v>
       </c>
       <c r="M81" s="16" t="s">
         <v>38</v>
@@ -8705,16 +8705,16 @@
         <v>317</v>
       </c>
       <c r="I82" s="14">
-        <v>1606134600</v>
+        <v>1641992100</v>
       </c>
       <c r="J82" s="14">
-        <v>1606136400</v>
+        <v>1641992400</v>
       </c>
       <c r="K82" s="8">
-        <v>1605888000</v>
+        <v>1590809100</v>
       </c>
       <c r="L82" s="8">
-        <v>1606147199</v>
+        <v>1642078800</v>
       </c>
       <c r="M82" s="16" t="s">
         <v>38</v>
@@ -8782,16 +8782,16 @@
         <v>317</v>
       </c>
       <c r="I83" s="40">
-        <v>1606307400</v>
+        <v>1642596900</v>
       </c>
       <c r="J83" s="14">
-        <v>1606309200</v>
+        <v>1642597200</v>
       </c>
       <c r="K83" s="8">
-        <v>1606147200</v>
+        <v>1590810900</v>
       </c>
       <c r="L83" s="8">
-        <v>1606319999</v>
+        <v>1642683600</v>
       </c>
       <c r="M83" s="16" t="s">
         <v>38</v>
@@ -8859,16 +8859,16 @@
         <v>317</v>
       </c>
       <c r="I84" s="40">
-        <v>1606480200</v>
+        <v>1643201700</v>
       </c>
       <c r="J84" s="14">
-        <v>1606482000</v>
+        <v>1643202000</v>
       </c>
       <c r="K84" s="8">
-        <v>1606320000</v>
+        <v>1590812700</v>
       </c>
       <c r="L84" s="8">
-        <v>1606492799</v>
+        <v>1643288400</v>
       </c>
       <c r="M84" s="16" t="s">
         <v>38</v>
@@ -8936,16 +8936,16 @@
         <v>317</v>
       </c>
       <c r="I85" s="40">
-        <v>1606739400</v>
+        <v>1643806500</v>
       </c>
       <c r="J85" s="14">
-        <v>1606741200</v>
+        <v>1643806800</v>
       </c>
       <c r="K85" s="8">
-        <v>1606492800</v>
+        <v>1590814500</v>
       </c>
       <c r="L85" s="8">
-        <v>1606751999</v>
+        <v>1643893200</v>
       </c>
       <c r="M85" s="16" t="s">
         <v>38</v>
@@ -9013,16 +9013,16 @@
         <v>317</v>
       </c>
       <c r="I86" s="40">
-        <v>1606912200</v>
+        <v>1644411300</v>
       </c>
       <c r="J86" s="14">
-        <v>1606914000</v>
+        <v>1644411600</v>
       </c>
       <c r="K86" s="8">
-        <v>1606752000</v>
+        <v>1590816300</v>
       </c>
       <c r="L86" s="8">
-        <v>1606924799</v>
+        <v>1644498000</v>
       </c>
       <c r="M86" s="16" t="s">
         <v>38</v>
@@ -9090,16 +9090,16 @@
         <v>317</v>
       </c>
       <c r="I87" s="40">
-        <v>1607085000</v>
+        <v>1645016100</v>
       </c>
       <c r="J87" s="14">
-        <v>1607086800</v>
+        <v>1645016400</v>
       </c>
       <c r="K87" s="8">
-        <v>1606924800</v>
+        <v>1590818100</v>
       </c>
       <c r="L87" s="8">
-        <v>1607097599</v>
+        <v>1645102800</v>
       </c>
       <c r="M87" s="16" t="s">
         <v>38</v>
@@ -9167,16 +9167,16 @@
         <v>317</v>
       </c>
       <c r="I88" s="40">
-        <v>1607344200</v>
+        <v>1645620900</v>
       </c>
       <c r="J88" s="14">
-        <v>1607346000</v>
+        <v>1645621200</v>
       </c>
       <c r="K88" s="8">
-        <v>1607097600</v>
+        <v>1590819900</v>
       </c>
       <c r="L88" s="8">
-        <v>1607356799</v>
+        <v>1645707600</v>
       </c>
       <c r="M88" s="16" t="s">
         <v>38</v>
@@ -9244,16 +9244,16 @@
         <v>317</v>
       </c>
       <c r="I89" s="8">
-        <v>1607517000</v>
+        <v>1646225700</v>
       </c>
       <c r="J89" s="14">
-        <v>1607518800</v>
+        <v>1646226000</v>
       </c>
       <c r="K89" s="8">
-        <v>1607356800</v>
+        <v>1590821700</v>
       </c>
       <c r="L89" s="8">
-        <v>1607529599</v>
+        <v>1646312400</v>
       </c>
       <c r="M89" s="16" t="s">
         <v>38</v>
@@ -9321,16 +9321,16 @@
         <v>317</v>
       </c>
       <c r="I90" s="8">
-        <v>1607689800</v>
+        <v>1646830500</v>
       </c>
       <c r="J90" s="14">
-        <v>1607691600</v>
+        <v>1646830800</v>
       </c>
       <c r="K90" s="8">
-        <v>1607529600</v>
+        <v>1590823500</v>
       </c>
       <c r="L90" s="8">
-        <v>1607702399</v>
+        <v>1646917200</v>
       </c>
       <c r="M90" s="16" t="s">
         <v>38</v>
@@ -9398,16 +9398,16 @@
         <v>317</v>
       </c>
       <c r="I91" s="8">
-        <v>1607949000</v>
+        <v>1647435300</v>
       </c>
       <c r="J91" s="14">
-        <v>1607950800</v>
+        <v>1647435600</v>
       </c>
       <c r="K91" s="8">
-        <v>1607702400</v>
+        <v>1590825300</v>
       </c>
       <c r="L91" s="8">
-        <v>1607961599</v>
+        <v>1647522000</v>
       </c>
       <c r="M91" s="16" t="s">
         <v>38</v>
@@ -9475,16 +9475,16 @@
         <v>317</v>
       </c>
       <c r="I92" s="8">
-        <v>1608121800</v>
+        <v>1648040100</v>
       </c>
       <c r="J92" s="14">
-        <v>1608123600</v>
+        <v>1648040400</v>
       </c>
       <c r="K92" s="8">
-        <v>1607961600</v>
+        <v>1590827100</v>
       </c>
       <c r="L92" s="8">
-        <v>1608134399</v>
+        <v>1648126800</v>
       </c>
       <c r="M92" s="16" t="s">
         <v>38</v>
@@ -9552,16 +9552,16 @@
         <v>317</v>
       </c>
       <c r="I93" s="8">
-        <v>1608294600</v>
+        <v>1648644900</v>
       </c>
       <c r="J93" s="14">
-        <v>1608296400</v>
+        <v>1648645200</v>
       </c>
       <c r="K93" s="8">
-        <v>1608134400</v>
+        <v>1590828900</v>
       </c>
       <c r="L93" s="8">
-        <v>1608307199</v>
+        <v>1648731600</v>
       </c>
       <c r="M93" s="16" t="s">
         <v>38</v>
@@ -9629,16 +9629,16 @@
         <v>317</v>
       </c>
       <c r="I94" s="8">
-        <v>1608553800</v>
+        <v>1649249700</v>
       </c>
       <c r="J94" s="14">
-        <v>1608555600</v>
+        <v>1649250000</v>
       </c>
       <c r="K94" s="8">
-        <v>1608307200</v>
+        <v>1590830700</v>
       </c>
       <c r="L94" s="8">
-        <v>1608566399</v>
+        <v>1649336400</v>
       </c>
       <c r="M94" s="16" t="s">
         <v>38</v>
@@ -9706,16 +9706,16 @@
         <v>317</v>
       </c>
       <c r="I95" s="8">
-        <v>1608726600</v>
+        <v>1649854500</v>
       </c>
       <c r="J95" s="14">
-        <v>1608728400</v>
+        <v>1649854800</v>
       </c>
       <c r="K95" s="8">
-        <v>1608566400</v>
+        <v>1590832500</v>
       </c>
       <c r="L95" s="8">
-        <v>1608739199</v>
+        <v>1649941200</v>
       </c>
       <c r="M95" s="16" t="s">
         <v>38</v>
@@ -9783,16 +9783,16 @@
         <v>317</v>
       </c>
       <c r="I96" s="8">
-        <v>1608899400</v>
+        <v>1650459300</v>
       </c>
       <c r="J96" s="14">
-        <v>1608901200</v>
+        <v>1650459600</v>
       </c>
       <c r="K96" s="8">
-        <v>1608739200</v>
+        <v>1590834300</v>
       </c>
       <c r="L96" s="8">
-        <v>1608911999</v>
+        <v>1650546000</v>
       </c>
       <c r="M96" s="16" t="s">
         <v>38</v>
@@ -9860,16 +9860,16 @@
         <v>317</v>
       </c>
       <c r="I97" s="8">
-        <v>1609158600</v>
+        <v>1651064100</v>
       </c>
       <c r="J97" s="14">
-        <v>1609160400</v>
+        <v>1651064400</v>
       </c>
       <c r="K97" s="8">
-        <v>1608912000</v>
+        <v>1590836100</v>
       </c>
       <c r="L97" s="8">
-        <v>1609171199</v>
+        <v>1651150800</v>
       </c>
       <c r="M97" s="16" t="s">
         <v>38</v>
@@ -9937,16 +9937,16 @@
         <v>317</v>
       </c>
       <c r="I98" s="8">
-        <v>1609331400</v>
+        <v>1651668900</v>
       </c>
       <c r="J98" s="14">
-        <v>1609333200</v>
+        <v>1651669200</v>
       </c>
       <c r="K98" s="8">
-        <v>1609171200</v>
+        <v>1590837900</v>
       </c>
       <c r="L98" s="8">
-        <v>1609343999</v>
+        <v>1651755600</v>
       </c>
       <c r="M98" s="16" t="s">
         <v>38</v>
@@ -10014,16 +10014,16 @@
         <v>317</v>
       </c>
       <c r="I99" s="8">
-        <v>1609504200</v>
+        <v>1652273700</v>
       </c>
       <c r="J99" s="14">
-        <v>1609506000</v>
+        <v>1652274000</v>
       </c>
       <c r="K99" s="8">
-        <v>1609344000</v>
+        <v>1590839700</v>
       </c>
       <c r="L99" s="8">
-        <v>1609516799</v>
+        <v>1652360400</v>
       </c>
       <c r="M99" s="16" t="s">
         <v>38</v>
@@ -10091,16 +10091,16 @@
         <v>317</v>
       </c>
       <c r="I100" s="8">
-        <v>1609763400</v>
+        <v>1652878500</v>
       </c>
       <c r="J100" s="14">
-        <v>1609765200</v>
+        <v>1652878800</v>
       </c>
       <c r="K100" s="8">
-        <v>1609516800</v>
+        <v>1590841500</v>
       </c>
       <c r="L100" s="8">
-        <v>1609775999</v>
+        <v>1652965200</v>
       </c>
       <c r="M100" s="16" t="s">
         <v>38</v>
@@ -10168,16 +10168,16 @@
         <v>317</v>
       </c>
       <c r="I101" s="8">
-        <v>1609935225.56391</v>
+        <v>1653483300</v>
       </c>
       <c r="J101" s="14">
-        <v>1609938000</v>
+        <v>1653483600</v>
       </c>
       <c r="K101" s="8">
-        <v>1609776000</v>
+        <v>1590843300</v>
       </c>
       <c r="L101" s="8">
-        <v>1609948799</v>
+        <v>1653570000</v>
       </c>
       <c r="M101" s="16" t="s">
         <v>38</v>
@@ -10314,7 +10314,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E2" s="3">
         <v>50000</v>
@@ -10370,7 +10370,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E3" s="3">
         <v>20000</v>
@@ -10426,7 +10426,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E4" s="3">
         <v>10000</v>
@@ -10872,7 +10872,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C54" sqref="C54"/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10999,16 +10999,16 @@
         <v>317</v>
       </c>
       <c r="I2" s="14">
-        <v>1589977800</v>
+        <v>1593608100</v>
       </c>
       <c r="J2" s="14">
-        <v>1589979600</v>
+        <v>1593608400</v>
       </c>
       <c r="K2" s="14">
-        <v>1589817600</v>
+        <v>1590665100</v>
       </c>
       <c r="L2" s="14">
-        <v>1589990399</v>
+        <v>1593694800</v>
       </c>
       <c r="M2" s="16" t="s">
         <v>38</v>
@@ -11076,16 +11076,16 @@
         <v>317</v>
       </c>
       <c r="I3" s="14">
-        <v>1590150600</v>
+        <v>1594212900</v>
       </c>
       <c r="J3" s="14">
-        <v>1590152400</v>
+        <v>1594213200</v>
       </c>
       <c r="K3" s="14">
-        <v>1589990400</v>
+        <v>1590666900</v>
       </c>
       <c r="L3">
-        <v>1590163199</v>
+        <v>1594299600</v>
       </c>
       <c r="M3" s="16" t="s">
         <v>38</v>
@@ -11153,16 +11153,16 @@
         <v>317</v>
       </c>
       <c r="I4" s="14">
-        <v>1590409800</v>
+        <v>1594817700</v>
       </c>
       <c r="J4" s="14">
-        <v>1590411600</v>
+        <v>1594818000</v>
       </c>
       <c r="K4" s="14">
-        <v>1590163200</v>
+        <v>1590668700</v>
       </c>
       <c r="L4">
-        <v>1590422399</v>
+        <v>1594904400</v>
       </c>
       <c r="M4" s="16" t="s">
         <v>38</v>
@@ -11230,16 +11230,16 @@
         <v>317</v>
       </c>
       <c r="I5" s="14">
-        <v>1590582600</v>
+        <v>1595422500</v>
       </c>
       <c r="J5" s="14">
-        <v>1590584400</v>
+        <v>1595422800</v>
       </c>
       <c r="K5" s="14">
-        <v>1590422400</v>
+        <v>1590670500</v>
       </c>
       <c r="L5">
-        <v>1590595199</v>
+        <v>1595509200</v>
       </c>
       <c r="M5" s="16" t="s">
         <v>38</v>
@@ -11307,16 +11307,16 @@
         <v>317</v>
       </c>
       <c r="I6" s="40">
-        <v>1590755400</v>
+        <v>1596027300</v>
       </c>
       <c r="J6" s="14">
-        <v>1590757200</v>
+        <v>1596027600</v>
       </c>
       <c r="K6">
-        <v>1590595200</v>
+        <v>1590672300</v>
       </c>
       <c r="L6">
-        <v>1590767999</v>
+        <v>1596114000</v>
       </c>
       <c r="M6" s="16" t="s">
         <v>38</v>
@@ -11384,16 +11384,16 @@
         <v>317</v>
       </c>
       <c r="I7" s="40">
-        <v>1591014600</v>
+        <v>1596632100</v>
       </c>
       <c r="J7" s="14">
-        <v>1591016400</v>
+        <v>1596632400</v>
       </c>
       <c r="K7" s="14">
-        <v>1590768000</v>
+        <v>1590674100</v>
       </c>
       <c r="L7">
-        <v>1591027199</v>
+        <v>1596718800</v>
       </c>
       <c r="M7" s="16" t="s">
         <v>38</v>
@@ -11461,16 +11461,16 @@
         <v>317</v>
       </c>
       <c r="I8" s="40">
-        <v>1591187400</v>
+        <v>1597236900</v>
       </c>
       <c r="J8" s="14">
-        <v>1591189200</v>
+        <v>1597237200</v>
       </c>
       <c r="K8">
-        <v>1591027200</v>
+        <v>1590675900</v>
       </c>
       <c r="L8">
-        <v>1591199999</v>
+        <v>1597323600</v>
       </c>
       <c r="M8" s="16" t="s">
         <v>38</v>
@@ -11538,16 +11538,16 @@
         <v>317</v>
       </c>
       <c r="I9" s="40">
-        <v>1591360200</v>
+        <v>1597841700</v>
       </c>
       <c r="J9" s="14">
-        <v>1591362000</v>
+        <v>1597842000</v>
       </c>
       <c r="K9">
-        <v>1591200000</v>
+        <v>1590677700</v>
       </c>
       <c r="L9">
-        <v>1591372799</v>
+        <v>1597928400</v>
       </c>
       <c r="M9" s="16" t="s">
         <v>38</v>
@@ -11615,16 +11615,16 @@
         <v>317</v>
       </c>
       <c r="I10" s="40">
-        <v>1591619400</v>
+        <v>1598446500</v>
       </c>
       <c r="J10" s="14">
-        <v>1591621200</v>
+        <v>1598446800</v>
       </c>
       <c r="K10">
-        <v>1591372800</v>
+        <v>1590679500</v>
       </c>
       <c r="L10">
-        <v>1591631999</v>
+        <v>1598533200</v>
       </c>
       <c r="M10" s="16" t="s">
         <v>38</v>
@@ -11692,16 +11692,16 @@
         <v>317</v>
       </c>
       <c r="I11" s="40">
-        <v>1591792200</v>
+        <v>1599051300</v>
       </c>
       <c r="J11" s="14">
-        <v>1591794000</v>
+        <v>1599051600</v>
       </c>
       <c r="K11">
-        <v>1591632000</v>
+        <v>1590681300</v>
       </c>
       <c r="L11">
-        <v>1591804799</v>
+        <v>1599138000</v>
       </c>
       <c r="M11" s="16" t="s">
         <v>38</v>
@@ -11769,16 +11769,16 @@
         <v>317</v>
       </c>
       <c r="I12" s="8">
-        <v>1591965000</v>
+        <v>1599656100</v>
       </c>
       <c r="J12" s="14">
-        <v>1591966800</v>
+        <v>1599656400</v>
       </c>
       <c r="K12" s="8">
-        <v>1591804800</v>
+        <v>1590683100</v>
       </c>
       <c r="L12" s="8">
-        <v>1591977599</v>
+        <v>1599742800</v>
       </c>
       <c r="M12" s="16" t="s">
         <v>38</v>
@@ -11846,16 +11846,16 @@
         <v>317</v>
       </c>
       <c r="I13" s="8">
-        <v>1592224200</v>
+        <v>1600260900</v>
       </c>
       <c r="J13" s="14">
-        <v>1592226000</v>
+        <v>1600261200</v>
       </c>
       <c r="K13" s="8">
-        <v>1591977600</v>
+        <v>1590684900</v>
       </c>
       <c r="L13" s="8">
-        <v>1592236799</v>
+        <v>1600347600</v>
       </c>
       <c r="M13" s="16" t="s">
         <v>38</v>
@@ -11923,16 +11923,16 @@
         <v>317</v>
       </c>
       <c r="I14" s="8">
-        <v>1592397000</v>
+        <v>1600865700</v>
       </c>
       <c r="J14" s="14">
-        <v>1592398800</v>
+        <v>1600866000</v>
       </c>
       <c r="K14" s="8">
-        <v>1592236800</v>
+        <v>1590686700</v>
       </c>
       <c r="L14" s="8">
-        <v>1592409599</v>
+        <v>1600952400</v>
       </c>
       <c r="M14" s="16" t="s">
         <v>38</v>
@@ -12000,16 +12000,16 @@
         <v>317</v>
       </c>
       <c r="I15" s="8">
-        <v>1592569800</v>
+        <v>1601470500</v>
       </c>
       <c r="J15" s="14">
-        <v>1592571600</v>
+        <v>1601470800</v>
       </c>
       <c r="K15" s="8">
-        <v>1592409600</v>
+        <v>1590688500</v>
       </c>
       <c r="L15" s="8">
-        <v>1592582399</v>
+        <v>1601557200</v>
       </c>
       <c r="M15" s="16" t="s">
         <v>38</v>
@@ -12077,16 +12077,16 @@
         <v>317</v>
       </c>
       <c r="I16" s="8">
-        <v>1592829000</v>
+        <v>1602075300</v>
       </c>
       <c r="J16" s="14">
-        <v>1592830800</v>
+        <v>1602075600</v>
       </c>
       <c r="K16" s="8">
-        <v>1592582400</v>
+        <v>1590690300</v>
       </c>
       <c r="L16" s="8">
-        <v>1592841599</v>
+        <v>1602162000</v>
       </c>
       <c r="M16" s="16" t="s">
         <v>38</v>
@@ -12154,16 +12154,16 @@
         <v>317</v>
       </c>
       <c r="I17" s="8">
-        <v>1593001800</v>
+        <v>1602680100</v>
       </c>
       <c r="J17" s="14">
-        <v>1593003600</v>
+        <v>1602680400</v>
       </c>
       <c r="K17" s="8">
-        <v>1592841600</v>
+        <v>1590692100</v>
       </c>
       <c r="L17" s="8">
-        <v>1593014399</v>
+        <v>1602766800</v>
       </c>
       <c r="M17" s="16" t="s">
         <v>38</v>
@@ -12231,16 +12231,16 @@
         <v>317</v>
       </c>
       <c r="I18" s="8">
-        <v>1593174600</v>
+        <v>1603284900</v>
       </c>
       <c r="J18" s="14">
-        <v>1593176400</v>
+        <v>1603285200</v>
       </c>
       <c r="K18" s="8">
-        <v>1593014400</v>
+        <v>1590693900</v>
       </c>
       <c r="L18" s="8">
-        <v>1593187199</v>
+        <v>1603371600</v>
       </c>
       <c r="M18" s="16" t="s">
         <v>38</v>
@@ -12308,16 +12308,16 @@
         <v>317</v>
       </c>
       <c r="I19" s="8">
-        <v>1593433800</v>
+        <v>1603889700</v>
       </c>
       <c r="J19" s="14">
-        <v>1593435600</v>
+        <v>1603890000</v>
       </c>
       <c r="K19" s="8">
-        <v>1593187200</v>
+        <v>1590695700</v>
       </c>
       <c r="L19" s="8">
-        <v>1593446399</v>
+        <v>1603976400</v>
       </c>
       <c r="M19" s="16" t="s">
         <v>38</v>
@@ -12385,16 +12385,16 @@
         <v>317</v>
       </c>
       <c r="I20" s="8">
-        <v>1593606600</v>
+        <v>1604494500</v>
       </c>
       <c r="J20" s="14">
-        <v>1593608400</v>
+        <v>1604494800</v>
       </c>
       <c r="K20" s="8">
-        <v>1593446400</v>
+        <v>1590697500</v>
       </c>
       <c r="L20" s="8">
-        <v>1593619199</v>
+        <v>1604581200</v>
       </c>
       <c r="M20" s="16" t="s">
         <v>38</v>
@@ -12462,16 +12462,16 @@
         <v>317</v>
       </c>
       <c r="I21" s="8">
-        <v>1593779400</v>
+        <v>1605099300</v>
       </c>
       <c r="J21" s="14">
-        <v>1593781200</v>
+        <v>1605099600</v>
       </c>
       <c r="K21" s="8">
-        <v>1593619200</v>
+        <v>1590699300</v>
       </c>
       <c r="L21" s="8">
-        <v>1593791999</v>
+        <v>1605186000</v>
       </c>
       <c r="M21" s="16" t="s">
         <v>38</v>
@@ -12539,16 +12539,16 @@
         <v>317</v>
       </c>
       <c r="I22" s="8">
-        <v>1594038600</v>
+        <v>1605704100</v>
       </c>
       <c r="J22" s="14">
-        <v>1594040400</v>
+        <v>1605704400</v>
       </c>
       <c r="K22" s="8">
-        <v>1593792000</v>
+        <v>1590701100</v>
       </c>
       <c r="L22" s="8">
-        <v>1594051199</v>
+        <v>1605790800</v>
       </c>
       <c r="M22" s="16" t="s">
         <v>38</v>
@@ -12616,16 +12616,16 @@
         <v>317</v>
       </c>
       <c r="I23" s="8">
-        <v>1594211400</v>
+        <v>1606308900</v>
       </c>
       <c r="J23" s="14">
-        <v>1594213200</v>
+        <v>1606309200</v>
       </c>
       <c r="K23" s="8">
-        <v>1594051200</v>
+        <v>1590702900</v>
       </c>
       <c r="L23" s="8">
-        <v>1594223999</v>
+        <v>1606395600</v>
       </c>
       <c r="M23" s="16" t="s">
         <v>38</v>
@@ -12693,16 +12693,16 @@
         <v>317</v>
       </c>
       <c r="I24" s="8">
-        <v>1594384200</v>
+        <v>1606913700</v>
       </c>
       <c r="J24" s="14">
-        <v>1594386000</v>
+        <v>1606914000</v>
       </c>
       <c r="K24" s="8">
-        <v>1594224000</v>
+        <v>1590704700</v>
       </c>
       <c r="L24" s="8">
-        <v>1594396799</v>
+        <v>1607000400</v>
       </c>
       <c r="M24" s="16" t="s">
         <v>38</v>
@@ -12770,16 +12770,16 @@
         <v>317</v>
       </c>
       <c r="I25" s="8">
-        <v>1594643400</v>
+        <v>1607518500</v>
       </c>
       <c r="J25" s="14">
-        <v>1594645200</v>
+        <v>1607518800</v>
       </c>
       <c r="K25" s="8">
-        <v>1594396800</v>
+        <v>1590706500</v>
       </c>
       <c r="L25" s="8">
-        <v>1594655999</v>
+        <v>1607605200</v>
       </c>
       <c r="M25" s="16" t="s">
         <v>38</v>
@@ -12847,16 +12847,16 @@
         <v>317</v>
       </c>
       <c r="I26" s="8">
-        <v>1594816200</v>
+        <v>1608123300</v>
       </c>
       <c r="J26" s="14">
-        <v>1594818000</v>
+        <v>1608123600</v>
       </c>
       <c r="K26" s="8">
-        <v>1594656000</v>
+        <v>1590708300</v>
       </c>
       <c r="L26" s="8">
-        <v>1594828799</v>
+        <v>1608210000</v>
       </c>
       <c r="M26" s="16" t="s">
         <v>38</v>
@@ -12924,16 +12924,16 @@
         <v>317</v>
       </c>
       <c r="I27" s="8">
-        <v>1594989000</v>
+        <v>1608728100</v>
       </c>
       <c r="J27" s="14">
-        <v>1594990800</v>
+        <v>1608728400</v>
       </c>
       <c r="K27" s="8">
-        <v>1594828800</v>
+        <v>1590710100</v>
       </c>
       <c r="L27" s="8">
-        <v>1595001599</v>
+        <v>1608814800</v>
       </c>
       <c r="M27" s="16" t="s">
         <v>38</v>
@@ -13001,16 +13001,16 @@
         <v>317</v>
       </c>
       <c r="I28" s="8">
-        <v>1595248200</v>
+        <v>1609332900</v>
       </c>
       <c r="J28" s="14">
-        <v>1595250000</v>
+        <v>1609333200</v>
       </c>
       <c r="K28" s="8">
-        <v>1595001600</v>
+        <v>1590711900</v>
       </c>
       <c r="L28" s="8">
-        <v>1595260799</v>
+        <v>1609419600</v>
       </c>
       <c r="M28" s="16" t="s">
         <v>38</v>
@@ -13078,16 +13078,16 @@
         <v>317</v>
       </c>
       <c r="I29" s="8">
-        <v>1595421000</v>
+        <v>1609937700</v>
       </c>
       <c r="J29" s="14">
-        <v>1595422800</v>
+        <v>1609938000</v>
       </c>
       <c r="K29" s="8">
-        <v>1595260800</v>
+        <v>1590713700</v>
       </c>
       <c r="L29" s="8">
-        <v>1595433599</v>
+        <v>1610024400</v>
       </c>
       <c r="M29" s="16" t="s">
         <v>38</v>
@@ -13155,16 +13155,16 @@
         <v>317</v>
       </c>
       <c r="I30" s="8">
-        <v>1595593800</v>
+        <v>1610542500</v>
       </c>
       <c r="J30" s="14">
-        <v>1595595600</v>
+        <v>1610542800</v>
       </c>
       <c r="K30" s="8">
-        <v>1595433600</v>
+        <v>1590715500</v>
       </c>
       <c r="L30" s="8">
-        <v>1595606399</v>
+        <v>1610629200</v>
       </c>
       <c r="M30" s="16" t="s">
         <v>38</v>
@@ -13232,16 +13232,16 @@
         <v>317</v>
       </c>
       <c r="I31" s="8">
-        <v>1595853000</v>
+        <v>1611147300</v>
       </c>
       <c r="J31" s="14">
-        <v>1595854800</v>
+        <v>1611147600</v>
       </c>
       <c r="K31" s="8">
-        <v>1595606400</v>
+        <v>1590717300</v>
       </c>
       <c r="L31" s="8">
-        <v>1595865599</v>
+        <v>1611234000</v>
       </c>
       <c r="M31" s="16" t="s">
         <v>38</v>
@@ -13309,16 +13309,16 @@
         <v>317</v>
       </c>
       <c r="I32" s="8">
-        <v>1596025800</v>
+        <v>1611752100</v>
       </c>
       <c r="J32" s="14">
-        <v>1596027600</v>
+        <v>1611752400</v>
       </c>
       <c r="K32" s="8">
-        <v>1595865600</v>
+        <v>1590719100</v>
       </c>
       <c r="L32" s="8">
-        <v>1596038399</v>
+        <v>1611838800</v>
       </c>
       <c r="M32" s="16" t="s">
         <v>38</v>
@@ -13386,16 +13386,16 @@
         <v>317</v>
       </c>
       <c r="I33" s="8">
-        <v>1596198600</v>
+        <v>1612356900</v>
       </c>
       <c r="J33" s="14">
-        <v>1596200400</v>
+        <v>1612357200</v>
       </c>
       <c r="K33" s="8">
-        <v>1596038400</v>
+        <v>1590720900</v>
       </c>
       <c r="L33" s="8">
-        <v>1596211199</v>
+        <v>1612443600</v>
       </c>
       <c r="M33" s="16" t="s">
         <v>38</v>
@@ -13463,16 +13463,16 @@
         <v>317</v>
       </c>
       <c r="I34" s="8">
-        <v>1596457800</v>
+        <v>1612961700</v>
       </c>
       <c r="J34" s="14">
-        <v>1596459600</v>
+        <v>1612962000</v>
       </c>
       <c r="K34" s="8">
-        <v>1596211200</v>
+        <v>1590722700</v>
       </c>
       <c r="L34" s="8">
-        <v>1596470399</v>
+        <v>1613048400</v>
       </c>
       <c r="M34" s="16" t="s">
         <v>38</v>
@@ -13540,16 +13540,16 @@
         <v>317</v>
       </c>
       <c r="I35" s="8">
-        <v>1596630600</v>
+        <v>1613566500</v>
       </c>
       <c r="J35" s="14">
-        <v>1596632400</v>
+        <v>1613566800</v>
       </c>
       <c r="K35" s="8">
-        <v>1596470400</v>
+        <v>1590724500</v>
       </c>
       <c r="L35" s="8">
-        <v>1596643199</v>
+        <v>1613653200</v>
       </c>
       <c r="M35" s="16" t="s">
         <v>38</v>
@@ -13617,16 +13617,16 @@
         <v>317</v>
       </c>
       <c r="I36" s="8">
-        <v>1596803400</v>
+        <v>1614171300</v>
       </c>
       <c r="J36" s="14">
-        <v>1596805200</v>
+        <v>1614171600</v>
       </c>
       <c r="K36" s="8">
-        <v>1596643200</v>
+        <v>1590726300</v>
       </c>
       <c r="L36" s="8">
-        <v>1596815999</v>
+        <v>1614258000</v>
       </c>
       <c r="M36" s="16" t="s">
         <v>38</v>
@@ -13694,16 +13694,16 @@
         <v>317</v>
       </c>
       <c r="I37" s="8">
-        <v>1597062600</v>
+        <v>1614776100</v>
       </c>
       <c r="J37" s="14">
-        <v>1597064400</v>
+        <v>1614776400</v>
       </c>
       <c r="K37" s="8">
-        <v>1596816000</v>
+        <v>1590728100</v>
       </c>
       <c r="L37" s="8">
-        <v>1597075199</v>
+        <v>1614862800</v>
       </c>
       <c r="M37" s="16" t="s">
         <v>38</v>
@@ -13771,16 +13771,16 @@
         <v>317</v>
       </c>
       <c r="I38" s="8">
-        <v>1597235400</v>
+        <v>1615380900</v>
       </c>
       <c r="J38" s="14">
-        <v>1597237200</v>
+        <v>1615381200</v>
       </c>
       <c r="K38" s="8">
-        <v>1597075200</v>
+        <v>1590729900</v>
       </c>
       <c r="L38" s="8">
-        <v>1597247999</v>
+        <v>1615467600</v>
       </c>
       <c r="M38" s="16" t="s">
         <v>38</v>
@@ -13848,16 +13848,16 @@
         <v>317</v>
       </c>
       <c r="I39" s="8">
-        <v>1597408200</v>
+        <v>1615985700</v>
       </c>
       <c r="J39" s="14">
-        <v>1597410000</v>
+        <v>1615986000</v>
       </c>
       <c r="K39" s="8">
-        <v>1597248000</v>
+        <v>1590731700</v>
       </c>
       <c r="L39" s="8">
-        <v>1597420799</v>
+        <v>1616072400</v>
       </c>
       <c r="M39" s="16" t="s">
         <v>38</v>
@@ -13925,16 +13925,16 @@
         <v>317</v>
       </c>
       <c r="I40" s="8">
-        <v>1597667400</v>
+        <v>1616590500</v>
       </c>
       <c r="J40" s="14">
-        <v>1597669200</v>
+        <v>1616590800</v>
       </c>
       <c r="K40" s="8">
-        <v>1597420800</v>
+        <v>1590733500</v>
       </c>
       <c r="L40" s="8">
-        <v>1597679999</v>
+        <v>1616677200</v>
       </c>
       <c r="M40" s="16" t="s">
         <v>38</v>
@@ -14002,16 +14002,16 @@
         <v>317</v>
       </c>
       <c r="I41" s="8">
-        <v>1597840200</v>
+        <v>1617195300</v>
       </c>
       <c r="J41" s="14">
-        <v>1597842000</v>
+        <v>1617195600</v>
       </c>
       <c r="K41" s="8">
-        <v>1597680000</v>
+        <v>1590735300</v>
       </c>
       <c r="L41" s="8">
-        <v>1597852799</v>
+        <v>1617282000</v>
       </c>
       <c r="M41" s="16" t="s">
         <v>38</v>
@@ -14079,16 +14079,16 @@
         <v>317</v>
       </c>
       <c r="I42" s="8">
-        <v>1598013000</v>
+        <v>1617800100</v>
       </c>
       <c r="J42" s="14">
-        <v>1598014800</v>
+        <v>1617800400</v>
       </c>
       <c r="K42" s="8">
-        <v>1597852800</v>
+        <v>1590737100</v>
       </c>
       <c r="L42" s="8">
-        <v>1598025599</v>
+        <v>1617886800</v>
       </c>
       <c r="M42" s="16" t="s">
         <v>38</v>
@@ -14156,16 +14156,16 @@
         <v>317</v>
       </c>
       <c r="I43" s="8">
-        <v>1598272200</v>
+        <v>1618404900</v>
       </c>
       <c r="J43" s="14">
-        <v>1598274000</v>
+        <v>1618405200</v>
       </c>
       <c r="K43" s="8">
-        <v>1598025600</v>
+        <v>1590738900</v>
       </c>
       <c r="L43" s="8">
-        <v>1598284799</v>
+        <v>1618491600</v>
       </c>
       <c r="M43" s="16" t="s">
         <v>38</v>
@@ -14233,16 +14233,16 @@
         <v>317</v>
       </c>
       <c r="I44" s="8">
-        <v>1598445000</v>
+        <v>1619009700</v>
       </c>
       <c r="J44" s="14">
-        <v>1598446800</v>
+        <v>1619010000</v>
       </c>
       <c r="K44" s="8">
-        <v>1598284800</v>
+        <v>1590740700</v>
       </c>
       <c r="L44" s="8">
-        <v>1598457599</v>
+        <v>1619096400</v>
       </c>
       <c r="M44" s="16" t="s">
         <v>38</v>
@@ -14310,16 +14310,16 @@
         <v>317</v>
       </c>
       <c r="I45" s="8">
-        <v>1598617800</v>
+        <v>1619614500</v>
       </c>
       <c r="J45" s="14">
-        <v>1598619600</v>
+        <v>1619614800</v>
       </c>
       <c r="K45" s="8">
-        <v>1598457600</v>
+        <v>1590742500</v>
       </c>
       <c r="L45" s="8">
-        <v>1598630399</v>
+        <v>1619701200</v>
       </c>
       <c r="M45" s="16" t="s">
         <v>38</v>
@@ -14387,16 +14387,16 @@
         <v>317</v>
       </c>
       <c r="I46" s="8">
-        <v>1598877000</v>
+        <v>1620219300</v>
       </c>
       <c r="J46" s="14">
-        <v>1598878800</v>
+        <v>1620219600</v>
       </c>
       <c r="K46" s="8">
-        <v>1598630400</v>
+        <v>1590744300</v>
       </c>
       <c r="L46" s="8">
-        <v>1598889599</v>
+        <v>1620306000</v>
       </c>
       <c r="M46" s="16" t="s">
         <v>38</v>
@@ -14464,16 +14464,16 @@
         <v>317</v>
       </c>
       <c r="I47" s="8">
-        <v>1599049800</v>
+        <v>1620824100</v>
       </c>
       <c r="J47" s="14">
-        <v>1599051600</v>
+        <v>1620824400</v>
       </c>
       <c r="K47" s="8">
-        <v>1598889600</v>
+        <v>1590746100</v>
       </c>
       <c r="L47" s="8">
-        <v>1599062399</v>
+        <v>1620910800</v>
       </c>
       <c r="M47" s="16" t="s">
         <v>38</v>
@@ -14541,16 +14541,16 @@
         <v>317</v>
       </c>
       <c r="I48" s="8">
-        <v>1599222600</v>
+        <v>1621428900</v>
       </c>
       <c r="J48" s="14">
-        <v>1599224400</v>
+        <v>1621429200</v>
       </c>
       <c r="K48" s="8">
-        <v>1599062400</v>
+        <v>1590747900</v>
       </c>
       <c r="L48" s="8">
-        <v>1599235199</v>
+        <v>1621515600</v>
       </c>
       <c r="M48" s="16" t="s">
         <v>38</v>
@@ -14618,16 +14618,16 @@
         <v>317</v>
       </c>
       <c r="I49" s="8">
-        <v>1599481800</v>
+        <v>1622033700</v>
       </c>
       <c r="J49" s="14">
-        <v>1599483600</v>
+        <v>1622034000</v>
       </c>
       <c r="K49" s="8">
-        <v>1599235200</v>
+        <v>1590749700</v>
       </c>
       <c r="L49" s="8">
-        <v>1599494399</v>
+        <v>1622120400</v>
       </c>
       <c r="M49" s="16" t="s">
         <v>38</v>
@@ -14695,16 +14695,16 @@
         <v>317</v>
       </c>
       <c r="I50" s="8">
-        <v>1599654600</v>
+        <v>1622638500</v>
       </c>
       <c r="J50" s="14">
-        <v>1599656400</v>
+        <v>1622638800</v>
       </c>
       <c r="K50" s="8">
-        <v>1599494400</v>
+        <v>1590751500</v>
       </c>
       <c r="L50" s="8">
-        <v>1599667199</v>
+        <v>1622725200</v>
       </c>
       <c r="M50" s="16" t="s">
         <v>38</v>
@@ -14772,16 +14772,16 @@
         <v>317</v>
       </c>
       <c r="I51" s="8">
-        <v>1599827400</v>
+        <v>1623243300</v>
       </c>
       <c r="J51" s="31">
-        <v>1599829200</v>
+        <v>1623243600</v>
       </c>
       <c r="K51" s="30">
-        <v>1599667200</v>
+        <v>1590753300</v>
       </c>
       <c r="L51" s="30">
-        <v>1599839999</v>
+        <v>1623330000</v>
       </c>
       <c r="M51" s="29" t="s">
         <v>38</v>
@@ -14849,16 +14849,16 @@
         <v>317</v>
       </c>
       <c r="I52" s="8">
-        <v>1600086600</v>
+        <v>1623848100</v>
       </c>
       <c r="J52" s="14">
-        <v>1600088400</v>
+        <v>1623848400</v>
       </c>
       <c r="K52" s="8">
-        <v>1599840000</v>
+        <v>1590755100</v>
       </c>
       <c r="L52" s="8">
-        <v>1600099199</v>
+        <v>1623934800</v>
       </c>
       <c r="M52" s="16" t="s">
         <v>38</v>
@@ -14926,16 +14926,16 @@
         <v>317</v>
       </c>
       <c r="I53" s="8">
-        <v>1600259400</v>
+        <v>1624452900</v>
       </c>
       <c r="J53" s="14">
-        <v>1600261200</v>
+        <v>1624453200</v>
       </c>
       <c r="K53" s="8">
-        <v>1600099200</v>
+        <v>1590756900</v>
       </c>
       <c r="L53" s="8">
-        <v>1600271999</v>
+        <v>1624539600</v>
       </c>
       <c r="M53" s="16" t="s">
         <v>38</v>
@@ -15003,16 +15003,16 @@
         <v>317</v>
       </c>
       <c r="I54" s="8">
-        <v>1600432200</v>
+        <v>1625057700</v>
       </c>
       <c r="J54" s="14">
-        <v>1600434000</v>
+        <v>1625058000</v>
       </c>
       <c r="K54" s="8">
-        <v>1600272000</v>
+        <v>1590758700</v>
       </c>
       <c r="L54" s="8">
-        <v>1600444799</v>
+        <v>1625144400</v>
       </c>
       <c r="M54" s="16" t="s">
         <v>38</v>
@@ -15080,16 +15080,16 @@
         <v>317</v>
       </c>
       <c r="I55" s="8">
-        <v>1600691400</v>
+        <v>1625662500</v>
       </c>
       <c r="J55" s="14">
-        <v>1600693200</v>
+        <v>1625662800</v>
       </c>
       <c r="K55" s="8">
-        <v>1600444800</v>
+        <v>1590760500</v>
       </c>
       <c r="L55" s="8">
-        <v>1600703999</v>
+        <v>1625749200</v>
       </c>
       <c r="M55" s="16" t="s">
         <v>38</v>
@@ -15157,16 +15157,16 @@
         <v>317</v>
       </c>
       <c r="I56" s="8">
-        <v>1600864200</v>
+        <v>1626267300</v>
       </c>
       <c r="J56" s="14">
-        <v>1600866000</v>
+        <v>1626267600</v>
       </c>
       <c r="K56" s="8">
-        <v>1600704000</v>
+        <v>1590762300</v>
       </c>
       <c r="L56" s="8">
-        <v>1600876799</v>
+        <v>1626354000</v>
       </c>
       <c r="M56" s="16" t="s">
         <v>38</v>
@@ -15234,16 +15234,16 @@
         <v>317</v>
       </c>
       <c r="I57" s="8">
-        <v>1601037000</v>
+        <v>1626872100</v>
       </c>
       <c r="J57" s="14">
-        <v>1601038800</v>
+        <v>1626872400</v>
       </c>
       <c r="K57" s="8">
-        <v>1600876800</v>
+        <v>1590764100</v>
       </c>
       <c r="L57" s="8">
-        <v>1601049599</v>
+        <v>1626958800</v>
       </c>
       <c r="M57" s="16" t="s">
         <v>38</v>
@@ -15311,16 +15311,16 @@
         <v>317</v>
       </c>
       <c r="I58" s="8">
-        <v>1601296200</v>
+        <v>1627476900</v>
       </c>
       <c r="J58" s="14">
-        <v>1601298000</v>
+        <v>1627477200</v>
       </c>
       <c r="K58" s="8">
-        <v>1601049600</v>
+        <v>1590765900</v>
       </c>
       <c r="L58" s="8">
-        <v>1601308799</v>
+        <v>1627563600</v>
       </c>
       <c r="M58" s="16" t="s">
         <v>38</v>
@@ -15388,16 +15388,16 @@
         <v>317</v>
       </c>
       <c r="I59" s="8">
-        <v>1601469000</v>
+        <v>1628081700</v>
       </c>
       <c r="J59" s="14">
-        <v>1601470800</v>
+        <v>1628082000</v>
       </c>
       <c r="K59" s="8">
-        <v>1601308800</v>
+        <v>1590767700</v>
       </c>
       <c r="L59" s="8">
-        <v>1601481599</v>
+        <v>1628168400</v>
       </c>
       <c r="M59" s="16" t="s">
         <v>38</v>
@@ -15465,16 +15465,16 @@
         <v>317</v>
       </c>
       <c r="I60" s="8">
-        <v>1601641800</v>
+        <v>1628686500</v>
       </c>
       <c r="J60" s="14">
-        <v>1601643600</v>
+        <v>1628686800</v>
       </c>
       <c r="K60" s="8">
-        <v>1601481600</v>
+        <v>1590769500</v>
       </c>
       <c r="L60" s="8">
-        <v>1601654399</v>
+        <v>1628773200</v>
       </c>
       <c r="M60" s="16" t="s">
         <v>38</v>
@@ -15542,16 +15542,16 @@
         <v>317</v>
       </c>
       <c r="I61" s="8">
-        <v>1601901000</v>
+        <v>1629291300</v>
       </c>
       <c r="J61" s="14">
-        <v>1601902800</v>
+        <v>1629291600</v>
       </c>
       <c r="K61" s="8">
-        <v>1601654400</v>
+        <v>1590771300</v>
       </c>
       <c r="L61" s="8">
-        <v>1601913599</v>
+        <v>1629378000</v>
       </c>
       <c r="M61" s="16" t="s">
         <v>38</v>
@@ -15619,16 +15619,16 @@
         <v>317</v>
       </c>
       <c r="I62" s="8">
-        <v>1602073800</v>
+        <v>1629896100</v>
       </c>
       <c r="J62" s="14">
-        <v>1602075600</v>
+        <v>1629896400</v>
       </c>
       <c r="K62" s="8">
-        <v>1601913600</v>
+        <v>1590773100</v>
       </c>
       <c r="L62" s="8">
-        <v>1602086399</v>
+        <v>1629982800</v>
       </c>
       <c r="M62" s="16" t="s">
         <v>38</v>
@@ -15696,16 +15696,16 @@
         <v>317</v>
       </c>
       <c r="I63" s="8">
-        <v>1602246600</v>
+        <v>1630500900</v>
       </c>
       <c r="J63" s="14">
-        <v>1602248400</v>
+        <v>1630501200</v>
       </c>
       <c r="K63" s="8">
-        <v>1602086400</v>
+        <v>1590774900</v>
       </c>
       <c r="L63" s="8">
-        <v>1602259199</v>
+        <v>1630587600</v>
       </c>
       <c r="M63" s="16" t="s">
         <v>38</v>
@@ -15773,16 +15773,16 @@
         <v>317</v>
       </c>
       <c r="I64" s="8">
-        <v>1602505800</v>
+        <v>1631105700</v>
       </c>
       <c r="J64" s="14">
-        <v>1602507600</v>
+        <v>1631106000</v>
       </c>
       <c r="K64" s="8">
-        <v>1602259200</v>
+        <v>1590776700</v>
       </c>
       <c r="L64" s="8">
-        <v>1602518399</v>
+        <v>1631192400</v>
       </c>
       <c r="M64" s="16" t="s">
         <v>38</v>
@@ -15850,16 +15850,16 @@
         <v>317</v>
       </c>
       <c r="I65" s="8">
-        <v>1602678600</v>
+        <v>1631710500</v>
       </c>
       <c r="J65" s="14">
-        <v>1602680400</v>
+        <v>1631710800</v>
       </c>
       <c r="K65" s="8">
-        <v>1602518400</v>
+        <v>1590778500</v>
       </c>
       <c r="L65" s="8">
-        <v>1602691199</v>
+        <v>1631797200</v>
       </c>
       <c r="M65" s="16" t="s">
         <v>38</v>
@@ -15927,16 +15927,16 @@
         <v>317</v>
       </c>
       <c r="I66" s="8">
-        <v>1602851400</v>
+        <v>1632315300</v>
       </c>
       <c r="J66" s="14">
-        <v>1602853200</v>
+        <v>1632315600</v>
       </c>
       <c r="K66" s="8">
-        <v>1602691200</v>
+        <v>1590780300</v>
       </c>
       <c r="L66" s="8">
-        <v>1602863999</v>
+        <v>1632402000</v>
       </c>
       <c r="M66" s="16" t="s">
         <v>38</v>
@@ -16004,16 +16004,16 @@
         <v>317</v>
       </c>
       <c r="I67" s="8">
-        <v>1603110600</v>
+        <v>1632920100</v>
       </c>
       <c r="J67" s="14">
-        <v>1603112400</v>
+        <v>1632920400</v>
       </c>
       <c r="K67" s="8">
-        <v>1602864000</v>
+        <v>1590782100</v>
       </c>
       <c r="L67" s="8">
-        <v>1603123199</v>
+        <v>1633006800</v>
       </c>
       <c r="M67" s="16" t="s">
         <v>38</v>
@@ -16081,16 +16081,16 @@
         <v>317</v>
       </c>
       <c r="I68" s="8">
-        <v>1603283400</v>
+        <v>1633524900</v>
       </c>
       <c r="J68" s="14">
-        <v>1603285200</v>
+        <v>1633525200</v>
       </c>
       <c r="K68" s="8">
-        <v>1603123200</v>
+        <v>1590783900</v>
       </c>
       <c r="L68" s="8">
-        <v>1603295999</v>
+        <v>1633611600</v>
       </c>
       <c r="M68" s="16" t="s">
         <v>38</v>
@@ -16158,16 +16158,16 @@
         <v>317</v>
       </c>
       <c r="I69" s="8">
-        <v>1603456200</v>
+        <v>1634129700</v>
       </c>
       <c r="J69" s="14">
-        <v>1603458000</v>
+        <v>1634130000</v>
       </c>
       <c r="K69" s="8">
-        <v>1603296000</v>
+        <v>1590785700</v>
       </c>
       <c r="L69" s="8">
-        <v>1603468799</v>
+        <v>1634216400</v>
       </c>
       <c r="M69" s="16" t="s">
         <v>38</v>
@@ -16235,16 +16235,16 @@
         <v>317</v>
       </c>
       <c r="I70" s="8">
-        <v>1603715400</v>
+        <v>1634734500</v>
       </c>
       <c r="J70" s="14">
-        <v>1603717200</v>
+        <v>1634734800</v>
       </c>
       <c r="K70" s="8">
-        <v>1603468800</v>
+        <v>1590787500</v>
       </c>
       <c r="L70" s="8">
-        <v>1603727999</v>
+        <v>1634821200</v>
       </c>
       <c r="M70" s="16" t="s">
         <v>38</v>
@@ -16312,16 +16312,16 @@
         <v>317</v>
       </c>
       <c r="I71" s="8">
-        <v>1603888200</v>
+        <v>1635339300</v>
       </c>
       <c r="J71" s="14">
-        <v>1603890000</v>
+        <v>1635339600</v>
       </c>
       <c r="K71" s="8">
-        <v>1603728000</v>
+        <v>1590789300</v>
       </c>
       <c r="L71" s="8">
-        <v>1603900799</v>
+        <v>1635426000</v>
       </c>
       <c r="M71" s="16" t="s">
         <v>38</v>
@@ -16389,16 +16389,16 @@
         <v>317</v>
       </c>
       <c r="I72" s="8">
-        <v>1604061000</v>
+        <v>1635944100</v>
       </c>
       <c r="J72" s="14">
-        <v>1604062800</v>
+        <v>1635944400</v>
       </c>
       <c r="K72" s="8">
-        <v>1603900800</v>
+        <v>1590791100</v>
       </c>
       <c r="L72" s="8">
-        <v>1604073599</v>
+        <v>1636030800</v>
       </c>
       <c r="M72" s="16" t="s">
         <v>38</v>
@@ -16466,16 +16466,16 @@
         <v>317</v>
       </c>
       <c r="I73" s="8">
-        <v>1604320200</v>
+        <v>1636548900</v>
       </c>
       <c r="J73" s="14">
-        <v>1604322000</v>
+        <v>1636549200</v>
       </c>
       <c r="K73" s="8">
-        <v>1604073600</v>
+        <v>1590792900</v>
       </c>
       <c r="L73" s="8">
-        <v>1604332799</v>
+        <v>1636635600</v>
       </c>
       <c r="M73" s="16" t="s">
         <v>38</v>
@@ -16543,16 +16543,16 @@
         <v>317</v>
       </c>
       <c r="I74" s="8">
-        <v>1604493000</v>
+        <v>1637153700</v>
       </c>
       <c r="J74" s="14">
-        <v>1604494800</v>
+        <v>1637154000</v>
       </c>
       <c r="K74" s="8">
-        <v>1604332800</v>
+        <v>1590794700</v>
       </c>
       <c r="L74" s="8">
-        <v>1604505599</v>
+        <v>1637240400</v>
       </c>
       <c r="M74" s="16" t="s">
         <v>38</v>
@@ -16620,16 +16620,16 @@
         <v>317</v>
       </c>
       <c r="I75" s="8">
-        <v>1604665800</v>
+        <v>1637758500</v>
       </c>
       <c r="J75" s="14">
-        <v>1604667600</v>
+        <v>1637758800</v>
       </c>
       <c r="K75" s="8">
-        <v>1604505600</v>
+        <v>1590796500</v>
       </c>
       <c r="L75" s="8">
-        <v>1604678399</v>
+        <v>1637845200</v>
       </c>
       <c r="M75" s="16" t="s">
         <v>38</v>
@@ -16697,16 +16697,16 @@
         <v>317</v>
       </c>
       <c r="I76" s="8">
-        <v>1604925000</v>
+        <v>1638363300</v>
       </c>
       <c r="J76" s="14">
-        <v>1604926800</v>
+        <v>1638363600</v>
       </c>
       <c r="K76" s="8">
-        <v>1604678400</v>
+        <v>1590798300</v>
       </c>
       <c r="L76" s="8">
-        <v>1604937599</v>
+        <v>1638450000</v>
       </c>
       <c r="M76" s="16" t="s">
         <v>38</v>
@@ -16774,16 +16774,16 @@
         <v>317</v>
       </c>
       <c r="I77" s="8">
-        <v>1605097800</v>
+        <v>1638968100</v>
       </c>
       <c r="J77" s="14">
-        <v>1605099600</v>
+        <v>1638968400</v>
       </c>
       <c r="K77" s="8">
-        <v>1604937600</v>
+        <v>1590800100</v>
       </c>
       <c r="L77" s="8">
-        <v>1605110399</v>
+        <v>1639054800</v>
       </c>
       <c r="M77" s="16" t="s">
         <v>38</v>
@@ -16851,16 +16851,16 @@
         <v>317</v>
       </c>
       <c r="I78" s="8">
-        <v>1605270600</v>
+        <v>1639572900</v>
       </c>
       <c r="J78" s="14">
-        <v>1605272400</v>
+        <v>1639573200</v>
       </c>
       <c r="K78" s="8">
-        <v>1605110400</v>
+        <v>1590801900</v>
       </c>
       <c r="L78" s="8">
-        <v>1605283199</v>
+        <v>1639659600</v>
       </c>
       <c r="M78" s="16" t="s">
         <v>38</v>
@@ -16928,16 +16928,16 @@
         <v>317</v>
       </c>
       <c r="I79" s="14">
-        <v>1605529800</v>
+        <v>1640177700</v>
       </c>
       <c r="J79" s="14">
-        <v>1605531600</v>
+        <v>1640178000</v>
       </c>
       <c r="K79" s="8">
-        <v>1605283200</v>
+        <v>1590803700</v>
       </c>
       <c r="L79" s="8">
-        <v>1605542399</v>
+        <v>1640264400</v>
       </c>
       <c r="M79" s="16" t="s">
         <v>38</v>
@@ -17005,16 +17005,16 @@
         <v>317</v>
       </c>
       <c r="I80" s="14">
-        <v>1605702600</v>
+        <v>1640782500</v>
       </c>
       <c r="J80" s="14">
-        <v>1605704400</v>
+        <v>1640782800</v>
       </c>
       <c r="K80" s="8">
-        <v>1605542400</v>
+        <v>1590805500</v>
       </c>
       <c r="L80" s="8">
-        <v>1605715199</v>
+        <v>1640869200</v>
       </c>
       <c r="M80" s="16" t="s">
         <v>38</v>
@@ -17082,16 +17082,16 @@
         <v>317</v>
       </c>
       <c r="I81" s="14">
-        <v>1605875400</v>
+        <v>1641387300</v>
       </c>
       <c r="J81" s="14">
-        <v>1605877200</v>
+        <v>1641387600</v>
       </c>
       <c r="K81" s="8">
-        <v>1605715200</v>
+        <v>1590807300</v>
       </c>
       <c r="L81" s="8">
-        <v>1605887999</v>
+        <v>1641474000</v>
       </c>
       <c r="M81" s="16" t="s">
         <v>38</v>
@@ -17159,16 +17159,16 @@
         <v>317</v>
       </c>
       <c r="I82" s="14">
-        <v>1606134600</v>
+        <v>1641992100</v>
       </c>
       <c r="J82" s="14">
-        <v>1606136400</v>
+        <v>1641992400</v>
       </c>
       <c r="K82" s="8">
-        <v>1605888000</v>
+        <v>1590809100</v>
       </c>
       <c r="L82" s="8">
-        <v>1606147199</v>
+        <v>1642078800</v>
       </c>
       <c r="M82" s="16" t="s">
         <v>38</v>
@@ -17236,16 +17236,16 @@
         <v>317</v>
       </c>
       <c r="I83" s="40">
-        <v>1606307400</v>
+        <v>1642596900</v>
       </c>
       <c r="J83" s="14">
-        <v>1606309200</v>
+        <v>1642597200</v>
       </c>
       <c r="K83" s="8">
-        <v>1606147200</v>
+        <v>1590810900</v>
       </c>
       <c r="L83" s="8">
-        <v>1606319999</v>
+        <v>1642683600</v>
       </c>
       <c r="M83" s="16" t="s">
         <v>38</v>
@@ -17313,16 +17313,16 @@
         <v>317</v>
       </c>
       <c r="I84" s="40">
-        <v>1606480200</v>
+        <v>1643201700</v>
       </c>
       <c r="J84" s="14">
-        <v>1606482000</v>
+        <v>1643202000</v>
       </c>
       <c r="K84" s="8">
-        <v>1606320000</v>
+        <v>1590812700</v>
       </c>
       <c r="L84" s="8">
-        <v>1606492799</v>
+        <v>1643288400</v>
       </c>
       <c r="M84" s="16" t="s">
         <v>38</v>
@@ -17390,16 +17390,16 @@
         <v>317</v>
       </c>
       <c r="I85" s="40">
-        <v>1606739400</v>
+        <v>1643806500</v>
       </c>
       <c r="J85" s="14">
-        <v>1606741200</v>
+        <v>1643806800</v>
       </c>
       <c r="K85" s="8">
-        <v>1606492800</v>
+        <v>1590814500</v>
       </c>
       <c r="L85" s="8">
-        <v>1606751999</v>
+        <v>1643893200</v>
       </c>
       <c r="M85" s="16" t="s">
         <v>38</v>
@@ -17467,16 +17467,16 @@
         <v>317</v>
       </c>
       <c r="I86" s="40">
-        <v>1606912200</v>
+        <v>1644411300</v>
       </c>
       <c r="J86" s="14">
-        <v>1606914000</v>
+        <v>1644411600</v>
       </c>
       <c r="K86" s="8">
-        <v>1606752000</v>
+        <v>1590816300</v>
       </c>
       <c r="L86" s="8">
-        <v>1606924799</v>
+        <v>1644498000</v>
       </c>
       <c r="M86" s="16" t="s">
         <v>38</v>
@@ -17544,16 +17544,16 @@
         <v>317</v>
       </c>
       <c r="I87" s="40">
-        <v>1607085000</v>
+        <v>1645016100</v>
       </c>
       <c r="J87" s="14">
-        <v>1607086800</v>
+        <v>1645016400</v>
       </c>
       <c r="K87" s="8">
-        <v>1606924800</v>
+        <v>1590818100</v>
       </c>
       <c r="L87" s="8">
-        <v>1607097599</v>
+        <v>1645102800</v>
       </c>
       <c r="M87" s="16" t="s">
         <v>38</v>
@@ -17621,16 +17621,16 @@
         <v>317</v>
       </c>
       <c r="I88" s="40">
-        <v>1607344200</v>
+        <v>1645620900</v>
       </c>
       <c r="J88" s="14">
-        <v>1607346000</v>
+        <v>1645621200</v>
       </c>
       <c r="K88" s="8">
-        <v>1607097600</v>
+        <v>1590819900</v>
       </c>
       <c r="L88" s="8">
-        <v>1607356799</v>
+        <v>1645707600</v>
       </c>
       <c r="M88" s="16" t="s">
         <v>38</v>
@@ -17698,16 +17698,16 @@
         <v>317</v>
       </c>
       <c r="I89" s="8">
-        <v>1607517000</v>
+        <v>1646225700</v>
       </c>
       <c r="J89" s="14">
-        <v>1607518800</v>
+        <v>1646226000</v>
       </c>
       <c r="K89" s="8">
-        <v>1607356800</v>
+        <v>1590821700</v>
       </c>
       <c r="L89" s="8">
-        <v>1607529599</v>
+        <v>1646312400</v>
       </c>
       <c r="M89" s="16" t="s">
         <v>38</v>
@@ -17775,16 +17775,16 @@
         <v>317</v>
       </c>
       <c r="I90" s="8">
-        <v>1607689800</v>
+        <v>1646830500</v>
       </c>
       <c r="J90" s="14">
-        <v>1607691600</v>
+        <v>1646830800</v>
       </c>
       <c r="K90" s="8">
-        <v>1607529600</v>
+        <v>1590823500</v>
       </c>
       <c r="L90" s="8">
-        <v>1607702399</v>
+        <v>1646917200</v>
       </c>
       <c r="M90" s="16" t="s">
         <v>38</v>
@@ -17852,16 +17852,16 @@
         <v>317</v>
       </c>
       <c r="I91" s="8">
-        <v>1607949000</v>
+        <v>1647435300</v>
       </c>
       <c r="J91" s="14">
-        <v>1607950800</v>
+        <v>1647435600</v>
       </c>
       <c r="K91" s="8">
-        <v>1607702400</v>
+        <v>1590825300</v>
       </c>
       <c r="L91" s="8">
-        <v>1607961599</v>
+        <v>1647522000</v>
       </c>
       <c r="M91" s="16" t="s">
         <v>38</v>
@@ -17929,16 +17929,16 @@
         <v>317</v>
       </c>
       <c r="I92" s="8">
-        <v>1608121800</v>
+        <v>1648040100</v>
       </c>
       <c r="J92" s="14">
-        <v>1608123600</v>
+        <v>1648040400</v>
       </c>
       <c r="K92" s="8">
-        <v>1607961600</v>
+        <v>1590827100</v>
       </c>
       <c r="L92" s="8">
-        <v>1608134399</v>
+        <v>1648126800</v>
       </c>
       <c r="M92" s="16" t="s">
         <v>38</v>
@@ -18006,16 +18006,16 @@
         <v>317</v>
       </c>
       <c r="I93" s="8">
-        <v>1608294600</v>
+        <v>1648644900</v>
       </c>
       <c r="J93" s="14">
-        <v>1608296400</v>
+        <v>1648645200</v>
       </c>
       <c r="K93" s="8">
-        <v>1608134400</v>
+        <v>1590828900</v>
       </c>
       <c r="L93" s="8">
-        <v>1608307199</v>
+        <v>1648731600</v>
       </c>
       <c r="M93" s="16" t="s">
         <v>38</v>
@@ -18083,16 +18083,16 @@
         <v>317</v>
       </c>
       <c r="I94" s="8">
-        <v>1608553800</v>
+        <v>1649249700</v>
       </c>
       <c r="J94" s="14">
-        <v>1608555600</v>
+        <v>1649250000</v>
       </c>
       <c r="K94" s="8">
-        <v>1608307200</v>
+        <v>1590830700</v>
       </c>
       <c r="L94" s="8">
-        <v>1608566399</v>
+        <v>1649336400</v>
       </c>
       <c r="M94" s="16" t="s">
         <v>38</v>
@@ -18160,16 +18160,16 @@
         <v>317</v>
       </c>
       <c r="I95" s="8">
-        <v>1608726600</v>
+        <v>1649854500</v>
       </c>
       <c r="J95" s="14">
-        <v>1608728400</v>
+        <v>1649854800</v>
       </c>
       <c r="K95" s="8">
-        <v>1608566400</v>
+        <v>1590832500</v>
       </c>
       <c r="L95" s="8">
-        <v>1608739199</v>
+        <v>1649941200</v>
       </c>
       <c r="M95" s="16" t="s">
         <v>38</v>
@@ -18237,16 +18237,16 @@
         <v>317</v>
       </c>
       <c r="I96" s="8">
-        <v>1608899400</v>
+        <v>1650459300</v>
       </c>
       <c r="J96" s="14">
-        <v>1608901200</v>
+        <v>1650459600</v>
       </c>
       <c r="K96" s="8">
-        <v>1608739200</v>
+        <v>1590834300</v>
       </c>
       <c r="L96" s="8">
-        <v>1608911999</v>
+        <v>1650546000</v>
       </c>
       <c r="M96" s="16" t="s">
         <v>38</v>
@@ -18314,16 +18314,16 @@
         <v>317</v>
       </c>
       <c r="I97" s="8">
-        <v>1609158600</v>
+        <v>1651064100</v>
       </c>
       <c r="J97" s="14">
-        <v>1609160400</v>
+        <v>1651064400</v>
       </c>
       <c r="K97" s="8">
-        <v>1608912000</v>
+        <v>1590836100</v>
       </c>
       <c r="L97" s="8">
-        <v>1609171199</v>
+        <v>1651150800</v>
       </c>
       <c r="M97" s="16" t="s">
         <v>38</v>
@@ -18391,16 +18391,16 @@
         <v>317</v>
       </c>
       <c r="I98" s="8">
-        <v>1609331400</v>
+        <v>1651668900</v>
       </c>
       <c r="J98" s="14">
-        <v>1609333200</v>
+        <v>1651669200</v>
       </c>
       <c r="K98" s="8">
-        <v>1609171200</v>
+        <v>1590837900</v>
       </c>
       <c r="L98" s="8">
-        <v>1609343999</v>
+        <v>1651755600</v>
       </c>
       <c r="M98" s="16" t="s">
         <v>38</v>
@@ -18468,16 +18468,16 @@
         <v>317</v>
       </c>
       <c r="I99" s="8">
-        <v>1609504200</v>
+        <v>1652273700</v>
       </c>
       <c r="J99" s="14">
-        <v>1609506000</v>
+        <v>1652274000</v>
       </c>
       <c r="K99" s="8">
-        <v>1609344000</v>
+        <v>1590839700</v>
       </c>
       <c r="L99" s="8">
-        <v>1609516799</v>
+        <v>1652360400</v>
       </c>
       <c r="M99" s="16" t="s">
         <v>38</v>
@@ -18545,16 +18545,16 @@
         <v>317</v>
       </c>
       <c r="I100" s="8">
-        <v>1609763400</v>
+        <v>1652878500</v>
       </c>
       <c r="J100" s="14">
-        <v>1609765200</v>
+        <v>1652878800</v>
       </c>
       <c r="K100" s="8">
-        <v>1609516800</v>
+        <v>1590841500</v>
       </c>
       <c r="L100" s="8">
-        <v>1609775999</v>
+        <v>1652965200</v>
       </c>
       <c r="M100" s="16" t="s">
         <v>38</v>
@@ -18622,16 +18622,16 @@
         <v>317</v>
       </c>
       <c r="I101" s="8">
-        <v>1609935225.56391</v>
+        <v>1653483300</v>
       </c>
       <c r="J101" s="14">
-        <v>1609938000</v>
+        <v>1653483600</v>
       </c>
       <c r="K101" s="8">
-        <v>1609776000</v>
+        <v>1590843300</v>
       </c>
       <c r="L101" s="8">
-        <v>1609948799</v>
+        <v>1653570000</v>
       </c>
       <c r="M101" s="16" t="s">
         <v>38</v>
@@ -19226,7 +19226,7 @@
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -19285,13 +19285,13 @@
         <v>296</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>376</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>377</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>298</v>
@@ -19605,7 +19605,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -19666,7 +19666,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="37">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="G2" s="37">
         <v>-1</v>
@@ -19695,10 +19695,10 @@
         <v>1</v>
       </c>
       <c r="F3" s="37">
-        <v>2800</v>
+        <v>1201</v>
       </c>
       <c r="G3" s="37">
-        <v>3499</v>
+        <v>1499</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>352</v>
@@ -19724,10 +19724,10 @@
         <v>1</v>
       </c>
       <c r="F4" s="37">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G4" s="37">
-        <v>2799</v>
+        <v>1200</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>359</v>
@@ -19753,7 +19753,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="37">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="G5" s="37">
         <v>-1</v>
@@ -19782,10 +19782,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="37">
-        <v>2800</v>
+        <v>1201</v>
       </c>
       <c r="G6" s="37">
-        <v>3499</v>
+        <v>1499</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>362</v>
@@ -19811,10 +19811,10 @@
         <v>1</v>
       </c>
       <c r="F7" s="37">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G7" s="37">
-        <v>2799</v>
+        <v>1200</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>363</v>
@@ -19840,7 +19840,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="37">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="G8" s="37">
         <v>-1</v>
@@ -19869,10 +19869,10 @@
         <v>1</v>
       </c>
       <c r="F9" s="37">
-        <v>2800</v>
+        <v>1201</v>
       </c>
       <c r="G9" s="37">
-        <v>3499</v>
+        <v>1499</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>353</v>
@@ -19898,10 +19898,10 @@
         <v>1</v>
       </c>
       <c r="F10" s="37">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G10" s="37">
-        <v>2799</v>
+        <v>1200</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>362</v>
@@ -19927,7 +19927,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="37">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="G11" s="37">
         <v>-1</v>
@@ -19956,10 +19956,10 @@
         <v>1</v>
       </c>
       <c r="F12" s="37">
-        <v>2800</v>
+        <v>1201</v>
       </c>
       <c r="G12" s="37">
-        <v>3499</v>
+        <v>1499</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>368</v>
@@ -19985,13 +19985,13 @@
         <v>1</v>
       </c>
       <c r="F13" s="37">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G13" s="37">
-        <v>2799</v>
+        <v>1200</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>309</v>

--- a/config_debug/fishmatch_ui.xlsx
+++ b/config_debug/fishmatch_ui.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24345" windowHeight="12465" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24345" windowHeight="12465" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="config|配置" sheetId="3" r:id="rId1"/>
@@ -2417,7 +2417,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C54" sqref="C54"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2:L101"/>
+      <selection pane="bottomLeft" activeCell="K3" sqref="K3:K101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2551,7 +2551,7 @@
         <v>1593608400</v>
       </c>
       <c r="K2" s="14">
-        <v>1590665100</v>
+        <v>1591088427</v>
       </c>
       <c r="L2" s="14">
         <v>1593694800</v>
@@ -2628,7 +2628,7 @@
         <v>1594213200</v>
       </c>
       <c r="K3" s="14">
-        <v>1590666900</v>
+        <v>1594212900</v>
       </c>
       <c r="L3">
         <v>1594299600</v>
@@ -2705,7 +2705,7 @@
         <v>1594818000</v>
       </c>
       <c r="K4" s="14">
-        <v>1590668700</v>
+        <v>1594817700</v>
       </c>
       <c r="L4">
         <v>1594904400</v>
@@ -2782,7 +2782,7 @@
         <v>1595422800</v>
       </c>
       <c r="K5" s="14">
-        <v>1590670500</v>
+        <v>1595422500</v>
       </c>
       <c r="L5">
         <v>1595509200</v>
@@ -2858,8 +2858,8 @@
       <c r="J6" s="14">
         <v>1596027600</v>
       </c>
-      <c r="K6">
-        <v>1590672300</v>
+      <c r="K6" s="40">
+        <v>1596027300</v>
       </c>
       <c r="L6">
         <v>1596114000</v>
@@ -2935,8 +2935,8 @@
       <c r="J7" s="14">
         <v>1596632400</v>
       </c>
-      <c r="K7" s="14">
-        <v>1590674100</v>
+      <c r="K7" s="40">
+        <v>1596632100</v>
       </c>
       <c r="L7">
         <v>1596718800</v>
@@ -3012,8 +3012,8 @@
       <c r="J8" s="14">
         <v>1597237200</v>
       </c>
-      <c r="K8">
-        <v>1590675900</v>
+      <c r="K8" s="40">
+        <v>1597236900</v>
       </c>
       <c r="L8">
         <v>1597323600</v>
@@ -3089,8 +3089,8 @@
       <c r="J9" s="14">
         <v>1597842000</v>
       </c>
-      <c r="K9">
-        <v>1590677700</v>
+      <c r="K9" s="40">
+        <v>1597841700</v>
       </c>
       <c r="L9">
         <v>1597928400</v>
@@ -3166,8 +3166,8 @@
       <c r="J10" s="14">
         <v>1598446800</v>
       </c>
-      <c r="K10">
-        <v>1590679500</v>
+      <c r="K10" s="40">
+        <v>1598446500</v>
       </c>
       <c r="L10">
         <v>1598533200</v>
@@ -3243,8 +3243,8 @@
       <c r="J11" s="14">
         <v>1599051600</v>
       </c>
-      <c r="K11">
-        <v>1590681300</v>
+      <c r="K11" s="40">
+        <v>1599051300</v>
       </c>
       <c r="L11">
         <v>1599138000</v>
@@ -3321,7 +3321,7 @@
         <v>1599656400</v>
       </c>
       <c r="K12" s="8">
-        <v>1590683100</v>
+        <v>1599656100</v>
       </c>
       <c r="L12" s="8">
         <v>1599742800</v>
@@ -3398,7 +3398,7 @@
         <v>1600261200</v>
       </c>
       <c r="K13" s="8">
-        <v>1590684900</v>
+        <v>1600260900</v>
       </c>
       <c r="L13" s="8">
         <v>1600347600</v>
@@ -3475,7 +3475,7 @@
         <v>1600866000</v>
       </c>
       <c r="K14" s="8">
-        <v>1590686700</v>
+        <v>1600865700</v>
       </c>
       <c r="L14" s="8">
         <v>1600952400</v>
@@ -3552,7 +3552,7 @@
         <v>1601470800</v>
       </c>
       <c r="K15" s="8">
-        <v>1590688500</v>
+        <v>1601470500</v>
       </c>
       <c r="L15" s="8">
         <v>1601557200</v>
@@ -3629,7 +3629,7 @@
         <v>1602075600</v>
       </c>
       <c r="K16" s="8">
-        <v>1590690300</v>
+        <v>1602075300</v>
       </c>
       <c r="L16" s="8">
         <v>1602162000</v>
@@ -3706,7 +3706,7 @@
         <v>1602680400</v>
       </c>
       <c r="K17" s="8">
-        <v>1590692100</v>
+        <v>1602680100</v>
       </c>
       <c r="L17" s="8">
         <v>1602766800</v>
@@ -3783,7 +3783,7 @@
         <v>1603285200</v>
       </c>
       <c r="K18" s="8">
-        <v>1590693900</v>
+        <v>1603284900</v>
       </c>
       <c r="L18" s="8">
         <v>1603371600</v>
@@ -3860,7 +3860,7 @@
         <v>1603890000</v>
       </c>
       <c r="K19" s="8">
-        <v>1590695700</v>
+        <v>1603889700</v>
       </c>
       <c r="L19" s="8">
         <v>1603976400</v>
@@ -3937,7 +3937,7 @@
         <v>1604494800</v>
       </c>
       <c r="K20" s="8">
-        <v>1590697500</v>
+        <v>1604494500</v>
       </c>
       <c r="L20" s="8">
         <v>1604581200</v>
@@ -4014,7 +4014,7 @@
         <v>1605099600</v>
       </c>
       <c r="K21" s="8">
-        <v>1590699300</v>
+        <v>1605099300</v>
       </c>
       <c r="L21" s="8">
         <v>1605186000</v>
@@ -4091,7 +4091,7 @@
         <v>1605704400</v>
       </c>
       <c r="K22" s="8">
-        <v>1590701100</v>
+        <v>1605704100</v>
       </c>
       <c r="L22" s="8">
         <v>1605790800</v>
@@ -4168,7 +4168,7 @@
         <v>1606309200</v>
       </c>
       <c r="K23" s="8">
-        <v>1590702900</v>
+        <v>1606308900</v>
       </c>
       <c r="L23" s="8">
         <v>1606395600</v>
@@ -4245,7 +4245,7 @@
         <v>1606914000</v>
       </c>
       <c r="K24" s="8">
-        <v>1590704700</v>
+        <v>1606913700</v>
       </c>
       <c r="L24" s="8">
         <v>1607000400</v>
@@ -4322,7 +4322,7 @@
         <v>1607518800</v>
       </c>
       <c r="K25" s="8">
-        <v>1590706500</v>
+        <v>1607518500</v>
       </c>
       <c r="L25" s="8">
         <v>1607605200</v>
@@ -4399,7 +4399,7 @@
         <v>1608123600</v>
       </c>
       <c r="K26" s="8">
-        <v>1590708300</v>
+        <v>1608123300</v>
       </c>
       <c r="L26" s="8">
         <v>1608210000</v>
@@ -4476,7 +4476,7 @@
         <v>1608728400</v>
       </c>
       <c r="K27" s="8">
-        <v>1590710100</v>
+        <v>1608728100</v>
       </c>
       <c r="L27" s="8">
         <v>1608814800</v>
@@ -4553,7 +4553,7 @@
         <v>1609333200</v>
       </c>
       <c r="K28" s="8">
-        <v>1590711900</v>
+        <v>1609332900</v>
       </c>
       <c r="L28" s="8">
         <v>1609419600</v>
@@ -4630,7 +4630,7 @@
         <v>1609938000</v>
       </c>
       <c r="K29" s="8">
-        <v>1590713700</v>
+        <v>1609937700</v>
       </c>
       <c r="L29" s="8">
         <v>1610024400</v>
@@ -4707,7 +4707,7 @@
         <v>1610542800</v>
       </c>
       <c r="K30" s="8">
-        <v>1590715500</v>
+        <v>1610542500</v>
       </c>
       <c r="L30" s="8">
         <v>1610629200</v>
@@ -4784,7 +4784,7 @@
         <v>1611147600</v>
       </c>
       <c r="K31" s="8">
-        <v>1590717300</v>
+        <v>1611147300</v>
       </c>
       <c r="L31" s="8">
         <v>1611234000</v>
@@ -4861,7 +4861,7 @@
         <v>1611752400</v>
       </c>
       <c r="K32" s="8">
-        <v>1590719100</v>
+        <v>1611752100</v>
       </c>
       <c r="L32" s="8">
         <v>1611838800</v>
@@ -4938,7 +4938,7 @@
         <v>1612357200</v>
       </c>
       <c r="K33" s="8">
-        <v>1590720900</v>
+        <v>1612356900</v>
       </c>
       <c r="L33" s="8">
         <v>1612443600</v>
@@ -5015,7 +5015,7 @@
         <v>1612962000</v>
       </c>
       <c r="K34" s="8">
-        <v>1590722700</v>
+        <v>1612961700</v>
       </c>
       <c r="L34" s="8">
         <v>1613048400</v>
@@ -5092,7 +5092,7 @@
         <v>1613566800</v>
       </c>
       <c r="K35" s="8">
-        <v>1590724500</v>
+        <v>1613566500</v>
       </c>
       <c r="L35" s="8">
         <v>1613653200</v>
@@ -5169,7 +5169,7 @@
         <v>1614171600</v>
       </c>
       <c r="K36" s="8">
-        <v>1590726300</v>
+        <v>1614171300</v>
       </c>
       <c r="L36" s="8">
         <v>1614258000</v>
@@ -5246,7 +5246,7 @@
         <v>1614776400</v>
       </c>
       <c r="K37" s="8">
-        <v>1590728100</v>
+        <v>1614776100</v>
       </c>
       <c r="L37" s="8">
         <v>1614862800</v>
@@ -5323,7 +5323,7 @@
         <v>1615381200</v>
       </c>
       <c r="K38" s="8">
-        <v>1590729900</v>
+        <v>1615380900</v>
       </c>
       <c r="L38" s="8">
         <v>1615467600</v>
@@ -5400,7 +5400,7 @@
         <v>1615986000</v>
       </c>
       <c r="K39" s="8">
-        <v>1590731700</v>
+        <v>1615985700</v>
       </c>
       <c r="L39" s="8">
         <v>1616072400</v>
@@ -5477,7 +5477,7 @@
         <v>1616590800</v>
       </c>
       <c r="K40" s="8">
-        <v>1590733500</v>
+        <v>1616590500</v>
       </c>
       <c r="L40" s="8">
         <v>1616677200</v>
@@ -5554,7 +5554,7 @@
         <v>1617195600</v>
       </c>
       <c r="K41" s="8">
-        <v>1590735300</v>
+        <v>1617195300</v>
       </c>
       <c r="L41" s="8">
         <v>1617282000</v>
@@ -5631,7 +5631,7 @@
         <v>1617800400</v>
       </c>
       <c r="K42" s="8">
-        <v>1590737100</v>
+        <v>1617800100</v>
       </c>
       <c r="L42" s="8">
         <v>1617886800</v>
@@ -5708,7 +5708,7 @@
         <v>1618405200</v>
       </c>
       <c r="K43" s="8">
-        <v>1590738900</v>
+        <v>1618404900</v>
       </c>
       <c r="L43" s="8">
         <v>1618491600</v>
@@ -5785,7 +5785,7 @@
         <v>1619010000</v>
       </c>
       <c r="K44" s="8">
-        <v>1590740700</v>
+        <v>1619009700</v>
       </c>
       <c r="L44" s="8">
         <v>1619096400</v>
@@ -5862,7 +5862,7 @@
         <v>1619614800</v>
       </c>
       <c r="K45" s="8">
-        <v>1590742500</v>
+        <v>1619614500</v>
       </c>
       <c r="L45" s="8">
         <v>1619701200</v>
@@ -5939,7 +5939,7 @@
         <v>1620219600</v>
       </c>
       <c r="K46" s="8">
-        <v>1590744300</v>
+        <v>1620219300</v>
       </c>
       <c r="L46" s="8">
         <v>1620306000</v>
@@ -6016,7 +6016,7 @@
         <v>1620824400</v>
       </c>
       <c r="K47" s="8">
-        <v>1590746100</v>
+        <v>1620824100</v>
       </c>
       <c r="L47" s="8">
         <v>1620910800</v>
@@ -6093,7 +6093,7 @@
         <v>1621429200</v>
       </c>
       <c r="K48" s="8">
-        <v>1590747900</v>
+        <v>1621428900</v>
       </c>
       <c r="L48" s="8">
         <v>1621515600</v>
@@ -6170,7 +6170,7 @@
         <v>1622034000</v>
       </c>
       <c r="K49" s="8">
-        <v>1590749700</v>
+        <v>1622033700</v>
       </c>
       <c r="L49" s="8">
         <v>1622120400</v>
@@ -6247,7 +6247,7 @@
         <v>1622638800</v>
       </c>
       <c r="K50" s="8">
-        <v>1590751500</v>
+        <v>1622638500</v>
       </c>
       <c r="L50" s="8">
         <v>1622725200</v>
@@ -6323,8 +6323,8 @@
       <c r="J51" s="31">
         <v>1623243600</v>
       </c>
-      <c r="K51" s="30">
-        <v>1590753300</v>
+      <c r="K51" s="8">
+        <v>1623243300</v>
       </c>
       <c r="L51" s="30">
         <v>1623330000</v>
@@ -6401,7 +6401,7 @@
         <v>1623848400</v>
       </c>
       <c r="K52" s="8">
-        <v>1590755100</v>
+        <v>1623848100</v>
       </c>
       <c r="L52" s="8">
         <v>1623934800</v>
@@ -6478,7 +6478,7 @@
         <v>1624453200</v>
       </c>
       <c r="K53" s="8">
-        <v>1590756900</v>
+        <v>1624452900</v>
       </c>
       <c r="L53" s="8">
         <v>1624539600</v>
@@ -6555,7 +6555,7 @@
         <v>1625058000</v>
       </c>
       <c r="K54" s="8">
-        <v>1590758700</v>
+        <v>1625057700</v>
       </c>
       <c r="L54" s="8">
         <v>1625144400</v>
@@ -6632,7 +6632,7 @@
         <v>1625662800</v>
       </c>
       <c r="K55" s="8">
-        <v>1590760500</v>
+        <v>1625662500</v>
       </c>
       <c r="L55" s="8">
         <v>1625749200</v>
@@ -6709,7 +6709,7 @@
         <v>1626267600</v>
       </c>
       <c r="K56" s="8">
-        <v>1590762300</v>
+        <v>1626267300</v>
       </c>
       <c r="L56" s="8">
         <v>1626354000</v>
@@ -6786,7 +6786,7 @@
         <v>1626872400</v>
       </c>
       <c r="K57" s="8">
-        <v>1590764100</v>
+        <v>1626872100</v>
       </c>
       <c r="L57" s="8">
         <v>1626958800</v>
@@ -6863,7 +6863,7 @@
         <v>1627477200</v>
       </c>
       <c r="K58" s="8">
-        <v>1590765900</v>
+        <v>1627476900</v>
       </c>
       <c r="L58" s="8">
         <v>1627563600</v>
@@ -6940,7 +6940,7 @@
         <v>1628082000</v>
       </c>
       <c r="K59" s="8">
-        <v>1590767700</v>
+        <v>1628081700</v>
       </c>
       <c r="L59" s="8">
         <v>1628168400</v>
@@ -7017,7 +7017,7 @@
         <v>1628686800</v>
       </c>
       <c r="K60" s="8">
-        <v>1590769500</v>
+        <v>1628686500</v>
       </c>
       <c r="L60" s="8">
         <v>1628773200</v>
@@ -7094,7 +7094,7 @@
         <v>1629291600</v>
       </c>
       <c r="K61" s="8">
-        <v>1590771300</v>
+        <v>1629291300</v>
       </c>
       <c r="L61" s="8">
         <v>1629378000</v>
@@ -7171,7 +7171,7 @@
         <v>1629896400</v>
       </c>
       <c r="K62" s="8">
-        <v>1590773100</v>
+        <v>1629896100</v>
       </c>
       <c r="L62" s="8">
         <v>1629982800</v>
@@ -7248,7 +7248,7 @@
         <v>1630501200</v>
       </c>
       <c r="K63" s="8">
-        <v>1590774900</v>
+        <v>1630500900</v>
       </c>
       <c r="L63" s="8">
         <v>1630587600</v>
@@ -7325,7 +7325,7 @@
         <v>1631106000</v>
       </c>
       <c r="K64" s="8">
-        <v>1590776700</v>
+        <v>1631105700</v>
       </c>
       <c r="L64" s="8">
         <v>1631192400</v>
@@ -7402,7 +7402,7 @@
         <v>1631710800</v>
       </c>
       <c r="K65" s="8">
-        <v>1590778500</v>
+        <v>1631710500</v>
       </c>
       <c r="L65" s="8">
         <v>1631797200</v>
@@ -7479,7 +7479,7 @@
         <v>1632315600</v>
       </c>
       <c r="K66" s="8">
-        <v>1590780300</v>
+        <v>1632315300</v>
       </c>
       <c r="L66" s="8">
         <v>1632402000</v>
@@ -7556,7 +7556,7 @@
         <v>1632920400</v>
       </c>
       <c r="K67" s="8">
-        <v>1590782100</v>
+        <v>1632920100</v>
       </c>
       <c r="L67" s="8">
         <v>1633006800</v>
@@ -7633,7 +7633,7 @@
         <v>1633525200</v>
       </c>
       <c r="K68" s="8">
-        <v>1590783900</v>
+        <v>1633524900</v>
       </c>
       <c r="L68" s="8">
         <v>1633611600</v>
@@ -7710,7 +7710,7 @@
         <v>1634130000</v>
       </c>
       <c r="K69" s="8">
-        <v>1590785700</v>
+        <v>1634129700</v>
       </c>
       <c r="L69" s="8">
         <v>1634216400</v>
@@ -7787,7 +7787,7 @@
         <v>1634734800</v>
       </c>
       <c r="K70" s="8">
-        <v>1590787500</v>
+        <v>1634734500</v>
       </c>
       <c r="L70" s="8">
         <v>1634821200</v>
@@ -7864,7 +7864,7 @@
         <v>1635339600</v>
       </c>
       <c r="K71" s="8">
-        <v>1590789300</v>
+        <v>1635339300</v>
       </c>
       <c r="L71" s="8">
         <v>1635426000</v>
@@ -7941,7 +7941,7 @@
         <v>1635944400</v>
       </c>
       <c r="K72" s="8">
-        <v>1590791100</v>
+        <v>1635944100</v>
       </c>
       <c r="L72" s="8">
         <v>1636030800</v>
@@ -8018,7 +8018,7 @@
         <v>1636549200</v>
       </c>
       <c r="K73" s="8">
-        <v>1590792900</v>
+        <v>1636548900</v>
       </c>
       <c r="L73" s="8">
         <v>1636635600</v>
@@ -8095,7 +8095,7 @@
         <v>1637154000</v>
       </c>
       <c r="K74" s="8">
-        <v>1590794700</v>
+        <v>1637153700</v>
       </c>
       <c r="L74" s="8">
         <v>1637240400</v>
@@ -8172,7 +8172,7 @@
         <v>1637758800</v>
       </c>
       <c r="K75" s="8">
-        <v>1590796500</v>
+        <v>1637758500</v>
       </c>
       <c r="L75" s="8">
         <v>1637845200</v>
@@ -8249,7 +8249,7 @@
         <v>1638363600</v>
       </c>
       <c r="K76" s="8">
-        <v>1590798300</v>
+        <v>1638363300</v>
       </c>
       <c r="L76" s="8">
         <v>1638450000</v>
@@ -8326,7 +8326,7 @@
         <v>1638968400</v>
       </c>
       <c r="K77" s="8">
-        <v>1590800100</v>
+        <v>1638968100</v>
       </c>
       <c r="L77" s="8">
         <v>1639054800</v>
@@ -8403,7 +8403,7 @@
         <v>1639573200</v>
       </c>
       <c r="K78" s="8">
-        <v>1590801900</v>
+        <v>1639572900</v>
       </c>
       <c r="L78" s="8">
         <v>1639659600</v>
@@ -8479,8 +8479,8 @@
       <c r="J79" s="14">
         <v>1640178000</v>
       </c>
-      <c r="K79" s="8">
-        <v>1590803700</v>
+      <c r="K79" s="14">
+        <v>1640177700</v>
       </c>
       <c r="L79" s="8">
         <v>1640264400</v>
@@ -8556,8 +8556,8 @@
       <c r="J80" s="14">
         <v>1640782800</v>
       </c>
-      <c r="K80" s="8">
-        <v>1590805500</v>
+      <c r="K80" s="14">
+        <v>1640782500</v>
       </c>
       <c r="L80" s="8">
         <v>1640869200</v>
@@ -8633,8 +8633,8 @@
       <c r="J81" s="14">
         <v>1641387600</v>
       </c>
-      <c r="K81" s="8">
-        <v>1590807300</v>
+      <c r="K81" s="14">
+        <v>1641387300</v>
       </c>
       <c r="L81" s="8">
         <v>1641474000</v>
@@ -8710,8 +8710,8 @@
       <c r="J82" s="14">
         <v>1641992400</v>
       </c>
-      <c r="K82" s="8">
-        <v>1590809100</v>
+      <c r="K82" s="14">
+        <v>1641992100</v>
       </c>
       <c r="L82" s="8">
         <v>1642078800</v>
@@ -8787,8 +8787,8 @@
       <c r="J83" s="14">
         <v>1642597200</v>
       </c>
-      <c r="K83" s="8">
-        <v>1590810900</v>
+      <c r="K83" s="40">
+        <v>1642596900</v>
       </c>
       <c r="L83" s="8">
         <v>1642683600</v>
@@ -8864,8 +8864,8 @@
       <c r="J84" s="14">
         <v>1643202000</v>
       </c>
-      <c r="K84" s="8">
-        <v>1590812700</v>
+      <c r="K84" s="40">
+        <v>1643201700</v>
       </c>
       <c r="L84" s="8">
         <v>1643288400</v>
@@ -8941,8 +8941,8 @@
       <c r="J85" s="14">
         <v>1643806800</v>
       </c>
-      <c r="K85" s="8">
-        <v>1590814500</v>
+      <c r="K85" s="40">
+        <v>1643806500</v>
       </c>
       <c r="L85" s="8">
         <v>1643893200</v>
@@ -9018,8 +9018,8 @@
       <c r="J86" s="14">
         <v>1644411600</v>
       </c>
-      <c r="K86" s="8">
-        <v>1590816300</v>
+      <c r="K86" s="40">
+        <v>1644411300</v>
       </c>
       <c r="L86" s="8">
         <v>1644498000</v>
@@ -9095,8 +9095,8 @@
       <c r="J87" s="14">
         <v>1645016400</v>
       </c>
-      <c r="K87" s="8">
-        <v>1590818100</v>
+      <c r="K87" s="40">
+        <v>1645016100</v>
       </c>
       <c r="L87" s="8">
         <v>1645102800</v>
@@ -9172,8 +9172,8 @@
       <c r="J88" s="14">
         <v>1645621200</v>
       </c>
-      <c r="K88" s="8">
-        <v>1590819900</v>
+      <c r="K88" s="40">
+        <v>1645620900</v>
       </c>
       <c r="L88" s="8">
         <v>1645707600</v>
@@ -9250,7 +9250,7 @@
         <v>1646226000</v>
       </c>
       <c r="K89" s="8">
-        <v>1590821700</v>
+        <v>1646225700</v>
       </c>
       <c r="L89" s="8">
         <v>1646312400</v>
@@ -9327,7 +9327,7 @@
         <v>1646830800</v>
       </c>
       <c r="K90" s="8">
-        <v>1590823500</v>
+        <v>1646830500</v>
       </c>
       <c r="L90" s="8">
         <v>1646917200</v>
@@ -9404,7 +9404,7 @@
         <v>1647435600</v>
       </c>
       <c r="K91" s="8">
-        <v>1590825300</v>
+        <v>1647435300</v>
       </c>
       <c r="L91" s="8">
         <v>1647522000</v>
@@ -9481,7 +9481,7 @@
         <v>1648040400</v>
       </c>
       <c r="K92" s="8">
-        <v>1590827100</v>
+        <v>1648040100</v>
       </c>
       <c r="L92" s="8">
         <v>1648126800</v>
@@ -9558,7 +9558,7 @@
         <v>1648645200</v>
       </c>
       <c r="K93" s="8">
-        <v>1590828900</v>
+        <v>1648644900</v>
       </c>
       <c r="L93" s="8">
         <v>1648731600</v>
@@ -9635,7 +9635,7 @@
         <v>1649250000</v>
       </c>
       <c r="K94" s="8">
-        <v>1590830700</v>
+        <v>1649249700</v>
       </c>
       <c r="L94" s="8">
         <v>1649336400</v>
@@ -9712,7 +9712,7 @@
         <v>1649854800</v>
       </c>
       <c r="K95" s="8">
-        <v>1590832500</v>
+        <v>1649854500</v>
       </c>
       <c r="L95" s="8">
         <v>1649941200</v>
@@ -9789,7 +9789,7 @@
         <v>1650459600</v>
       </c>
       <c r="K96" s="8">
-        <v>1590834300</v>
+        <v>1650459300</v>
       </c>
       <c r="L96" s="8">
         <v>1650546000</v>
@@ -9866,7 +9866,7 @@
         <v>1651064400</v>
       </c>
       <c r="K97" s="8">
-        <v>1590836100</v>
+        <v>1651064100</v>
       </c>
       <c r="L97" s="8">
         <v>1651150800</v>
@@ -9943,7 +9943,7 @@
         <v>1651669200</v>
       </c>
       <c r="K98" s="8">
-        <v>1590837900</v>
+        <v>1651668900</v>
       </c>
       <c r="L98" s="8">
         <v>1651755600</v>
@@ -10020,7 +10020,7 @@
         <v>1652274000</v>
       </c>
       <c r="K99" s="8">
-        <v>1590839700</v>
+        <v>1652273700</v>
       </c>
       <c r="L99" s="8">
         <v>1652360400</v>
@@ -10097,7 +10097,7 @@
         <v>1652878800</v>
       </c>
       <c r="K100" s="8">
-        <v>1590841500</v>
+        <v>1652878500</v>
       </c>
       <c r="L100" s="8">
         <v>1652965200</v>
@@ -10174,7 +10174,7 @@
         <v>1653483600</v>
       </c>
       <c r="K101" s="8">
-        <v>1590843300</v>
+        <v>1653483300</v>
       </c>
       <c r="L101" s="8">
         <v>1653570000</v>
@@ -10869,10 +10869,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C54" sqref="C54"/>
-      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomLeft" activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11005,7 +11005,7 @@
         <v>1593608400</v>
       </c>
       <c r="K2" s="14">
-        <v>1590665100</v>
+        <v>1591088427</v>
       </c>
       <c r="L2" s="14">
         <v>1593694800</v>
@@ -11082,7 +11082,7 @@
         <v>1594213200</v>
       </c>
       <c r="K3" s="14">
-        <v>1590666900</v>
+        <v>1594212900</v>
       </c>
       <c r="L3">
         <v>1594299600</v>
@@ -11159,7 +11159,7 @@
         <v>1594818000</v>
       </c>
       <c r="K4" s="14">
-        <v>1590668700</v>
+        <v>1594817700</v>
       </c>
       <c r="L4">
         <v>1594904400</v>
@@ -11236,7 +11236,7 @@
         <v>1595422800</v>
       </c>
       <c r="K5" s="14">
-        <v>1590670500</v>
+        <v>1595422500</v>
       </c>
       <c r="L5">
         <v>1595509200</v>
@@ -11312,8 +11312,8 @@
       <c r="J6" s="14">
         <v>1596027600</v>
       </c>
-      <c r="K6">
-        <v>1590672300</v>
+      <c r="K6" s="40">
+        <v>1596027300</v>
       </c>
       <c r="L6">
         <v>1596114000</v>
@@ -11389,8 +11389,8 @@
       <c r="J7" s="14">
         <v>1596632400</v>
       </c>
-      <c r="K7" s="14">
-        <v>1590674100</v>
+      <c r="K7" s="40">
+        <v>1596632100</v>
       </c>
       <c r="L7">
         <v>1596718800</v>
@@ -11466,8 +11466,8 @@
       <c r="J8" s="14">
         <v>1597237200</v>
       </c>
-      <c r="K8">
-        <v>1590675900</v>
+      <c r="K8" s="40">
+        <v>1597236900</v>
       </c>
       <c r="L8">
         <v>1597323600</v>
@@ -11543,8 +11543,8 @@
       <c r="J9" s="14">
         <v>1597842000</v>
       </c>
-      <c r="K9">
-        <v>1590677700</v>
+      <c r="K9" s="40">
+        <v>1597841700</v>
       </c>
       <c r="L9">
         <v>1597928400</v>
@@ -11620,8 +11620,8 @@
       <c r="J10" s="14">
         <v>1598446800</v>
       </c>
-      <c r="K10">
-        <v>1590679500</v>
+      <c r="K10" s="40">
+        <v>1598446500</v>
       </c>
       <c r="L10">
         <v>1598533200</v>
@@ -11697,8 +11697,8 @@
       <c r="J11" s="14">
         <v>1599051600</v>
       </c>
-      <c r="K11">
-        <v>1590681300</v>
+      <c r="K11" s="40">
+        <v>1599051300</v>
       </c>
       <c r="L11">
         <v>1599138000</v>
@@ -11775,7 +11775,7 @@
         <v>1599656400</v>
       </c>
       <c r="K12" s="8">
-        <v>1590683100</v>
+        <v>1599656100</v>
       </c>
       <c r="L12" s="8">
         <v>1599742800</v>
@@ -11852,7 +11852,7 @@
         <v>1600261200</v>
       </c>
       <c r="K13" s="8">
-        <v>1590684900</v>
+        <v>1600260900</v>
       </c>
       <c r="L13" s="8">
         <v>1600347600</v>
@@ -11929,7 +11929,7 @@
         <v>1600866000</v>
       </c>
       <c r="K14" s="8">
-        <v>1590686700</v>
+        <v>1600865700</v>
       </c>
       <c r="L14" s="8">
         <v>1600952400</v>
@@ -12006,7 +12006,7 @@
         <v>1601470800</v>
       </c>
       <c r="K15" s="8">
-        <v>1590688500</v>
+        <v>1601470500</v>
       </c>
       <c r="L15" s="8">
         <v>1601557200</v>
@@ -12083,7 +12083,7 @@
         <v>1602075600</v>
       </c>
       <c r="K16" s="8">
-        <v>1590690300</v>
+        <v>1602075300</v>
       </c>
       <c r="L16" s="8">
         <v>1602162000</v>
@@ -12160,7 +12160,7 @@
         <v>1602680400</v>
       </c>
       <c r="K17" s="8">
-        <v>1590692100</v>
+        <v>1602680100</v>
       </c>
       <c r="L17" s="8">
         <v>1602766800</v>
@@ -12237,7 +12237,7 @@
         <v>1603285200</v>
       </c>
       <c r="K18" s="8">
-        <v>1590693900</v>
+        <v>1603284900</v>
       </c>
       <c r="L18" s="8">
         <v>1603371600</v>
@@ -12314,7 +12314,7 @@
         <v>1603890000</v>
       </c>
       <c r="K19" s="8">
-        <v>1590695700</v>
+        <v>1603889700</v>
       </c>
       <c r="L19" s="8">
         <v>1603976400</v>
@@ -12391,7 +12391,7 @@
         <v>1604494800</v>
       </c>
       <c r="K20" s="8">
-        <v>1590697500</v>
+        <v>1604494500</v>
       </c>
       <c r="L20" s="8">
         <v>1604581200</v>
@@ -12468,7 +12468,7 @@
         <v>1605099600</v>
       </c>
       <c r="K21" s="8">
-        <v>1590699300</v>
+        <v>1605099300</v>
       </c>
       <c r="L21" s="8">
         <v>1605186000</v>
@@ -12545,7 +12545,7 @@
         <v>1605704400</v>
       </c>
       <c r="K22" s="8">
-        <v>1590701100</v>
+        <v>1605704100</v>
       </c>
       <c r="L22" s="8">
         <v>1605790800</v>
@@ -12622,7 +12622,7 @@
         <v>1606309200</v>
       </c>
       <c r="K23" s="8">
-        <v>1590702900</v>
+        <v>1606308900</v>
       </c>
       <c r="L23" s="8">
         <v>1606395600</v>
@@ -12699,7 +12699,7 @@
         <v>1606914000</v>
       </c>
       <c r="K24" s="8">
-        <v>1590704700</v>
+        <v>1606913700</v>
       </c>
       <c r="L24" s="8">
         <v>1607000400</v>
@@ -12776,7 +12776,7 @@
         <v>1607518800</v>
       </c>
       <c r="K25" s="8">
-        <v>1590706500</v>
+        <v>1607518500</v>
       </c>
       <c r="L25" s="8">
         <v>1607605200</v>
@@ -12853,7 +12853,7 @@
         <v>1608123600</v>
       </c>
       <c r="K26" s="8">
-        <v>1590708300</v>
+        <v>1608123300</v>
       </c>
       <c r="L26" s="8">
         <v>1608210000</v>
@@ -12930,7 +12930,7 @@
         <v>1608728400</v>
       </c>
       <c r="K27" s="8">
-        <v>1590710100</v>
+        <v>1608728100</v>
       </c>
       <c r="L27" s="8">
         <v>1608814800</v>
@@ -13007,7 +13007,7 @@
         <v>1609333200</v>
       </c>
       <c r="K28" s="8">
-        <v>1590711900</v>
+        <v>1609332900</v>
       </c>
       <c r="L28" s="8">
         <v>1609419600</v>
@@ -13084,7 +13084,7 @@
         <v>1609938000</v>
       </c>
       <c r="K29" s="8">
-        <v>1590713700</v>
+        <v>1609937700</v>
       </c>
       <c r="L29" s="8">
         <v>1610024400</v>
@@ -13161,7 +13161,7 @@
         <v>1610542800</v>
       </c>
       <c r="K30" s="8">
-        <v>1590715500</v>
+        <v>1610542500</v>
       </c>
       <c r="L30" s="8">
         <v>1610629200</v>
@@ -13238,7 +13238,7 @@
         <v>1611147600</v>
       </c>
       <c r="K31" s="8">
-        <v>1590717300</v>
+        <v>1611147300</v>
       </c>
       <c r="L31" s="8">
         <v>1611234000</v>
@@ -13315,7 +13315,7 @@
         <v>1611752400</v>
       </c>
       <c r="K32" s="8">
-        <v>1590719100</v>
+        <v>1611752100</v>
       </c>
       <c r="L32" s="8">
         <v>1611838800</v>
@@ -13392,7 +13392,7 @@
         <v>1612357200</v>
       </c>
       <c r="K33" s="8">
-        <v>1590720900</v>
+        <v>1612356900</v>
       </c>
       <c r="L33" s="8">
         <v>1612443600</v>
@@ -13469,7 +13469,7 @@
         <v>1612962000</v>
       </c>
       <c r="K34" s="8">
-        <v>1590722700</v>
+        <v>1612961700</v>
       </c>
       <c r="L34" s="8">
         <v>1613048400</v>
@@ -13546,7 +13546,7 @@
         <v>1613566800</v>
       </c>
       <c r="K35" s="8">
-        <v>1590724500</v>
+        <v>1613566500</v>
       </c>
       <c r="L35" s="8">
         <v>1613653200</v>
@@ -13623,7 +13623,7 @@
         <v>1614171600</v>
       </c>
       <c r="K36" s="8">
-        <v>1590726300</v>
+        <v>1614171300</v>
       </c>
       <c r="L36" s="8">
         <v>1614258000</v>
@@ -13700,7 +13700,7 @@
         <v>1614776400</v>
       </c>
       <c r="K37" s="8">
-        <v>1590728100</v>
+        <v>1614776100</v>
       </c>
       <c r="L37" s="8">
         <v>1614862800</v>
@@ -13777,7 +13777,7 @@
         <v>1615381200</v>
       </c>
       <c r="K38" s="8">
-        <v>1590729900</v>
+        <v>1615380900</v>
       </c>
       <c r="L38" s="8">
         <v>1615467600</v>
@@ -13854,7 +13854,7 @@
         <v>1615986000</v>
       </c>
       <c r="K39" s="8">
-        <v>1590731700</v>
+        <v>1615985700</v>
       </c>
       <c r="L39" s="8">
         <v>1616072400</v>
@@ -13931,7 +13931,7 @@
         <v>1616590800</v>
       </c>
       <c r="K40" s="8">
-        <v>1590733500</v>
+        <v>1616590500</v>
       </c>
       <c r="L40" s="8">
         <v>1616677200</v>
@@ -14008,7 +14008,7 @@
         <v>1617195600</v>
       </c>
       <c r="K41" s="8">
-        <v>1590735300</v>
+        <v>1617195300</v>
       </c>
       <c r="L41" s="8">
         <v>1617282000</v>
@@ -14085,7 +14085,7 @@
         <v>1617800400</v>
       </c>
       <c r="K42" s="8">
-        <v>1590737100</v>
+        <v>1617800100</v>
       </c>
       <c r="L42" s="8">
         <v>1617886800</v>
@@ -14162,7 +14162,7 @@
         <v>1618405200</v>
       </c>
       <c r="K43" s="8">
-        <v>1590738900</v>
+        <v>1618404900</v>
       </c>
       <c r="L43" s="8">
         <v>1618491600</v>
@@ -14239,7 +14239,7 @@
         <v>1619010000</v>
       </c>
       <c r="K44" s="8">
-        <v>1590740700</v>
+        <v>1619009700</v>
       </c>
       <c r="L44" s="8">
         <v>1619096400</v>
@@ -14316,7 +14316,7 @@
         <v>1619614800</v>
       </c>
       <c r="K45" s="8">
-        <v>1590742500</v>
+        <v>1619614500</v>
       </c>
       <c r="L45" s="8">
         <v>1619701200</v>
@@ -14393,7 +14393,7 @@
         <v>1620219600</v>
       </c>
       <c r="K46" s="8">
-        <v>1590744300</v>
+        <v>1620219300</v>
       </c>
       <c r="L46" s="8">
         <v>1620306000</v>
@@ -14470,7 +14470,7 @@
         <v>1620824400</v>
       </c>
       <c r="K47" s="8">
-        <v>1590746100</v>
+        <v>1620824100</v>
       </c>
       <c r="L47" s="8">
         <v>1620910800</v>
@@ -14547,7 +14547,7 @@
         <v>1621429200</v>
       </c>
       <c r="K48" s="8">
-        <v>1590747900</v>
+        <v>1621428900</v>
       </c>
       <c r="L48" s="8">
         <v>1621515600</v>
@@ -14624,7 +14624,7 @@
         <v>1622034000</v>
       </c>
       <c r="K49" s="8">
-        <v>1590749700</v>
+        <v>1622033700</v>
       </c>
       <c r="L49" s="8">
         <v>1622120400</v>
@@ -14701,7 +14701,7 @@
         <v>1622638800</v>
       </c>
       <c r="K50" s="8">
-        <v>1590751500</v>
+        <v>1622638500</v>
       </c>
       <c r="L50" s="8">
         <v>1622725200</v>
@@ -14777,8 +14777,8 @@
       <c r="J51" s="31">
         <v>1623243600</v>
       </c>
-      <c r="K51" s="30">
-        <v>1590753300</v>
+      <c r="K51" s="8">
+        <v>1623243300</v>
       </c>
       <c r="L51" s="30">
         <v>1623330000</v>
@@ -14855,7 +14855,7 @@
         <v>1623848400</v>
       </c>
       <c r="K52" s="8">
-        <v>1590755100</v>
+        <v>1623848100</v>
       </c>
       <c r="L52" s="8">
         <v>1623934800</v>
@@ -14932,7 +14932,7 @@
         <v>1624453200</v>
       </c>
       <c r="K53" s="8">
-        <v>1590756900</v>
+        <v>1624452900</v>
       </c>
       <c r="L53" s="8">
         <v>1624539600</v>
@@ -15009,7 +15009,7 @@
         <v>1625058000</v>
       </c>
       <c r="K54" s="8">
-        <v>1590758700</v>
+        <v>1625057700</v>
       </c>
       <c r="L54" s="8">
         <v>1625144400</v>
@@ -15086,7 +15086,7 @@
         <v>1625662800</v>
       </c>
       <c r="K55" s="8">
-        <v>1590760500</v>
+        <v>1625662500</v>
       </c>
       <c r="L55" s="8">
         <v>1625749200</v>
@@ -15163,7 +15163,7 @@
         <v>1626267600</v>
       </c>
       <c r="K56" s="8">
-        <v>1590762300</v>
+        <v>1626267300</v>
       </c>
       <c r="L56" s="8">
         <v>1626354000</v>
@@ -15240,7 +15240,7 @@
         <v>1626872400</v>
       </c>
       <c r="K57" s="8">
-        <v>1590764100</v>
+        <v>1626872100</v>
       </c>
       <c r="L57" s="8">
         <v>1626958800</v>
@@ -15317,7 +15317,7 @@
         <v>1627477200</v>
       </c>
       <c r="K58" s="8">
-        <v>1590765900</v>
+        <v>1627476900</v>
       </c>
       <c r="L58" s="8">
         <v>1627563600</v>
@@ -15394,7 +15394,7 @@
         <v>1628082000</v>
       </c>
       <c r="K59" s="8">
-        <v>1590767700</v>
+        <v>1628081700</v>
       </c>
       <c r="L59" s="8">
         <v>1628168400</v>
@@ -15471,7 +15471,7 @@
         <v>1628686800</v>
       </c>
       <c r="K60" s="8">
-        <v>1590769500</v>
+        <v>1628686500</v>
       </c>
       <c r="L60" s="8">
         <v>1628773200</v>
@@ -15548,7 +15548,7 @@
         <v>1629291600</v>
       </c>
       <c r="K61" s="8">
-        <v>1590771300</v>
+        <v>1629291300</v>
       </c>
       <c r="L61" s="8">
         <v>1629378000</v>
@@ -15625,7 +15625,7 @@
         <v>1629896400</v>
       </c>
       <c r="K62" s="8">
-        <v>1590773100</v>
+        <v>1629896100</v>
       </c>
       <c r="L62" s="8">
         <v>1629982800</v>
@@ -15702,7 +15702,7 @@
         <v>1630501200</v>
       </c>
       <c r="K63" s="8">
-        <v>1590774900</v>
+        <v>1630500900</v>
       </c>
       <c r="L63" s="8">
         <v>1630587600</v>
@@ -15779,7 +15779,7 @@
         <v>1631106000</v>
       </c>
       <c r="K64" s="8">
-        <v>1590776700</v>
+        <v>1631105700</v>
       </c>
       <c r="L64" s="8">
         <v>1631192400</v>
@@ -15856,7 +15856,7 @@
         <v>1631710800</v>
       </c>
       <c r="K65" s="8">
-        <v>1590778500</v>
+        <v>1631710500</v>
       </c>
       <c r="L65" s="8">
         <v>1631797200</v>
@@ -15933,7 +15933,7 @@
         <v>1632315600</v>
       </c>
       <c r="K66" s="8">
-        <v>1590780300</v>
+        <v>1632315300</v>
       </c>
       <c r="L66" s="8">
         <v>1632402000</v>
@@ -16010,7 +16010,7 @@
         <v>1632920400</v>
       </c>
       <c r="K67" s="8">
-        <v>1590782100</v>
+        <v>1632920100</v>
       </c>
       <c r="L67" s="8">
         <v>1633006800</v>
@@ -16087,7 +16087,7 @@
         <v>1633525200</v>
       </c>
       <c r="K68" s="8">
-        <v>1590783900</v>
+        <v>1633524900</v>
       </c>
       <c r="L68" s="8">
         <v>1633611600</v>
@@ -16164,7 +16164,7 @@
         <v>1634130000</v>
       </c>
       <c r="K69" s="8">
-        <v>1590785700</v>
+        <v>1634129700</v>
       </c>
       <c r="L69" s="8">
         <v>1634216400</v>
@@ -16241,7 +16241,7 @@
         <v>1634734800</v>
       </c>
       <c r="K70" s="8">
-        <v>1590787500</v>
+        <v>1634734500</v>
       </c>
       <c r="L70" s="8">
         <v>1634821200</v>
@@ -16318,7 +16318,7 @@
         <v>1635339600</v>
       </c>
       <c r="K71" s="8">
-        <v>1590789300</v>
+        <v>1635339300</v>
       </c>
       <c r="L71" s="8">
         <v>1635426000</v>
@@ -16395,7 +16395,7 @@
         <v>1635944400</v>
       </c>
       <c r="K72" s="8">
-        <v>1590791100</v>
+        <v>1635944100</v>
       </c>
       <c r="L72" s="8">
         <v>1636030800</v>
@@ -16472,7 +16472,7 @@
         <v>1636549200</v>
       </c>
       <c r="K73" s="8">
-        <v>1590792900</v>
+        <v>1636548900</v>
       </c>
       <c r="L73" s="8">
         <v>1636635600</v>
@@ -16549,7 +16549,7 @@
         <v>1637154000</v>
       </c>
       <c r="K74" s="8">
-        <v>1590794700</v>
+        <v>1637153700</v>
       </c>
       <c r="L74" s="8">
         <v>1637240400</v>
@@ -16626,7 +16626,7 @@
         <v>1637758800</v>
       </c>
       <c r="K75" s="8">
-        <v>1590796500</v>
+        <v>1637758500</v>
       </c>
       <c r="L75" s="8">
         <v>1637845200</v>
@@ -16703,7 +16703,7 @@
         <v>1638363600</v>
       </c>
       <c r="K76" s="8">
-        <v>1590798300</v>
+        <v>1638363300</v>
       </c>
       <c r="L76" s="8">
         <v>1638450000</v>
@@ -16780,7 +16780,7 @@
         <v>1638968400</v>
       </c>
       <c r="K77" s="8">
-        <v>1590800100</v>
+        <v>1638968100</v>
       </c>
       <c r="L77" s="8">
         <v>1639054800</v>
@@ -16857,7 +16857,7 @@
         <v>1639573200</v>
       </c>
       <c r="K78" s="8">
-        <v>1590801900</v>
+        <v>1639572900</v>
       </c>
       <c r="L78" s="8">
         <v>1639659600</v>
@@ -16933,8 +16933,8 @@
       <c r="J79" s="14">
         <v>1640178000</v>
       </c>
-      <c r="K79" s="8">
-        <v>1590803700</v>
+      <c r="K79" s="14">
+        <v>1640177700</v>
       </c>
       <c r="L79" s="8">
         <v>1640264400</v>
@@ -17010,8 +17010,8 @@
       <c r="J80" s="14">
         <v>1640782800</v>
       </c>
-      <c r="K80" s="8">
-        <v>1590805500</v>
+      <c r="K80" s="14">
+        <v>1640782500</v>
       </c>
       <c r="L80" s="8">
         <v>1640869200</v>
@@ -17087,8 +17087,8 @@
       <c r="J81" s="14">
         <v>1641387600</v>
       </c>
-      <c r="K81" s="8">
-        <v>1590807300</v>
+      <c r="K81" s="14">
+        <v>1641387300</v>
       </c>
       <c r="L81" s="8">
         <v>1641474000</v>
@@ -17164,8 +17164,8 @@
       <c r="J82" s="14">
         <v>1641992400</v>
       </c>
-      <c r="K82" s="8">
-        <v>1590809100</v>
+      <c r="K82" s="14">
+        <v>1641992100</v>
       </c>
       <c r="L82" s="8">
         <v>1642078800</v>
@@ -17241,8 +17241,8 @@
       <c r="J83" s="14">
         <v>1642597200</v>
       </c>
-      <c r="K83" s="8">
-        <v>1590810900</v>
+      <c r="K83" s="40">
+        <v>1642596900</v>
       </c>
       <c r="L83" s="8">
         <v>1642683600</v>
@@ -17318,8 +17318,8 @@
       <c r="J84" s="14">
         <v>1643202000</v>
       </c>
-      <c r="K84" s="8">
-        <v>1590812700</v>
+      <c r="K84" s="40">
+        <v>1643201700</v>
       </c>
       <c r="L84" s="8">
         <v>1643288400</v>
@@ -17395,8 +17395,8 @@
       <c r="J85" s="14">
         <v>1643806800</v>
       </c>
-      <c r="K85" s="8">
-        <v>1590814500</v>
+      <c r="K85" s="40">
+        <v>1643806500</v>
       </c>
       <c r="L85" s="8">
         <v>1643893200</v>
@@ -17472,8 +17472,8 @@
       <c r="J86" s="14">
         <v>1644411600</v>
       </c>
-      <c r="K86" s="8">
-        <v>1590816300</v>
+      <c r="K86" s="40">
+        <v>1644411300</v>
       </c>
       <c r="L86" s="8">
         <v>1644498000</v>
@@ -17549,8 +17549,8 @@
       <c r="J87" s="14">
         <v>1645016400</v>
       </c>
-      <c r="K87" s="8">
-        <v>1590818100</v>
+      <c r="K87" s="40">
+        <v>1645016100</v>
       </c>
       <c r="L87" s="8">
         <v>1645102800</v>
@@ -17626,8 +17626,8 @@
       <c r="J88" s="14">
         <v>1645621200</v>
       </c>
-      <c r="K88" s="8">
-        <v>1590819900</v>
+      <c r="K88" s="40">
+        <v>1645620900</v>
       </c>
       <c r="L88" s="8">
         <v>1645707600</v>
@@ -17704,7 +17704,7 @@
         <v>1646226000</v>
       </c>
       <c r="K89" s="8">
-        <v>1590821700</v>
+        <v>1646225700</v>
       </c>
       <c r="L89" s="8">
         <v>1646312400</v>
@@ -17781,7 +17781,7 @@
         <v>1646830800</v>
       </c>
       <c r="K90" s="8">
-        <v>1590823500</v>
+        <v>1646830500</v>
       </c>
       <c r="L90" s="8">
         <v>1646917200</v>
@@ -17858,7 +17858,7 @@
         <v>1647435600</v>
       </c>
       <c r="K91" s="8">
-        <v>1590825300</v>
+        <v>1647435300</v>
       </c>
       <c r="L91" s="8">
         <v>1647522000</v>
@@ -17935,7 +17935,7 @@
         <v>1648040400</v>
       </c>
       <c r="K92" s="8">
-        <v>1590827100</v>
+        <v>1648040100</v>
       </c>
       <c r="L92" s="8">
         <v>1648126800</v>
@@ -18012,7 +18012,7 @@
         <v>1648645200</v>
       </c>
       <c r="K93" s="8">
-        <v>1590828900</v>
+        <v>1648644900</v>
       </c>
       <c r="L93" s="8">
         <v>1648731600</v>
@@ -18089,7 +18089,7 @@
         <v>1649250000</v>
       </c>
       <c r="K94" s="8">
-        <v>1590830700</v>
+        <v>1649249700</v>
       </c>
       <c r="L94" s="8">
         <v>1649336400</v>
@@ -18166,7 +18166,7 @@
         <v>1649854800</v>
       </c>
       <c r="K95" s="8">
-        <v>1590832500</v>
+        <v>1649854500</v>
       </c>
       <c r="L95" s="8">
         <v>1649941200</v>
@@ -18243,7 +18243,7 @@
         <v>1650459600</v>
       </c>
       <c r="K96" s="8">
-        <v>1590834300</v>
+        <v>1650459300</v>
       </c>
       <c r="L96" s="8">
         <v>1650546000</v>
@@ -18320,7 +18320,7 @@
         <v>1651064400</v>
       </c>
       <c r="K97" s="8">
-        <v>1590836100</v>
+        <v>1651064100</v>
       </c>
       <c r="L97" s="8">
         <v>1651150800</v>
@@ -18397,7 +18397,7 @@
         <v>1651669200</v>
       </c>
       <c r="K98" s="8">
-        <v>1590837900</v>
+        <v>1651668900</v>
       </c>
       <c r="L98" s="8">
         <v>1651755600</v>
@@ -18474,7 +18474,7 @@
         <v>1652274000</v>
       </c>
       <c r="K99" s="8">
-        <v>1590839700</v>
+        <v>1652273700</v>
       </c>
       <c r="L99" s="8">
         <v>1652360400</v>
@@ -18551,7 +18551,7 @@
         <v>1652878800</v>
       </c>
       <c r="K100" s="8">
-        <v>1590841500</v>
+        <v>1652878500</v>
       </c>
       <c r="L100" s="8">
         <v>1652965200</v>
@@ -18628,7 +18628,7 @@
         <v>1653483600</v>
       </c>
       <c r="K101" s="8">
-        <v>1590843300</v>
+        <v>1653483300</v>
       </c>
       <c r="L101" s="8">
         <v>1653570000</v>
@@ -19225,8 +19225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_debug/fishmatch_ui.xlsx
+++ b/config_debug/fishmatch_ui.xlsx
@@ -9,22 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24345" windowHeight="12465" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24345" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="config|配置" sheetId="3" r:id="rId1"/>
     <sheet name="award|奖励" sheetId="4" r:id="rId2"/>
     <sheet name="qys_config|千元赛" sheetId="7" r:id="rId3"/>
     <sheet name="qys_award|千元赛奖励" sheetId="8" r:id="rId4"/>
-    <sheet name="pms_config|排名赛" sheetId="10" r:id="rId5"/>
-    <sheet name="pms_award|排名赛奖励" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2696" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2577" uniqueCount="306">
   <si>
     <t>id|行号</t>
   </si>
@@ -1241,53 +1239,6 @@
     <t>千元大奖赛第一百期</t>
   </si>
   <si>
-    <t>game_tag|游戏标签</t>
-  </si>
-  <si>
-    <t>game_name|游戏名字</t>
-  </si>
-  <si>
-    <t>award|奖励</t>
-  </si>
-  <si>
-    <t>ios_pay_id|商城等级</t>
-  </si>
-  <si>
-    <t>gift_id|商城等级</t>
-  </si>
-  <si>
-    <t>pms</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>满2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>人开赛</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>ty_icon_flq3</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1304,208 +1255,7 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>in_score|最小分数，-1表示无下限</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>award_id|奖励id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>id|行号</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>rank_name|段位名字</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon|段位图标</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_local_icon</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>max_score|最大分数，-1表示无上限</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>award_desc|奖励描述</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0B0B0B"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>award</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>icon|奖励图标</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>game_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Fishing3D</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"jing</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_bi</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>",</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>award_desc|奖励描述</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>game_type_name|游戏场次名字</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>match_bullet_num|比赛子弹数</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>match_time|比赛耗时（分钟）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>desc|报名详情界面描述</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>bs_icon_by</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>bs_icon_qt</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_flq1",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>"ty_icon_flq2",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_flq3",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_flq3",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_18y",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_15y",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_30y",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_98y",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"prop_gns_ticket","jing_bi",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3D捕鱼海底宝藏场</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3D捕鱼藏宝海湾场</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3D捕鱼深海沉船场</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3D捕鱼神秘海域场</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1652,202 +1402,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>50000,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>50福利券赛</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>福利券赛</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>50</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>福利券赛</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>100</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>福利券赛</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,20000,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"50福利券",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"200福利券",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"500福利券",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1000福利券",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"30000鲸币",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"300000鲸币",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金段位</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>bs_icon_hj</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>白银段位</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>bs_icon_by</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>青铜段位</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"10000鲸币",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金段位</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>bs_icon_hj</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"100000鲸币",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"50000鲸币",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金段位</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_flq3",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1000福利券",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_flq3",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"500000鲸币",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_98y",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>青铜段位</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>5万福利券</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1857,46 +1411,6 @@
   </si>
   <si>
     <t>1万福利券</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>award</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>icon|奖励图标</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>jing_bi_min|进入最小金币限制</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>jing_bi_max|进入最大金币限制</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"200000鲸币",</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1907,7 +1421,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1948,12 +1462,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF191F25"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2024,7 +1532,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2115,14 +1623,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2131,9 +1631,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2414,10 +1911,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C54" sqref="C54"/>
-      <selection pane="bottomLeft" activeCell="K3" sqref="K3:K101"/>
+      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2542,7 +2039,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I2" s="14">
         <v>1593608100</v>
@@ -2566,7 +2063,7 @@
         <v>46</v>
       </c>
       <c r="P2" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q2" s="5">
         <v>100</v>
@@ -2587,7 +2084,7 @@
         <v>46</v>
       </c>
       <c r="W2" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X2" s="19" t="s">
         <v>39</v>
@@ -2619,7 +2116,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I3" s="14">
         <v>1594212900</v>
@@ -2643,7 +2140,7 @@
         <v>46</v>
       </c>
       <c r="P3" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q3" s="5">
         <v>100</v>
@@ -2664,7 +2161,7 @@
         <v>46</v>
       </c>
       <c r="W3" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X3" s="19" t="s">
         <v>39</v>
@@ -2696,7 +2193,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I4" s="14">
         <v>1594817700</v>
@@ -2720,7 +2217,7 @@
         <v>46</v>
       </c>
       <c r="P4" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q4" s="5">
         <v>100</v>
@@ -2741,7 +2238,7 @@
         <v>46</v>
       </c>
       <c r="W4" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X4" s="19" t="s">
         <v>39</v>
@@ -2773,7 +2270,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I5" s="14">
         <v>1595422500</v>
@@ -2797,7 +2294,7 @@
         <v>46</v>
       </c>
       <c r="P5" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q5" s="5">
         <v>100</v>
@@ -2818,7 +2315,7 @@
         <v>46</v>
       </c>
       <c r="W5" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X5" s="19" t="s">
         <v>39</v>
@@ -2850,15 +2347,15 @@
         <v>1</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="I6" s="40">
+        <v>280</v>
+      </c>
+      <c r="I6" s="36">
         <v>1596027300</v>
       </c>
       <c r="J6" s="14">
         <v>1596027600</v>
       </c>
-      <c r="K6" s="40">
+      <c r="K6" s="36">
         <v>1596027300</v>
       </c>
       <c r="L6">
@@ -2874,7 +2371,7 @@
         <v>46</v>
       </c>
       <c r="P6" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q6" s="5">
         <v>100</v>
@@ -2895,7 +2392,7 @@
         <v>46</v>
       </c>
       <c r="W6" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X6" s="19" t="s">
         <v>39</v>
@@ -2927,15 +2424,15 @@
         <v>1</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="I7" s="40">
+        <v>280</v>
+      </c>
+      <c r="I7" s="36">
         <v>1596632100</v>
       </c>
       <c r="J7" s="14">
         <v>1596632400</v>
       </c>
-      <c r="K7" s="40">
+      <c r="K7" s="36">
         <v>1596632100</v>
       </c>
       <c r="L7">
@@ -2951,7 +2448,7 @@
         <v>46</v>
       </c>
       <c r="P7" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q7" s="5">
         <v>100</v>
@@ -2972,7 +2469,7 @@
         <v>46</v>
       </c>
       <c r="W7" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X7" s="19" t="s">
         <v>39</v>
@@ -3004,15 +2501,15 @@
         <v>1</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="I8" s="40">
+        <v>280</v>
+      </c>
+      <c r="I8" s="36">
         <v>1597236900</v>
       </c>
       <c r="J8" s="14">
         <v>1597237200</v>
       </c>
-      <c r="K8" s="40">
+      <c r="K8" s="36">
         <v>1597236900</v>
       </c>
       <c r="L8">
@@ -3028,7 +2525,7 @@
         <v>46</v>
       </c>
       <c r="P8" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q8" s="5">
         <v>100</v>
@@ -3049,7 +2546,7 @@
         <v>46</v>
       </c>
       <c r="W8" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X8" s="19" t="s">
         <v>39</v>
@@ -3081,15 +2578,15 @@
         <v>1</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="I9" s="40">
+        <v>280</v>
+      </c>
+      <c r="I9" s="36">
         <v>1597841700</v>
       </c>
       <c r="J9" s="14">
         <v>1597842000</v>
       </c>
-      <c r="K9" s="40">
+      <c r="K9" s="36">
         <v>1597841700</v>
       </c>
       <c r="L9">
@@ -3105,7 +2602,7 @@
         <v>46</v>
       </c>
       <c r="P9" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q9" s="5">
         <v>100</v>
@@ -3126,7 +2623,7 @@
         <v>46</v>
       </c>
       <c r="W9" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X9" s="19" t="s">
         <v>39</v>
@@ -3158,15 +2655,15 @@
         <v>1</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="I10" s="40">
+        <v>280</v>
+      </c>
+      <c r="I10" s="36">
         <v>1598446500</v>
       </c>
       <c r="J10" s="14">
         <v>1598446800</v>
       </c>
-      <c r="K10" s="40">
+      <c r="K10" s="36">
         <v>1598446500</v>
       </c>
       <c r="L10">
@@ -3182,7 +2679,7 @@
         <v>46</v>
       </c>
       <c r="P10" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q10" s="5">
         <v>100</v>
@@ -3203,7 +2700,7 @@
         <v>46</v>
       </c>
       <c r="W10" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X10" s="19" t="s">
         <v>39</v>
@@ -3235,15 +2732,15 @@
         <v>1</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="I11" s="40">
+        <v>280</v>
+      </c>
+      <c r="I11" s="36">
         <v>1599051300</v>
       </c>
       <c r="J11" s="14">
         <v>1599051600</v>
       </c>
-      <c r="K11" s="40">
+      <c r="K11" s="36">
         <v>1599051300</v>
       </c>
       <c r="L11">
@@ -3259,7 +2756,7 @@
         <v>46</v>
       </c>
       <c r="P11" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q11" s="5">
         <v>100</v>
@@ -3280,7 +2777,7 @@
         <v>46</v>
       </c>
       <c r="W11" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X11" s="19" t="s">
         <v>39</v>
@@ -3312,7 +2809,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I12" s="8">
         <v>1599656100</v>
@@ -3336,7 +2833,7 @@
         <v>46</v>
       </c>
       <c r="P12" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q12" s="5">
         <v>100</v>
@@ -3357,7 +2854,7 @@
         <v>46</v>
       </c>
       <c r="W12" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X12" s="19" t="s">
         <v>39</v>
@@ -3389,7 +2886,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I13" s="8">
         <v>1600260900</v>
@@ -3413,7 +2910,7 @@
         <v>46</v>
       </c>
       <c r="P13" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q13" s="5">
         <v>100</v>
@@ -3434,7 +2931,7 @@
         <v>46</v>
       </c>
       <c r="W13" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X13" s="19" t="s">
         <v>39</v>
@@ -3466,7 +2963,7 @@
         <v>1</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I14" s="8">
         <v>1600865700</v>
@@ -3490,7 +2987,7 @@
         <v>46</v>
       </c>
       <c r="P14" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q14" s="5">
         <v>100</v>
@@ -3511,7 +3008,7 @@
         <v>46</v>
       </c>
       <c r="W14" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X14" s="19" t="s">
         <v>39</v>
@@ -3543,7 +3040,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I15" s="8">
         <v>1601470500</v>
@@ -3567,7 +3064,7 @@
         <v>46</v>
       </c>
       <c r="P15" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q15" s="5">
         <v>100</v>
@@ -3588,7 +3085,7 @@
         <v>46</v>
       </c>
       <c r="W15" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X15" s="19" t="s">
         <v>39</v>
@@ -3620,7 +3117,7 @@
         <v>1</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I16" s="8">
         <v>1602075300</v>
@@ -3644,7 +3141,7 @@
         <v>46</v>
       </c>
       <c r="P16" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q16" s="5">
         <v>100</v>
@@ -3665,7 +3162,7 @@
         <v>46</v>
       </c>
       <c r="W16" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X16" s="19" t="s">
         <v>39</v>
@@ -3697,7 +3194,7 @@
         <v>1</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I17" s="8">
         <v>1602680100</v>
@@ -3721,7 +3218,7 @@
         <v>46</v>
       </c>
       <c r="P17" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q17" s="5">
         <v>100</v>
@@ -3742,7 +3239,7 @@
         <v>46</v>
       </c>
       <c r="W17" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X17" s="19" t="s">
         <v>39</v>
@@ -3774,7 +3271,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I18" s="8">
         <v>1603284900</v>
@@ -3798,7 +3295,7 @@
         <v>46</v>
       </c>
       <c r="P18" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q18" s="5">
         <v>100</v>
@@ -3819,7 +3316,7 @@
         <v>46</v>
       </c>
       <c r="W18" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X18" s="19" t="s">
         <v>39</v>
@@ -3851,7 +3348,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I19" s="8">
         <v>1603889700</v>
@@ -3875,7 +3372,7 @@
         <v>46</v>
       </c>
       <c r="P19" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q19" s="5">
         <v>100</v>
@@ -3896,7 +3393,7 @@
         <v>46</v>
       </c>
       <c r="W19" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X19" s="19" t="s">
         <v>39</v>
@@ -3928,7 +3425,7 @@
         <v>1</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I20" s="8">
         <v>1604494500</v>
@@ -3952,7 +3449,7 @@
         <v>46</v>
       </c>
       <c r="P20" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q20" s="5">
         <v>100</v>
@@ -3973,7 +3470,7 @@
         <v>46</v>
       </c>
       <c r="W20" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X20" s="19" t="s">
         <v>39</v>
@@ -4005,7 +3502,7 @@
         <v>1</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I21" s="8">
         <v>1605099300</v>
@@ -4029,7 +3526,7 @@
         <v>46</v>
       </c>
       <c r="P21" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q21" s="5">
         <v>100</v>
@@ -4050,7 +3547,7 @@
         <v>46</v>
       </c>
       <c r="W21" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X21" s="19" t="s">
         <v>39</v>
@@ -4082,7 +3579,7 @@
         <v>1</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I22" s="8">
         <v>1605704100</v>
@@ -4106,7 +3603,7 @@
         <v>46</v>
       </c>
       <c r="P22" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q22" s="5">
         <v>100</v>
@@ -4127,7 +3624,7 @@
         <v>46</v>
       </c>
       <c r="W22" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X22" s="19" t="s">
         <v>39</v>
@@ -4159,7 +3656,7 @@
         <v>1</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I23" s="8">
         <v>1606308900</v>
@@ -4183,7 +3680,7 @@
         <v>46</v>
       </c>
       <c r="P23" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q23" s="5">
         <v>100</v>
@@ -4204,7 +3701,7 @@
         <v>46</v>
       </c>
       <c r="W23" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X23" s="19" t="s">
         <v>39</v>
@@ -4236,7 +3733,7 @@
         <v>1</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I24" s="8">
         <v>1606913700</v>
@@ -4260,7 +3757,7 @@
         <v>46</v>
       </c>
       <c r="P24" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q24" s="5">
         <v>100</v>
@@ -4281,7 +3778,7 @@
         <v>46</v>
       </c>
       <c r="W24" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X24" s="19" t="s">
         <v>39</v>
@@ -4313,7 +3810,7 @@
         <v>1</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I25" s="8">
         <v>1607518500</v>
@@ -4337,7 +3834,7 @@
         <v>46</v>
       </c>
       <c r="P25" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q25" s="5">
         <v>100</v>
@@ -4358,7 +3855,7 @@
         <v>46</v>
       </c>
       <c r="W25" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X25" s="19" t="s">
         <v>39</v>
@@ -4390,7 +3887,7 @@
         <v>1</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I26" s="8">
         <v>1608123300</v>
@@ -4414,7 +3911,7 @@
         <v>46</v>
       </c>
       <c r="P26" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q26" s="5">
         <v>100</v>
@@ -4435,7 +3932,7 @@
         <v>46</v>
       </c>
       <c r="W26" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X26" s="19" t="s">
         <v>39</v>
@@ -4467,7 +3964,7 @@
         <v>1</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I27" s="8">
         <v>1608728100</v>
@@ -4491,7 +3988,7 @@
         <v>46</v>
       </c>
       <c r="P27" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q27" s="5">
         <v>100</v>
@@ -4512,7 +4009,7 @@
         <v>46</v>
       </c>
       <c r="W27" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X27" s="19" t="s">
         <v>39</v>
@@ -4544,7 +4041,7 @@
         <v>1</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I28" s="8">
         <v>1609332900</v>
@@ -4568,7 +4065,7 @@
         <v>46</v>
       </c>
       <c r="P28" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q28" s="5">
         <v>100</v>
@@ -4589,7 +4086,7 @@
         <v>46</v>
       </c>
       <c r="W28" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X28" s="19" t="s">
         <v>39</v>
@@ -4621,7 +4118,7 @@
         <v>1</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I29" s="8">
         <v>1609937700</v>
@@ -4645,7 +4142,7 @@
         <v>46</v>
       </c>
       <c r="P29" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q29" s="5">
         <v>100</v>
@@ -4666,7 +4163,7 @@
         <v>46</v>
       </c>
       <c r="W29" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X29" s="19" t="s">
         <v>39</v>
@@ -4698,7 +4195,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I30" s="8">
         <v>1610542500</v>
@@ -4722,7 +4219,7 @@
         <v>46</v>
       </c>
       <c r="P30" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q30" s="5">
         <v>100</v>
@@ -4743,7 +4240,7 @@
         <v>46</v>
       </c>
       <c r="W30" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X30" s="19" t="s">
         <v>39</v>
@@ -4775,7 +4272,7 @@
         <v>1</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I31" s="8">
         <v>1611147300</v>
@@ -4799,7 +4296,7 @@
         <v>46</v>
       </c>
       <c r="P31" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q31" s="5">
         <v>100</v>
@@ -4820,7 +4317,7 @@
         <v>46</v>
       </c>
       <c r="W31" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X31" s="19" t="s">
         <v>39</v>
@@ -4852,7 +4349,7 @@
         <v>1</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I32" s="8">
         <v>1611752100</v>
@@ -4876,7 +4373,7 @@
         <v>46</v>
       </c>
       <c r="P32" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q32" s="5">
         <v>100</v>
@@ -4897,7 +4394,7 @@
         <v>46</v>
       </c>
       <c r="W32" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X32" s="19" t="s">
         <v>39</v>
@@ -4929,7 +4426,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I33" s="8">
         <v>1612356900</v>
@@ -4953,7 +4450,7 @@
         <v>46</v>
       </c>
       <c r="P33" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q33" s="5">
         <v>100</v>
@@ -4974,7 +4471,7 @@
         <v>46</v>
       </c>
       <c r="W33" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X33" s="19" t="s">
         <v>39</v>
@@ -5006,7 +4503,7 @@
         <v>1</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I34" s="8">
         <v>1612961700</v>
@@ -5030,7 +4527,7 @@
         <v>46</v>
       </c>
       <c r="P34" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q34" s="5">
         <v>100</v>
@@ -5051,7 +4548,7 @@
         <v>46</v>
       </c>
       <c r="W34" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X34" s="19" t="s">
         <v>39</v>
@@ -5083,7 +4580,7 @@
         <v>1</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I35" s="8">
         <v>1613566500</v>
@@ -5107,7 +4604,7 @@
         <v>46</v>
       </c>
       <c r="P35" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q35" s="5">
         <v>100</v>
@@ -5128,7 +4625,7 @@
         <v>46</v>
       </c>
       <c r="W35" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X35" s="19" t="s">
         <v>39</v>
@@ -5160,7 +4657,7 @@
         <v>1</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I36" s="8">
         <v>1614171300</v>
@@ -5184,7 +4681,7 @@
         <v>46</v>
       </c>
       <c r="P36" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q36" s="5">
         <v>100</v>
@@ -5205,7 +4702,7 @@
         <v>46</v>
       </c>
       <c r="W36" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X36" s="19" t="s">
         <v>39</v>
@@ -5237,7 +4734,7 @@
         <v>1</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I37" s="8">
         <v>1614776100</v>
@@ -5261,7 +4758,7 @@
         <v>46</v>
       </c>
       <c r="P37" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q37" s="5">
         <v>100</v>
@@ -5282,7 +4779,7 @@
         <v>46</v>
       </c>
       <c r="W37" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X37" s="19" t="s">
         <v>39</v>
@@ -5314,7 +4811,7 @@
         <v>1</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I38" s="8">
         <v>1615380900</v>
@@ -5338,7 +4835,7 @@
         <v>46</v>
       </c>
       <c r="P38" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q38" s="5">
         <v>100</v>
@@ -5359,7 +4856,7 @@
         <v>46</v>
       </c>
       <c r="W38" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X38" s="19" t="s">
         <v>39</v>
@@ -5391,7 +4888,7 @@
         <v>1</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I39" s="8">
         <v>1615985700</v>
@@ -5415,7 +4912,7 @@
         <v>46</v>
       </c>
       <c r="P39" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q39" s="5">
         <v>100</v>
@@ -5436,7 +4933,7 @@
         <v>46</v>
       </c>
       <c r="W39" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X39" s="19" t="s">
         <v>39</v>
@@ -5468,7 +4965,7 @@
         <v>1</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I40" s="8">
         <v>1616590500</v>
@@ -5492,7 +4989,7 @@
         <v>46</v>
       </c>
       <c r="P40" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q40" s="5">
         <v>100</v>
@@ -5513,7 +5010,7 @@
         <v>46</v>
       </c>
       <c r="W40" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X40" s="19" t="s">
         <v>39</v>
@@ -5545,7 +5042,7 @@
         <v>1</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I41" s="8">
         <v>1617195300</v>
@@ -5569,7 +5066,7 @@
         <v>46</v>
       </c>
       <c r="P41" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q41" s="5">
         <v>100</v>
@@ -5590,7 +5087,7 @@
         <v>46</v>
       </c>
       <c r="W41" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X41" s="19" t="s">
         <v>39</v>
@@ -5622,7 +5119,7 @@
         <v>1</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I42" s="8">
         <v>1617800100</v>
@@ -5646,7 +5143,7 @@
         <v>46</v>
       </c>
       <c r="P42" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q42" s="5">
         <v>100</v>
@@ -5667,7 +5164,7 @@
         <v>46</v>
       </c>
       <c r="W42" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X42" s="19" t="s">
         <v>39</v>
@@ -5699,7 +5196,7 @@
         <v>1</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I43" s="8">
         <v>1618404900</v>
@@ -5723,7 +5220,7 @@
         <v>46</v>
       </c>
       <c r="P43" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q43" s="5">
         <v>100</v>
@@ -5744,7 +5241,7 @@
         <v>46</v>
       </c>
       <c r="W43" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X43" s="19" t="s">
         <v>39</v>
@@ -5776,7 +5273,7 @@
         <v>1</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I44" s="8">
         <v>1619009700</v>
@@ -5800,7 +5297,7 @@
         <v>46</v>
       </c>
       <c r="P44" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q44" s="5">
         <v>100</v>
@@ -5821,7 +5318,7 @@
         <v>46</v>
       </c>
       <c r="W44" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X44" s="19" t="s">
         <v>39</v>
@@ -5853,7 +5350,7 @@
         <v>1</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I45" s="8">
         <v>1619614500</v>
@@ -5877,7 +5374,7 @@
         <v>46</v>
       </c>
       <c r="P45" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q45" s="5">
         <v>100</v>
@@ -5898,7 +5395,7 @@
         <v>46</v>
       </c>
       <c r="W45" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X45" s="19" t="s">
         <v>39</v>
@@ -5930,7 +5427,7 @@
         <v>1</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I46" s="8">
         <v>1620219300</v>
@@ -5954,7 +5451,7 @@
         <v>46</v>
       </c>
       <c r="P46" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q46" s="5">
         <v>100</v>
@@ -5975,7 +5472,7 @@
         <v>46</v>
       </c>
       <c r="W46" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X46" s="19" t="s">
         <v>39</v>
@@ -6007,7 +5504,7 @@
         <v>1</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I47" s="8">
         <v>1620824100</v>
@@ -6031,7 +5528,7 @@
         <v>46</v>
       </c>
       <c r="P47" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q47" s="5">
         <v>100</v>
@@ -6052,7 +5549,7 @@
         <v>46</v>
       </c>
       <c r="W47" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X47" s="19" t="s">
         <v>39</v>
@@ -6084,7 +5581,7 @@
         <v>1</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I48" s="8">
         <v>1621428900</v>
@@ -6108,7 +5605,7 @@
         <v>46</v>
       </c>
       <c r="P48" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q48" s="5">
         <v>100</v>
@@ -6129,7 +5626,7 @@
         <v>46</v>
       </c>
       <c r="W48" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X48" s="19" t="s">
         <v>39</v>
@@ -6161,7 +5658,7 @@
         <v>1</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I49" s="8">
         <v>1622033700</v>
@@ -6185,7 +5682,7 @@
         <v>46</v>
       </c>
       <c r="P49" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q49" s="5">
         <v>100</v>
@@ -6206,7 +5703,7 @@
         <v>46</v>
       </c>
       <c r="W49" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X49" s="19" t="s">
         <v>39</v>
@@ -6238,7 +5735,7 @@
         <v>1</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I50" s="8">
         <v>1622638500</v>
@@ -6262,7 +5759,7 @@
         <v>46</v>
       </c>
       <c r="P50" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q50" s="5">
         <v>100</v>
@@ -6283,7 +5780,7 @@
         <v>46</v>
       </c>
       <c r="W50" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X50" s="19" t="s">
         <v>39</v>
@@ -6315,7 +5812,7 @@
         <v>1</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I51" s="8">
         <v>1623243300</v>
@@ -6339,7 +5836,7 @@
         <v>46</v>
       </c>
       <c r="P51" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q51" s="28">
         <v>100</v>
@@ -6360,7 +5857,7 @@
         <v>46</v>
       </c>
       <c r="W51" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X51" s="35" t="s">
         <v>39</v>
@@ -6392,7 +5889,7 @@
         <v>1</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I52" s="8">
         <v>1623848100</v>
@@ -6416,7 +5913,7 @@
         <v>46</v>
       </c>
       <c r="P52" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q52" s="5">
         <v>100</v>
@@ -6437,7 +5934,7 @@
         <v>46</v>
       </c>
       <c r="W52" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X52" s="19" t="s">
         <v>39</v>
@@ -6469,7 +5966,7 @@
         <v>1</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I53" s="8">
         <v>1624452900</v>
@@ -6493,7 +5990,7 @@
         <v>46</v>
       </c>
       <c r="P53" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q53" s="5">
         <v>100</v>
@@ -6514,7 +6011,7 @@
         <v>46</v>
       </c>
       <c r="W53" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X53" s="19" t="s">
         <v>39</v>
@@ -6546,7 +6043,7 @@
         <v>1</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I54" s="8">
         <v>1625057700</v>
@@ -6570,7 +6067,7 @@
         <v>46</v>
       </c>
       <c r="P54" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q54" s="5">
         <v>100</v>
@@ -6591,7 +6088,7 @@
         <v>46</v>
       </c>
       <c r="W54" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X54" s="19" t="s">
         <v>39</v>
@@ -6623,7 +6120,7 @@
         <v>1</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I55" s="8">
         <v>1625662500</v>
@@ -6647,7 +6144,7 @@
         <v>46</v>
       </c>
       <c r="P55" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q55" s="5">
         <v>100</v>
@@ -6668,7 +6165,7 @@
         <v>46</v>
       </c>
       <c r="W55" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X55" s="19" t="s">
         <v>39</v>
@@ -6700,7 +6197,7 @@
         <v>1</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I56" s="8">
         <v>1626267300</v>
@@ -6724,7 +6221,7 @@
         <v>46</v>
       </c>
       <c r="P56" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q56" s="5">
         <v>100</v>
@@ -6745,7 +6242,7 @@
         <v>46</v>
       </c>
       <c r="W56" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X56" s="19" t="s">
         <v>39</v>
@@ -6777,7 +6274,7 @@
         <v>1</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I57" s="8">
         <v>1626872100</v>
@@ -6801,7 +6298,7 @@
         <v>46</v>
       </c>
       <c r="P57" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q57" s="5">
         <v>100</v>
@@ -6822,7 +6319,7 @@
         <v>46</v>
       </c>
       <c r="W57" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X57" s="19" t="s">
         <v>39</v>
@@ -6854,7 +6351,7 @@
         <v>1</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I58" s="8">
         <v>1627476900</v>
@@ -6878,7 +6375,7 @@
         <v>46</v>
       </c>
       <c r="P58" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q58" s="5">
         <v>100</v>
@@ -6899,7 +6396,7 @@
         <v>46</v>
       </c>
       <c r="W58" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X58" s="19" t="s">
         <v>39</v>
@@ -6931,7 +6428,7 @@
         <v>1</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I59" s="8">
         <v>1628081700</v>
@@ -6955,7 +6452,7 @@
         <v>46</v>
       </c>
       <c r="P59" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q59" s="5">
         <v>100</v>
@@ -6976,7 +6473,7 @@
         <v>46</v>
       </c>
       <c r="W59" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X59" s="19" t="s">
         <v>39</v>
@@ -7008,7 +6505,7 @@
         <v>1</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I60" s="8">
         <v>1628686500</v>
@@ -7032,7 +6529,7 @@
         <v>46</v>
       </c>
       <c r="P60" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q60" s="5">
         <v>100</v>
@@ -7053,7 +6550,7 @@
         <v>46</v>
       </c>
       <c r="W60" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X60" s="19" t="s">
         <v>39</v>
@@ -7085,7 +6582,7 @@
         <v>1</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I61" s="8">
         <v>1629291300</v>
@@ -7109,7 +6606,7 @@
         <v>46</v>
       </c>
       <c r="P61" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q61" s="5">
         <v>100</v>
@@ -7130,7 +6627,7 @@
         <v>46</v>
       </c>
       <c r="W61" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X61" s="19" t="s">
         <v>39</v>
@@ -7162,7 +6659,7 @@
         <v>1</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I62" s="8">
         <v>1629896100</v>
@@ -7186,7 +6683,7 @@
         <v>46</v>
       </c>
       <c r="P62" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q62" s="5">
         <v>100</v>
@@ -7207,7 +6704,7 @@
         <v>46</v>
       </c>
       <c r="W62" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X62" s="19" t="s">
         <v>39</v>
@@ -7239,7 +6736,7 @@
         <v>1</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I63" s="8">
         <v>1630500900</v>
@@ -7263,7 +6760,7 @@
         <v>46</v>
       </c>
       <c r="P63" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q63" s="5">
         <v>100</v>
@@ -7284,7 +6781,7 @@
         <v>46</v>
       </c>
       <c r="W63" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X63" s="19" t="s">
         <v>39</v>
@@ -7316,7 +6813,7 @@
         <v>1</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I64" s="8">
         <v>1631105700</v>
@@ -7340,7 +6837,7 @@
         <v>46</v>
       </c>
       <c r="P64" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q64" s="5">
         <v>100</v>
@@ -7361,7 +6858,7 @@
         <v>46</v>
       </c>
       <c r="W64" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X64" s="19" t="s">
         <v>39</v>
@@ -7393,7 +6890,7 @@
         <v>1</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I65" s="8">
         <v>1631710500</v>
@@ -7417,7 +6914,7 @@
         <v>46</v>
       </c>
       <c r="P65" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q65" s="5">
         <v>100</v>
@@ -7438,7 +6935,7 @@
         <v>46</v>
       </c>
       <c r="W65" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X65" s="19" t="s">
         <v>39</v>
@@ -7470,7 +6967,7 @@
         <v>1</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I66" s="8">
         <v>1632315300</v>
@@ -7494,7 +6991,7 @@
         <v>46</v>
       </c>
       <c r="P66" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q66" s="5">
         <v>100</v>
@@ -7515,7 +7012,7 @@
         <v>46</v>
       </c>
       <c r="W66" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X66" s="19" t="s">
         <v>39</v>
@@ -7547,7 +7044,7 @@
         <v>1</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I67" s="8">
         <v>1632920100</v>
@@ -7571,7 +7068,7 @@
         <v>46</v>
       </c>
       <c r="P67" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q67" s="5">
         <v>100</v>
@@ -7592,7 +7089,7 @@
         <v>46</v>
       </c>
       <c r="W67" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X67" s="19" t="s">
         <v>39</v>
@@ -7624,7 +7121,7 @@
         <v>1</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I68" s="8">
         <v>1633524900</v>
@@ -7648,7 +7145,7 @@
         <v>46</v>
       </c>
       <c r="P68" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q68" s="5">
         <v>100</v>
@@ -7669,7 +7166,7 @@
         <v>46</v>
       </c>
       <c r="W68" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X68" s="19" t="s">
         <v>39</v>
@@ -7701,7 +7198,7 @@
         <v>1</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I69" s="8">
         <v>1634129700</v>
@@ -7725,7 +7222,7 @@
         <v>46</v>
       </c>
       <c r="P69" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q69" s="5">
         <v>100</v>
@@ -7746,7 +7243,7 @@
         <v>46</v>
       </c>
       <c r="W69" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X69" s="19" t="s">
         <v>39</v>
@@ -7778,7 +7275,7 @@
         <v>1</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I70" s="8">
         <v>1634734500</v>
@@ -7802,7 +7299,7 @@
         <v>46</v>
       </c>
       <c r="P70" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q70" s="5">
         <v>100</v>
@@ -7823,7 +7320,7 @@
         <v>46</v>
       </c>
       <c r="W70" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X70" s="19" t="s">
         <v>39</v>
@@ -7855,7 +7352,7 @@
         <v>1</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I71" s="8">
         <v>1635339300</v>
@@ -7879,7 +7376,7 @@
         <v>46</v>
       </c>
       <c r="P71" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q71" s="5">
         <v>100</v>
@@ -7900,7 +7397,7 @@
         <v>46</v>
       </c>
       <c r="W71" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X71" s="19" t="s">
         <v>39</v>
@@ -7932,7 +7429,7 @@
         <v>1</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I72" s="8">
         <v>1635944100</v>
@@ -7956,7 +7453,7 @@
         <v>46</v>
       </c>
       <c r="P72" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q72" s="5">
         <v>100</v>
@@ -7977,7 +7474,7 @@
         <v>46</v>
       </c>
       <c r="W72" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X72" s="19" t="s">
         <v>39</v>
@@ -8009,7 +7506,7 @@
         <v>1</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I73" s="8">
         <v>1636548900</v>
@@ -8033,7 +7530,7 @@
         <v>46</v>
       </c>
       <c r="P73" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q73" s="5">
         <v>100</v>
@@ -8054,7 +7551,7 @@
         <v>46</v>
       </c>
       <c r="W73" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X73" s="19" t="s">
         <v>39</v>
@@ -8086,7 +7583,7 @@
         <v>1</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I74" s="8">
         <v>1637153700</v>
@@ -8110,7 +7607,7 @@
         <v>46</v>
       </c>
       <c r="P74" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q74" s="5">
         <v>100</v>
@@ -8131,7 +7628,7 @@
         <v>46</v>
       </c>
       <c r="W74" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X74" s="19" t="s">
         <v>39</v>
@@ -8163,7 +7660,7 @@
         <v>1</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I75" s="8">
         <v>1637758500</v>
@@ -8187,7 +7684,7 @@
         <v>46</v>
       </c>
       <c r="P75" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q75" s="5">
         <v>100</v>
@@ -8208,7 +7705,7 @@
         <v>46</v>
       </c>
       <c r="W75" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X75" s="19" t="s">
         <v>39</v>
@@ -8240,7 +7737,7 @@
         <v>1</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I76" s="8">
         <v>1638363300</v>
@@ -8264,7 +7761,7 @@
         <v>46</v>
       </c>
       <c r="P76" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q76" s="5">
         <v>100</v>
@@ -8285,7 +7782,7 @@
         <v>46</v>
       </c>
       <c r="W76" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X76" s="19" t="s">
         <v>39</v>
@@ -8317,7 +7814,7 @@
         <v>1</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I77" s="8">
         <v>1638968100</v>
@@ -8341,7 +7838,7 @@
         <v>46</v>
       </c>
       <c r="P77" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q77" s="5">
         <v>100</v>
@@ -8362,7 +7859,7 @@
         <v>46</v>
       </c>
       <c r="W77" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X77" s="19" t="s">
         <v>39</v>
@@ -8394,7 +7891,7 @@
         <v>1</v>
       </c>
       <c r="H78" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I78" s="8">
         <v>1639572900</v>
@@ -8418,7 +7915,7 @@
         <v>46</v>
       </c>
       <c r="P78" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q78" s="5">
         <v>100</v>
@@ -8439,7 +7936,7 @@
         <v>46</v>
       </c>
       <c r="W78" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X78" s="19" t="s">
         <v>39</v>
@@ -8471,7 +7968,7 @@
         <v>1</v>
       </c>
       <c r="H79" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I79" s="14">
         <v>1640177700</v>
@@ -8495,7 +7992,7 @@
         <v>46</v>
       </c>
       <c r="P79" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q79" s="5">
         <v>100</v>
@@ -8516,7 +8013,7 @@
         <v>46</v>
       </c>
       <c r="W79" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X79" s="19" t="s">
         <v>39</v>
@@ -8548,7 +8045,7 @@
         <v>1</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I80" s="14">
         <v>1640782500</v>
@@ -8572,7 +8069,7 @@
         <v>46</v>
       </c>
       <c r="P80" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q80" s="5">
         <v>100</v>
@@ -8593,7 +8090,7 @@
         <v>46</v>
       </c>
       <c r="W80" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X80" s="19" t="s">
         <v>39</v>
@@ -8625,7 +8122,7 @@
         <v>1</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I81" s="14">
         <v>1641387300</v>
@@ -8649,7 +8146,7 @@
         <v>46</v>
       </c>
       <c r="P81" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q81" s="5">
         <v>100</v>
@@ -8670,7 +8167,7 @@
         <v>46</v>
       </c>
       <c r="W81" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X81" s="19" t="s">
         <v>39</v>
@@ -8702,7 +8199,7 @@
         <v>1</v>
       </c>
       <c r="H82" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I82" s="14">
         <v>1641992100</v>
@@ -8726,7 +8223,7 @@
         <v>46</v>
       </c>
       <c r="P82" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q82" s="5">
         <v>100</v>
@@ -8747,7 +8244,7 @@
         <v>46</v>
       </c>
       <c r="W82" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X82" s="19" t="s">
         <v>39</v>
@@ -8779,15 +8276,15 @@
         <v>1</v>
       </c>
       <c r="H83" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="I83" s="40">
+        <v>280</v>
+      </c>
+      <c r="I83" s="36">
         <v>1642596900</v>
       </c>
       <c r="J83" s="14">
         <v>1642597200</v>
       </c>
-      <c r="K83" s="40">
+      <c r="K83" s="36">
         <v>1642596900</v>
       </c>
       <c r="L83" s="8">
@@ -8803,7 +8300,7 @@
         <v>46</v>
       </c>
       <c r="P83" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q83" s="5">
         <v>100</v>
@@ -8824,7 +8321,7 @@
         <v>46</v>
       </c>
       <c r="W83" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X83" s="19" t="s">
         <v>39</v>
@@ -8856,15 +8353,15 @@
         <v>1</v>
       </c>
       <c r="H84" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="I84" s="40">
+        <v>280</v>
+      </c>
+      <c r="I84" s="36">
         <v>1643201700</v>
       </c>
       <c r="J84" s="14">
         <v>1643202000</v>
       </c>
-      <c r="K84" s="40">
+      <c r="K84" s="36">
         <v>1643201700</v>
       </c>
       <c r="L84" s="8">
@@ -8880,7 +8377,7 @@
         <v>46</v>
       </c>
       <c r="P84" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q84" s="5">
         <v>100</v>
@@ -8901,7 +8398,7 @@
         <v>46</v>
       </c>
       <c r="W84" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X84" s="19" t="s">
         <v>39</v>
@@ -8933,15 +8430,15 @@
         <v>1</v>
       </c>
       <c r="H85" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="I85" s="40">
+        <v>280</v>
+      </c>
+      <c r="I85" s="36">
         <v>1643806500</v>
       </c>
       <c r="J85" s="14">
         <v>1643806800</v>
       </c>
-      <c r="K85" s="40">
+      <c r="K85" s="36">
         <v>1643806500</v>
       </c>
       <c r="L85" s="8">
@@ -8957,7 +8454,7 @@
         <v>46</v>
       </c>
       <c r="P85" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q85" s="5">
         <v>100</v>
@@ -8978,7 +8475,7 @@
         <v>46</v>
       </c>
       <c r="W85" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X85" s="19" t="s">
         <v>39</v>
@@ -9010,15 +8507,15 @@
         <v>1</v>
       </c>
       <c r="H86" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="I86" s="40">
+        <v>280</v>
+      </c>
+      <c r="I86" s="36">
         <v>1644411300</v>
       </c>
       <c r="J86" s="14">
         <v>1644411600</v>
       </c>
-      <c r="K86" s="40">
+      <c r="K86" s="36">
         <v>1644411300</v>
       </c>
       <c r="L86" s="8">
@@ -9034,7 +8531,7 @@
         <v>46</v>
       </c>
       <c r="P86" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q86" s="5">
         <v>100</v>
@@ -9055,7 +8552,7 @@
         <v>46</v>
       </c>
       <c r="W86" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X86" s="19" t="s">
         <v>39</v>
@@ -9087,15 +8584,15 @@
         <v>1</v>
       </c>
       <c r="H87" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="I87" s="40">
+        <v>280</v>
+      </c>
+      <c r="I87" s="36">
         <v>1645016100</v>
       </c>
       <c r="J87" s="14">
         <v>1645016400</v>
       </c>
-      <c r="K87" s="40">
+      <c r="K87" s="36">
         <v>1645016100</v>
       </c>
       <c r="L87" s="8">
@@ -9111,7 +8608,7 @@
         <v>46</v>
       </c>
       <c r="P87" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q87" s="5">
         <v>100</v>
@@ -9132,7 +8629,7 @@
         <v>46</v>
       </c>
       <c r="W87" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X87" s="19" t="s">
         <v>39</v>
@@ -9164,15 +8661,15 @@
         <v>1</v>
       </c>
       <c r="H88" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="I88" s="40">
+        <v>280</v>
+      </c>
+      <c r="I88" s="36">
         <v>1645620900</v>
       </c>
       <c r="J88" s="14">
         <v>1645621200</v>
       </c>
-      <c r="K88" s="40">
+      <c r="K88" s="36">
         <v>1645620900</v>
       </c>
       <c r="L88" s="8">
@@ -9188,7 +8685,7 @@
         <v>46</v>
       </c>
       <c r="P88" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q88" s="5">
         <v>100</v>
@@ -9209,7 +8706,7 @@
         <v>46</v>
       </c>
       <c r="W88" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X88" s="19" t="s">
         <v>39</v>
@@ -9241,7 +8738,7 @@
         <v>1</v>
       </c>
       <c r="H89" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I89" s="8">
         <v>1646225700</v>
@@ -9265,7 +8762,7 @@
         <v>46</v>
       </c>
       <c r="P89" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q89" s="5">
         <v>100</v>
@@ -9286,7 +8783,7 @@
         <v>46</v>
       </c>
       <c r="W89" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X89" s="19" t="s">
         <v>39</v>
@@ -9318,7 +8815,7 @@
         <v>1</v>
       </c>
       <c r="H90" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I90" s="8">
         <v>1646830500</v>
@@ -9342,7 +8839,7 @@
         <v>46</v>
       </c>
       <c r="P90" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q90" s="5">
         <v>100</v>
@@ -9363,7 +8860,7 @@
         <v>46</v>
       </c>
       <c r="W90" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X90" s="19" t="s">
         <v>39</v>
@@ -9395,7 +8892,7 @@
         <v>1</v>
       </c>
       <c r="H91" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I91" s="8">
         <v>1647435300</v>
@@ -9419,7 +8916,7 @@
         <v>46</v>
       </c>
       <c r="P91" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q91" s="5">
         <v>100</v>
@@ -9440,7 +8937,7 @@
         <v>46</v>
       </c>
       <c r="W91" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X91" s="19" t="s">
         <v>39</v>
@@ -9472,7 +8969,7 @@
         <v>1</v>
       </c>
       <c r="H92" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I92" s="8">
         <v>1648040100</v>
@@ -9496,7 +8993,7 @@
         <v>46</v>
       </c>
       <c r="P92" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q92" s="5">
         <v>100</v>
@@ -9517,7 +9014,7 @@
         <v>46</v>
       </c>
       <c r="W92" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X92" s="19" t="s">
         <v>39</v>
@@ -9549,7 +9046,7 @@
         <v>1</v>
       </c>
       <c r="H93" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I93" s="8">
         <v>1648644900</v>
@@ -9573,7 +9070,7 @@
         <v>46</v>
       </c>
       <c r="P93" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q93" s="5">
         <v>100</v>
@@ -9594,7 +9091,7 @@
         <v>46</v>
       </c>
       <c r="W93" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X93" s="19" t="s">
         <v>39</v>
@@ -9626,7 +9123,7 @@
         <v>1</v>
       </c>
       <c r="H94" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I94" s="8">
         <v>1649249700</v>
@@ -9650,7 +9147,7 @@
         <v>46</v>
       </c>
       <c r="P94" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q94" s="5">
         <v>100</v>
@@ -9671,7 +9168,7 @@
         <v>46</v>
       </c>
       <c r="W94" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X94" s="19" t="s">
         <v>39</v>
@@ -9703,7 +9200,7 @@
         <v>1</v>
       </c>
       <c r="H95" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I95" s="8">
         <v>1649854500</v>
@@ -9727,7 +9224,7 @@
         <v>46</v>
       </c>
       <c r="P95" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q95" s="5">
         <v>100</v>
@@ -9748,7 +9245,7 @@
         <v>46</v>
       </c>
       <c r="W95" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X95" s="19" t="s">
         <v>39</v>
@@ -9780,7 +9277,7 @@
         <v>1</v>
       </c>
       <c r="H96" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I96" s="8">
         <v>1650459300</v>
@@ -9804,7 +9301,7 @@
         <v>46</v>
       </c>
       <c r="P96" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q96" s="5">
         <v>100</v>
@@ -9825,7 +9322,7 @@
         <v>46</v>
       </c>
       <c r="W96" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X96" s="19" t="s">
         <v>39</v>
@@ -9857,7 +9354,7 @@
         <v>1</v>
       </c>
       <c r="H97" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I97" s="8">
         <v>1651064100</v>
@@ -9881,7 +9378,7 @@
         <v>46</v>
       </c>
       <c r="P97" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q97" s="5">
         <v>100</v>
@@ -9902,7 +9399,7 @@
         <v>46</v>
       </c>
       <c r="W97" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X97" s="19" t="s">
         <v>39</v>
@@ -9934,7 +9431,7 @@
         <v>1</v>
       </c>
       <c r="H98" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I98" s="8">
         <v>1651668900</v>
@@ -9958,7 +9455,7 @@
         <v>46</v>
       </c>
       <c r="P98" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q98" s="5">
         <v>100</v>
@@ -9979,7 +9476,7 @@
         <v>46</v>
       </c>
       <c r="W98" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X98" s="19" t="s">
         <v>39</v>
@@ -10011,7 +9508,7 @@
         <v>1</v>
       </c>
       <c r="H99" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I99" s="8">
         <v>1652273700</v>
@@ -10035,7 +9532,7 @@
         <v>46</v>
       </c>
       <c r="P99" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q99" s="5">
         <v>100</v>
@@ -10056,7 +9553,7 @@
         <v>46</v>
       </c>
       <c r="W99" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X99" s="19" t="s">
         <v>39</v>
@@ -10088,7 +9585,7 @@
         <v>1</v>
       </c>
       <c r="H100" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I100" s="8">
         <v>1652878500</v>
@@ -10112,7 +9609,7 @@
         <v>46</v>
       </c>
       <c r="P100" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q100" s="5">
         <v>100</v>
@@ -10133,7 +9630,7 @@
         <v>46</v>
       </c>
       <c r="W100" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X100" s="19" t="s">
         <v>39</v>
@@ -10165,7 +9662,7 @@
         <v>1</v>
       </c>
       <c r="H101" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I101" s="8">
         <v>1653483300</v>
@@ -10189,7 +9686,7 @@
         <v>46</v>
       </c>
       <c r="P101" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q101" s="5">
         <v>100</v>
@@ -10210,7 +9707,7 @@
         <v>46</v>
       </c>
       <c r="W101" s="18" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="X101" s="19" t="s">
         <v>39</v>
@@ -10314,13 +9811,13 @@
         <v>10</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>371</v>
+        <v>303</v>
       </c>
       <c r="E2" s="3">
         <v>50000</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -10370,13 +9867,13 @@
         <v>11</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>372</v>
+        <v>304</v>
       </c>
       <c r="E3" s="3">
         <v>20000</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -10426,13 +9923,13 @@
         <v>12</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>373</v>
+        <v>305</v>
       </c>
       <c r="E4" s="3">
         <v>10000</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -10869,7 +10366,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C54" sqref="C54"/>
       <selection pane="bottomLeft" activeCell="K5" sqref="K5"/>
@@ -10996,7 +10493,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I2" s="14">
         <v>1593608100</v>
@@ -11017,10 +10514,10 @@
         <v>35</v>
       </c>
       <c r="O2" s="17" t="s">
-        <v>337</v>
+        <v>300</v>
       </c>
       <c r="P2" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q2" s="5">
         <v>100</v>
@@ -11041,7 +10538,7 @@
         <v>46</v>
       </c>
       <c r="W2" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X2" s="19" t="s">
         <v>39</v>
@@ -11073,7 +10570,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I3" s="14">
         <v>1594212900</v>
@@ -11097,7 +10594,7 @@
         <v>46</v>
       </c>
       <c r="P3" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q3" s="5">
         <v>100</v>
@@ -11118,7 +10615,7 @@
         <v>46</v>
       </c>
       <c r="W3" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X3" s="19" t="s">
         <v>39</v>
@@ -11150,7 +10647,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I4" s="14">
         <v>1594817700</v>
@@ -11174,7 +10671,7 @@
         <v>46</v>
       </c>
       <c r="P4" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q4" s="5">
         <v>100</v>
@@ -11195,7 +10692,7 @@
         <v>46</v>
       </c>
       <c r="W4" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X4" s="19" t="s">
         <v>39</v>
@@ -11227,7 +10724,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I5" s="14">
         <v>1595422500</v>
@@ -11251,7 +10748,7 @@
         <v>46</v>
       </c>
       <c r="P5" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q5" s="5">
         <v>100</v>
@@ -11272,7 +10769,7 @@
         <v>46</v>
       </c>
       <c r="W5" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X5" s="19" t="s">
         <v>39</v>
@@ -11304,15 +10801,15 @@
         <v>1</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="I6" s="40">
+        <v>280</v>
+      </c>
+      <c r="I6" s="36">
         <v>1596027300</v>
       </c>
       <c r="J6" s="14">
         <v>1596027600</v>
       </c>
-      <c r="K6" s="40">
+      <c r="K6" s="36">
         <v>1596027300</v>
       </c>
       <c r="L6">
@@ -11328,7 +10825,7 @@
         <v>46</v>
       </c>
       <c r="P6" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q6" s="5">
         <v>100</v>
@@ -11349,7 +10846,7 @@
         <v>46</v>
       </c>
       <c r="W6" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X6" s="19" t="s">
         <v>39</v>
@@ -11381,15 +10878,15 @@
         <v>1</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="I7" s="40">
+        <v>280</v>
+      </c>
+      <c r="I7" s="36">
         <v>1596632100</v>
       </c>
       <c r="J7" s="14">
         <v>1596632400</v>
       </c>
-      <c r="K7" s="40">
+      <c r="K7" s="36">
         <v>1596632100</v>
       </c>
       <c r="L7">
@@ -11405,7 +10902,7 @@
         <v>46</v>
       </c>
       <c r="P7" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q7" s="5">
         <v>100</v>
@@ -11426,7 +10923,7 @@
         <v>46</v>
       </c>
       <c r="W7" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X7" s="19" t="s">
         <v>39</v>
@@ -11458,15 +10955,15 @@
         <v>1</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="I8" s="40">
+        <v>280</v>
+      </c>
+      <c r="I8" s="36">
         <v>1597236900</v>
       </c>
       <c r="J8" s="14">
         <v>1597237200</v>
       </c>
-      <c r="K8" s="40">
+      <c r="K8" s="36">
         <v>1597236900</v>
       </c>
       <c r="L8">
@@ -11482,7 +10979,7 @@
         <v>46</v>
       </c>
       <c r="P8" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q8" s="5">
         <v>100</v>
@@ -11503,7 +11000,7 @@
         <v>46</v>
       </c>
       <c r="W8" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X8" s="19" t="s">
         <v>39</v>
@@ -11535,15 +11032,15 @@
         <v>1</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="I9" s="40">
+        <v>280</v>
+      </c>
+      <c r="I9" s="36">
         <v>1597841700</v>
       </c>
       <c r="J9" s="14">
         <v>1597842000</v>
       </c>
-      <c r="K9" s="40">
+      <c r="K9" s="36">
         <v>1597841700</v>
       </c>
       <c r="L9">
@@ -11559,7 +11056,7 @@
         <v>46</v>
       </c>
       <c r="P9" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q9" s="5">
         <v>100</v>
@@ -11580,7 +11077,7 @@
         <v>46</v>
       </c>
       <c r="W9" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X9" s="19" t="s">
         <v>39</v>
@@ -11612,15 +11109,15 @@
         <v>1</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="I10" s="40">
+        <v>280</v>
+      </c>
+      <c r="I10" s="36">
         <v>1598446500</v>
       </c>
       <c r="J10" s="14">
         <v>1598446800</v>
       </c>
-      <c r="K10" s="40">
+      <c r="K10" s="36">
         <v>1598446500</v>
       </c>
       <c r="L10">
@@ -11636,7 +11133,7 @@
         <v>46</v>
       </c>
       <c r="P10" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q10" s="5">
         <v>100</v>
@@ -11657,7 +11154,7 @@
         <v>46</v>
       </c>
       <c r="W10" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X10" s="19" t="s">
         <v>39</v>
@@ -11689,15 +11186,15 @@
         <v>1</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="I11" s="40">
+        <v>280</v>
+      </c>
+      <c r="I11" s="36">
         <v>1599051300</v>
       </c>
       <c r="J11" s="14">
         <v>1599051600</v>
       </c>
-      <c r="K11" s="40">
+      <c r="K11" s="36">
         <v>1599051300</v>
       </c>
       <c r="L11">
@@ -11713,7 +11210,7 @@
         <v>46</v>
       </c>
       <c r="P11" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q11" s="5">
         <v>100</v>
@@ -11734,7 +11231,7 @@
         <v>46</v>
       </c>
       <c r="W11" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X11" s="19" t="s">
         <v>39</v>
@@ -11766,7 +11263,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I12" s="8">
         <v>1599656100</v>
@@ -11790,7 +11287,7 @@
         <v>46</v>
       </c>
       <c r="P12" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q12" s="5">
         <v>100</v>
@@ -11811,7 +11308,7 @@
         <v>46</v>
       </c>
       <c r="W12" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X12" s="19" t="s">
         <v>39</v>
@@ -11843,7 +11340,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I13" s="8">
         <v>1600260900</v>
@@ -11867,7 +11364,7 @@
         <v>46</v>
       </c>
       <c r="P13" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q13" s="5">
         <v>100</v>
@@ -11888,7 +11385,7 @@
         <v>46</v>
       </c>
       <c r="W13" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X13" s="19" t="s">
         <v>39</v>
@@ -11920,7 +11417,7 @@
         <v>1</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I14" s="8">
         <v>1600865700</v>
@@ -11944,7 +11441,7 @@
         <v>46</v>
       </c>
       <c r="P14" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q14" s="5">
         <v>100</v>
@@ -11965,7 +11462,7 @@
         <v>46</v>
       </c>
       <c r="W14" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X14" s="19" t="s">
         <v>39</v>
@@ -11997,7 +11494,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I15" s="8">
         <v>1601470500</v>
@@ -12021,7 +11518,7 @@
         <v>46</v>
       </c>
       <c r="P15" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q15" s="5">
         <v>100</v>
@@ -12042,7 +11539,7 @@
         <v>46</v>
       </c>
       <c r="W15" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X15" s="19" t="s">
         <v>39</v>
@@ -12074,7 +11571,7 @@
         <v>1</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I16" s="8">
         <v>1602075300</v>
@@ -12098,7 +11595,7 @@
         <v>46</v>
       </c>
       <c r="P16" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q16" s="5">
         <v>100</v>
@@ -12119,7 +11616,7 @@
         <v>46</v>
       </c>
       <c r="W16" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X16" s="19" t="s">
         <v>39</v>
@@ -12151,7 +11648,7 @@
         <v>1</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I17" s="8">
         <v>1602680100</v>
@@ -12175,7 +11672,7 @@
         <v>46</v>
       </c>
       <c r="P17" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q17" s="5">
         <v>100</v>
@@ -12196,7 +11693,7 @@
         <v>46</v>
       </c>
       <c r="W17" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X17" s="19" t="s">
         <v>39</v>
@@ -12228,7 +11725,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I18" s="8">
         <v>1603284900</v>
@@ -12252,7 +11749,7 @@
         <v>46</v>
       </c>
       <c r="P18" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q18" s="5">
         <v>100</v>
@@ -12273,7 +11770,7 @@
         <v>46</v>
       </c>
       <c r="W18" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X18" s="19" t="s">
         <v>39</v>
@@ -12305,7 +11802,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I19" s="8">
         <v>1603889700</v>
@@ -12329,7 +11826,7 @@
         <v>46</v>
       </c>
       <c r="P19" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q19" s="5">
         <v>100</v>
@@ -12350,7 +11847,7 @@
         <v>46</v>
       </c>
       <c r="W19" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X19" s="19" t="s">
         <v>39</v>
@@ -12382,7 +11879,7 @@
         <v>1</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I20" s="8">
         <v>1604494500</v>
@@ -12406,7 +11903,7 @@
         <v>46</v>
       </c>
       <c r="P20" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q20" s="5">
         <v>100</v>
@@ -12427,7 +11924,7 @@
         <v>46</v>
       </c>
       <c r="W20" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X20" s="19" t="s">
         <v>39</v>
@@ -12459,7 +11956,7 @@
         <v>1</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I21" s="8">
         <v>1605099300</v>
@@ -12483,7 +11980,7 @@
         <v>46</v>
       </c>
       <c r="P21" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q21" s="5">
         <v>100</v>
@@ -12504,7 +12001,7 @@
         <v>46</v>
       </c>
       <c r="W21" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X21" s="19" t="s">
         <v>39</v>
@@ -12536,7 +12033,7 @@
         <v>1</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I22" s="8">
         <v>1605704100</v>
@@ -12560,7 +12057,7 @@
         <v>46</v>
       </c>
       <c r="P22" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q22" s="5">
         <v>100</v>
@@ -12581,7 +12078,7 @@
         <v>46</v>
       </c>
       <c r="W22" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X22" s="19" t="s">
         <v>39</v>
@@ -12613,7 +12110,7 @@
         <v>1</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I23" s="8">
         <v>1606308900</v>
@@ -12637,7 +12134,7 @@
         <v>46</v>
       </c>
       <c r="P23" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q23" s="5">
         <v>100</v>
@@ -12658,7 +12155,7 @@
         <v>46</v>
       </c>
       <c r="W23" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X23" s="19" t="s">
         <v>39</v>
@@ -12690,7 +12187,7 @@
         <v>1</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I24" s="8">
         <v>1606913700</v>
@@ -12714,7 +12211,7 @@
         <v>46</v>
       </c>
       <c r="P24" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q24" s="5">
         <v>100</v>
@@ -12735,7 +12232,7 @@
         <v>46</v>
       </c>
       <c r="W24" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X24" s="19" t="s">
         <v>39</v>
@@ -12767,7 +12264,7 @@
         <v>1</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I25" s="8">
         <v>1607518500</v>
@@ -12791,7 +12288,7 @@
         <v>46</v>
       </c>
       <c r="P25" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q25" s="5">
         <v>100</v>
@@ -12812,7 +12309,7 @@
         <v>46</v>
       </c>
       <c r="W25" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X25" s="19" t="s">
         <v>39</v>
@@ -12844,7 +12341,7 @@
         <v>1</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I26" s="8">
         <v>1608123300</v>
@@ -12868,7 +12365,7 @@
         <v>46</v>
       </c>
       <c r="P26" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q26" s="5">
         <v>100</v>
@@ -12889,7 +12386,7 @@
         <v>46</v>
       </c>
       <c r="W26" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X26" s="19" t="s">
         <v>39</v>
@@ -12921,7 +12418,7 @@
         <v>1</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I27" s="8">
         <v>1608728100</v>
@@ -12945,7 +12442,7 @@
         <v>46</v>
       </c>
       <c r="P27" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q27" s="5">
         <v>100</v>
@@ -12966,7 +12463,7 @@
         <v>46</v>
       </c>
       <c r="W27" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X27" s="19" t="s">
         <v>39</v>
@@ -12998,7 +12495,7 @@
         <v>1</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I28" s="8">
         <v>1609332900</v>
@@ -13022,7 +12519,7 @@
         <v>46</v>
       </c>
       <c r="P28" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q28" s="5">
         <v>100</v>
@@ -13043,7 +12540,7 @@
         <v>46</v>
       </c>
       <c r="W28" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X28" s="19" t="s">
         <v>39</v>
@@ -13075,7 +12572,7 @@
         <v>1</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I29" s="8">
         <v>1609937700</v>
@@ -13099,7 +12596,7 @@
         <v>46</v>
       </c>
       <c r="P29" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q29" s="5">
         <v>100</v>
@@ -13120,7 +12617,7 @@
         <v>46</v>
       </c>
       <c r="W29" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X29" s="19" t="s">
         <v>39</v>
@@ -13152,7 +12649,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I30" s="8">
         <v>1610542500</v>
@@ -13176,7 +12673,7 @@
         <v>46</v>
       </c>
       <c r="P30" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q30" s="5">
         <v>100</v>
@@ -13197,7 +12694,7 @@
         <v>46</v>
       </c>
       <c r="W30" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X30" s="19" t="s">
         <v>39</v>
@@ -13229,7 +12726,7 @@
         <v>1</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I31" s="8">
         <v>1611147300</v>
@@ -13253,7 +12750,7 @@
         <v>46</v>
       </c>
       <c r="P31" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q31" s="5">
         <v>100</v>
@@ -13274,7 +12771,7 @@
         <v>46</v>
       </c>
       <c r="W31" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X31" s="19" t="s">
         <v>39</v>
@@ -13306,7 +12803,7 @@
         <v>1</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I32" s="8">
         <v>1611752100</v>
@@ -13330,7 +12827,7 @@
         <v>46</v>
       </c>
       <c r="P32" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q32" s="5">
         <v>100</v>
@@ -13351,7 +12848,7 @@
         <v>46</v>
       </c>
       <c r="W32" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X32" s="19" t="s">
         <v>39</v>
@@ -13383,7 +12880,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I33" s="8">
         <v>1612356900</v>
@@ -13407,7 +12904,7 @@
         <v>46</v>
       </c>
       <c r="P33" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q33" s="5">
         <v>100</v>
@@ -13428,7 +12925,7 @@
         <v>46</v>
       </c>
       <c r="W33" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X33" s="19" t="s">
         <v>39</v>
@@ -13460,7 +12957,7 @@
         <v>1</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I34" s="8">
         <v>1612961700</v>
@@ -13484,7 +12981,7 @@
         <v>46</v>
       </c>
       <c r="P34" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q34" s="5">
         <v>100</v>
@@ -13505,7 +13002,7 @@
         <v>46</v>
       </c>
       <c r="W34" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X34" s="19" t="s">
         <v>39</v>
@@ -13537,7 +13034,7 @@
         <v>1</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I35" s="8">
         <v>1613566500</v>
@@ -13561,7 +13058,7 @@
         <v>46</v>
       </c>
       <c r="P35" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q35" s="5">
         <v>100</v>
@@ -13582,7 +13079,7 @@
         <v>46</v>
       </c>
       <c r="W35" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X35" s="19" t="s">
         <v>39</v>
@@ -13614,7 +13111,7 @@
         <v>1</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I36" s="8">
         <v>1614171300</v>
@@ -13638,7 +13135,7 @@
         <v>46</v>
       </c>
       <c r="P36" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q36" s="5">
         <v>100</v>
@@ -13659,7 +13156,7 @@
         <v>46</v>
       </c>
       <c r="W36" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X36" s="19" t="s">
         <v>39</v>
@@ -13691,7 +13188,7 @@
         <v>1</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I37" s="8">
         <v>1614776100</v>
@@ -13715,7 +13212,7 @@
         <v>46</v>
       </c>
       <c r="P37" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q37" s="5">
         <v>100</v>
@@ -13736,7 +13233,7 @@
         <v>46</v>
       </c>
       <c r="W37" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X37" s="19" t="s">
         <v>39</v>
@@ -13768,7 +13265,7 @@
         <v>1</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I38" s="8">
         <v>1615380900</v>
@@ -13792,7 +13289,7 @@
         <v>46</v>
       </c>
       <c r="P38" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q38" s="5">
         <v>100</v>
@@ -13813,7 +13310,7 @@
         <v>46</v>
       </c>
       <c r="W38" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X38" s="19" t="s">
         <v>39</v>
@@ -13845,7 +13342,7 @@
         <v>1</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I39" s="8">
         <v>1615985700</v>
@@ -13869,7 +13366,7 @@
         <v>46</v>
       </c>
       <c r="P39" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q39" s="5">
         <v>100</v>
@@ -13890,7 +13387,7 @@
         <v>46</v>
       </c>
       <c r="W39" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X39" s="19" t="s">
         <v>39</v>
@@ -13922,7 +13419,7 @@
         <v>1</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I40" s="8">
         <v>1616590500</v>
@@ -13946,7 +13443,7 @@
         <v>46</v>
       </c>
       <c r="P40" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q40" s="5">
         <v>100</v>
@@ -13967,7 +13464,7 @@
         <v>46</v>
       </c>
       <c r="W40" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X40" s="19" t="s">
         <v>39</v>
@@ -13999,7 +13496,7 @@
         <v>1</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I41" s="8">
         <v>1617195300</v>
@@ -14023,7 +13520,7 @@
         <v>46</v>
       </c>
       <c r="P41" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q41" s="5">
         <v>100</v>
@@ -14044,7 +13541,7 @@
         <v>46</v>
       </c>
       <c r="W41" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X41" s="19" t="s">
         <v>39</v>
@@ -14076,7 +13573,7 @@
         <v>1</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I42" s="8">
         <v>1617800100</v>
@@ -14100,7 +13597,7 @@
         <v>46</v>
       </c>
       <c r="P42" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q42" s="5">
         <v>100</v>
@@ -14121,7 +13618,7 @@
         <v>46</v>
       </c>
       <c r="W42" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X42" s="19" t="s">
         <v>39</v>
@@ -14153,7 +13650,7 @@
         <v>1</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I43" s="8">
         <v>1618404900</v>
@@ -14177,7 +13674,7 @@
         <v>46</v>
       </c>
       <c r="P43" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q43" s="5">
         <v>100</v>
@@ -14198,7 +13695,7 @@
         <v>46</v>
       </c>
       <c r="W43" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X43" s="19" t="s">
         <v>39</v>
@@ -14230,7 +13727,7 @@
         <v>1</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I44" s="8">
         <v>1619009700</v>
@@ -14254,7 +13751,7 @@
         <v>46</v>
       </c>
       <c r="P44" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q44" s="5">
         <v>100</v>
@@ -14275,7 +13772,7 @@
         <v>46</v>
       </c>
       <c r="W44" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X44" s="19" t="s">
         <v>39</v>
@@ -14307,7 +13804,7 @@
         <v>1</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I45" s="8">
         <v>1619614500</v>
@@ -14331,7 +13828,7 @@
         <v>46</v>
       </c>
       <c r="P45" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q45" s="5">
         <v>100</v>
@@ -14352,7 +13849,7 @@
         <v>46</v>
       </c>
       <c r="W45" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X45" s="19" t="s">
         <v>39</v>
@@ -14384,7 +13881,7 @@
         <v>1</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I46" s="8">
         <v>1620219300</v>
@@ -14408,7 +13905,7 @@
         <v>46</v>
       </c>
       <c r="P46" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q46" s="5">
         <v>100</v>
@@ -14429,7 +13926,7 @@
         <v>46</v>
       </c>
       <c r="W46" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X46" s="19" t="s">
         <v>39</v>
@@ -14461,7 +13958,7 @@
         <v>1</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I47" s="8">
         <v>1620824100</v>
@@ -14485,7 +13982,7 @@
         <v>46</v>
       </c>
       <c r="P47" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q47" s="5">
         <v>100</v>
@@ -14506,7 +14003,7 @@
         <v>46</v>
       </c>
       <c r="W47" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X47" s="19" t="s">
         <v>39</v>
@@ -14538,7 +14035,7 @@
         <v>1</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I48" s="8">
         <v>1621428900</v>
@@ -14562,7 +14059,7 @@
         <v>46</v>
       </c>
       <c r="P48" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q48" s="5">
         <v>100</v>
@@ -14583,7 +14080,7 @@
         <v>46</v>
       </c>
       <c r="W48" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X48" s="19" t="s">
         <v>39</v>
@@ -14615,7 +14112,7 @@
         <v>1</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I49" s="8">
         <v>1622033700</v>
@@ -14639,7 +14136,7 @@
         <v>46</v>
       </c>
       <c r="P49" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q49" s="5">
         <v>100</v>
@@ -14660,7 +14157,7 @@
         <v>46</v>
       </c>
       <c r="W49" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X49" s="19" t="s">
         <v>39</v>
@@ -14692,7 +14189,7 @@
         <v>1</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I50" s="8">
         <v>1622638500</v>
@@ -14716,7 +14213,7 @@
         <v>46</v>
       </c>
       <c r="P50" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q50" s="5">
         <v>100</v>
@@ -14737,7 +14234,7 @@
         <v>46</v>
       </c>
       <c r="W50" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X50" s="19" t="s">
         <v>39</v>
@@ -14769,7 +14266,7 @@
         <v>1</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I51" s="8">
         <v>1623243300</v>
@@ -14793,7 +14290,7 @@
         <v>46</v>
       </c>
       <c r="P51" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q51" s="28">
         <v>100</v>
@@ -14814,7 +14311,7 @@
         <v>46</v>
       </c>
       <c r="W51" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X51" s="35" t="s">
         <v>39</v>
@@ -14846,7 +14343,7 @@
         <v>1</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I52" s="8">
         <v>1623848100</v>
@@ -14870,7 +14367,7 @@
         <v>46</v>
       </c>
       <c r="P52" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q52" s="5">
         <v>100</v>
@@ -14891,7 +14388,7 @@
         <v>46</v>
       </c>
       <c r="W52" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X52" s="19" t="s">
         <v>39</v>
@@ -14923,7 +14420,7 @@
         <v>1</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I53" s="8">
         <v>1624452900</v>
@@ -14947,7 +14444,7 @@
         <v>46</v>
       </c>
       <c r="P53" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q53" s="5">
         <v>100</v>
@@ -14968,7 +14465,7 @@
         <v>46</v>
       </c>
       <c r="W53" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X53" s="19" t="s">
         <v>39</v>
@@ -15000,7 +14497,7 @@
         <v>1</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I54" s="8">
         <v>1625057700</v>
@@ -15024,7 +14521,7 @@
         <v>46</v>
       </c>
       <c r="P54" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q54" s="5">
         <v>100</v>
@@ -15045,7 +14542,7 @@
         <v>46</v>
       </c>
       <c r="W54" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X54" s="19" t="s">
         <v>39</v>
@@ -15077,7 +14574,7 @@
         <v>1</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I55" s="8">
         <v>1625662500</v>
@@ -15101,7 +14598,7 @@
         <v>46</v>
       </c>
       <c r="P55" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q55" s="5">
         <v>100</v>
@@ -15122,7 +14619,7 @@
         <v>46</v>
       </c>
       <c r="W55" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X55" s="19" t="s">
         <v>39</v>
@@ -15154,7 +14651,7 @@
         <v>1</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I56" s="8">
         <v>1626267300</v>
@@ -15178,7 +14675,7 @@
         <v>46</v>
       </c>
       <c r="P56" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q56" s="5">
         <v>100</v>
@@ -15199,7 +14696,7 @@
         <v>46</v>
       </c>
       <c r="W56" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X56" s="19" t="s">
         <v>39</v>
@@ -15231,7 +14728,7 @@
         <v>1</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I57" s="8">
         <v>1626872100</v>
@@ -15255,7 +14752,7 @@
         <v>46</v>
       </c>
       <c r="P57" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q57" s="5">
         <v>100</v>
@@ -15276,7 +14773,7 @@
         <v>46</v>
       </c>
       <c r="W57" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X57" s="19" t="s">
         <v>39</v>
@@ -15308,7 +14805,7 @@
         <v>1</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I58" s="8">
         <v>1627476900</v>
@@ -15332,7 +14829,7 @@
         <v>46</v>
       </c>
       <c r="P58" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q58" s="5">
         <v>100</v>
@@ -15353,7 +14850,7 @@
         <v>46</v>
       </c>
       <c r="W58" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X58" s="19" t="s">
         <v>39</v>
@@ -15385,7 +14882,7 @@
         <v>1</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I59" s="8">
         <v>1628081700</v>
@@ -15409,7 +14906,7 @@
         <v>46</v>
       </c>
       <c r="P59" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q59" s="5">
         <v>100</v>
@@ -15430,7 +14927,7 @@
         <v>46</v>
       </c>
       <c r="W59" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X59" s="19" t="s">
         <v>39</v>
@@ -15462,7 +14959,7 @@
         <v>1</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I60" s="8">
         <v>1628686500</v>
@@ -15486,7 +14983,7 @@
         <v>46</v>
       </c>
       <c r="P60" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q60" s="5">
         <v>100</v>
@@ -15507,7 +15004,7 @@
         <v>46</v>
       </c>
       <c r="W60" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X60" s="19" t="s">
         <v>39</v>
@@ -15539,7 +15036,7 @@
         <v>1</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I61" s="8">
         <v>1629291300</v>
@@ -15563,7 +15060,7 @@
         <v>46</v>
       </c>
       <c r="P61" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q61" s="5">
         <v>100</v>
@@ -15584,7 +15081,7 @@
         <v>46</v>
       </c>
       <c r="W61" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X61" s="19" t="s">
         <v>39</v>
@@ -15616,7 +15113,7 @@
         <v>1</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I62" s="8">
         <v>1629896100</v>
@@ -15640,7 +15137,7 @@
         <v>46</v>
       </c>
       <c r="P62" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q62" s="5">
         <v>100</v>
@@ -15661,7 +15158,7 @@
         <v>46</v>
       </c>
       <c r="W62" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X62" s="19" t="s">
         <v>39</v>
@@ -15693,7 +15190,7 @@
         <v>1</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I63" s="8">
         <v>1630500900</v>
@@ -15717,7 +15214,7 @@
         <v>46</v>
       </c>
       <c r="P63" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q63" s="5">
         <v>100</v>
@@ -15738,7 +15235,7 @@
         <v>46</v>
       </c>
       <c r="W63" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X63" s="19" t="s">
         <v>39</v>
@@ -15770,7 +15267,7 @@
         <v>1</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I64" s="8">
         <v>1631105700</v>
@@ -15794,7 +15291,7 @@
         <v>46</v>
       </c>
       <c r="P64" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q64" s="5">
         <v>100</v>
@@ -15815,7 +15312,7 @@
         <v>46</v>
       </c>
       <c r="W64" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X64" s="19" t="s">
         <v>39</v>
@@ -15847,7 +15344,7 @@
         <v>1</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I65" s="8">
         <v>1631710500</v>
@@ -15871,7 +15368,7 @@
         <v>46</v>
       </c>
       <c r="P65" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q65" s="5">
         <v>100</v>
@@ -15892,7 +15389,7 @@
         <v>46</v>
       </c>
       <c r="W65" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X65" s="19" t="s">
         <v>39</v>
@@ -15924,7 +15421,7 @@
         <v>1</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I66" s="8">
         <v>1632315300</v>
@@ -15948,7 +15445,7 @@
         <v>46</v>
       </c>
       <c r="P66" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q66" s="5">
         <v>100</v>
@@ -15969,7 +15466,7 @@
         <v>46</v>
       </c>
       <c r="W66" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X66" s="19" t="s">
         <v>39</v>
@@ -16001,7 +15498,7 @@
         <v>1</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I67" s="8">
         <v>1632920100</v>
@@ -16025,7 +15522,7 @@
         <v>46</v>
       </c>
       <c r="P67" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q67" s="5">
         <v>100</v>
@@ -16046,7 +15543,7 @@
         <v>46</v>
       </c>
       <c r="W67" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X67" s="19" t="s">
         <v>39</v>
@@ -16078,7 +15575,7 @@
         <v>1</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I68" s="8">
         <v>1633524900</v>
@@ -16102,7 +15599,7 @@
         <v>46</v>
       </c>
       <c r="P68" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q68" s="5">
         <v>100</v>
@@ -16123,7 +15620,7 @@
         <v>46</v>
       </c>
       <c r="W68" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X68" s="19" t="s">
         <v>39</v>
@@ -16155,7 +15652,7 @@
         <v>1</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I69" s="8">
         <v>1634129700</v>
@@ -16179,7 +15676,7 @@
         <v>46</v>
       </c>
       <c r="P69" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q69" s="5">
         <v>100</v>
@@ -16200,7 +15697,7 @@
         <v>46</v>
       </c>
       <c r="W69" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X69" s="19" t="s">
         <v>39</v>
@@ -16232,7 +15729,7 @@
         <v>1</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I70" s="8">
         <v>1634734500</v>
@@ -16256,7 +15753,7 @@
         <v>46</v>
       </c>
       <c r="P70" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q70" s="5">
         <v>100</v>
@@ -16277,7 +15774,7 @@
         <v>46</v>
       </c>
       <c r="W70" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X70" s="19" t="s">
         <v>39</v>
@@ -16309,7 +15806,7 @@
         <v>1</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I71" s="8">
         <v>1635339300</v>
@@ -16333,7 +15830,7 @@
         <v>46</v>
       </c>
       <c r="P71" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q71" s="5">
         <v>100</v>
@@ -16354,7 +15851,7 @@
         <v>46</v>
       </c>
       <c r="W71" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X71" s="19" t="s">
         <v>39</v>
@@ -16386,7 +15883,7 @@
         <v>1</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I72" s="8">
         <v>1635944100</v>
@@ -16410,7 +15907,7 @@
         <v>46</v>
       </c>
       <c r="P72" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q72" s="5">
         <v>100</v>
@@ -16431,7 +15928,7 @@
         <v>46</v>
       </c>
       <c r="W72" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X72" s="19" t="s">
         <v>39</v>
@@ -16463,7 +15960,7 @@
         <v>1</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I73" s="8">
         <v>1636548900</v>
@@ -16487,7 +15984,7 @@
         <v>46</v>
       </c>
       <c r="P73" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q73" s="5">
         <v>100</v>
@@ -16508,7 +16005,7 @@
         <v>46</v>
       </c>
       <c r="W73" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X73" s="19" t="s">
         <v>39</v>
@@ -16540,7 +16037,7 @@
         <v>1</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I74" s="8">
         <v>1637153700</v>
@@ -16564,7 +16061,7 @@
         <v>46</v>
       </c>
       <c r="P74" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q74" s="5">
         <v>100</v>
@@ -16585,7 +16082,7 @@
         <v>46</v>
       </c>
       <c r="W74" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X74" s="19" t="s">
         <v>39</v>
@@ -16617,7 +16114,7 @@
         <v>1</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I75" s="8">
         <v>1637758500</v>
@@ -16641,7 +16138,7 @@
         <v>46</v>
       </c>
       <c r="P75" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q75" s="5">
         <v>100</v>
@@ -16662,7 +16159,7 @@
         <v>46</v>
       </c>
       <c r="W75" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X75" s="19" t="s">
         <v>39</v>
@@ -16694,7 +16191,7 @@
         <v>1</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I76" s="8">
         <v>1638363300</v>
@@ -16718,7 +16215,7 @@
         <v>46</v>
       </c>
       <c r="P76" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q76" s="5">
         <v>100</v>
@@ -16739,7 +16236,7 @@
         <v>46</v>
       </c>
       <c r="W76" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X76" s="19" t="s">
         <v>39</v>
@@ -16771,7 +16268,7 @@
         <v>1</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I77" s="8">
         <v>1638968100</v>
@@ -16795,7 +16292,7 @@
         <v>46</v>
       </c>
       <c r="P77" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q77" s="5">
         <v>100</v>
@@ -16816,7 +16313,7 @@
         <v>46</v>
       </c>
       <c r="W77" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X77" s="19" t="s">
         <v>39</v>
@@ -16848,7 +16345,7 @@
         <v>1</v>
       </c>
       <c r="H78" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I78" s="8">
         <v>1639572900</v>
@@ -16872,7 +16369,7 @@
         <v>46</v>
       </c>
       <c r="P78" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q78" s="5">
         <v>100</v>
@@ -16893,7 +16390,7 @@
         <v>46</v>
       </c>
       <c r="W78" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X78" s="19" t="s">
         <v>39</v>
@@ -16925,7 +16422,7 @@
         <v>1</v>
       </c>
       <c r="H79" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I79" s="14">
         <v>1640177700</v>
@@ -16949,7 +16446,7 @@
         <v>46</v>
       </c>
       <c r="P79" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q79" s="5">
         <v>100</v>
@@ -16970,7 +16467,7 @@
         <v>46</v>
       </c>
       <c r="W79" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X79" s="19" t="s">
         <v>39</v>
@@ -17002,7 +16499,7 @@
         <v>1</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I80" s="14">
         <v>1640782500</v>
@@ -17026,7 +16523,7 @@
         <v>46</v>
       </c>
       <c r="P80" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q80" s="5">
         <v>100</v>
@@ -17047,7 +16544,7 @@
         <v>46</v>
       </c>
       <c r="W80" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X80" s="19" t="s">
         <v>39</v>
@@ -17079,7 +16576,7 @@
         <v>1</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I81" s="14">
         <v>1641387300</v>
@@ -17103,7 +16600,7 @@
         <v>46</v>
       </c>
       <c r="P81" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q81" s="5">
         <v>100</v>
@@ -17124,7 +16621,7 @@
         <v>46</v>
       </c>
       <c r="W81" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X81" s="19" t="s">
         <v>39</v>
@@ -17156,7 +16653,7 @@
         <v>1</v>
       </c>
       <c r="H82" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I82" s="14">
         <v>1641992100</v>
@@ -17180,7 +16677,7 @@
         <v>46</v>
       </c>
       <c r="P82" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q82" s="5">
         <v>100</v>
@@ -17201,7 +16698,7 @@
         <v>46</v>
       </c>
       <c r="W82" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X82" s="19" t="s">
         <v>39</v>
@@ -17233,15 +16730,15 @@
         <v>1</v>
       </c>
       <c r="H83" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="I83" s="40">
+        <v>280</v>
+      </c>
+      <c r="I83" s="36">
         <v>1642596900</v>
       </c>
       <c r="J83" s="14">
         <v>1642597200</v>
       </c>
-      <c r="K83" s="40">
+      <c r="K83" s="36">
         <v>1642596900</v>
       </c>
       <c r="L83" s="8">
@@ -17257,7 +16754,7 @@
         <v>46</v>
       </c>
       <c r="P83" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q83" s="5">
         <v>100</v>
@@ -17278,7 +16775,7 @@
         <v>46</v>
       </c>
       <c r="W83" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X83" s="19" t="s">
         <v>39</v>
@@ -17310,15 +16807,15 @@
         <v>1</v>
       </c>
       <c r="H84" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="I84" s="40">
+        <v>280</v>
+      </c>
+      <c r="I84" s="36">
         <v>1643201700</v>
       </c>
       <c r="J84" s="14">
         <v>1643202000</v>
       </c>
-      <c r="K84" s="40">
+      <c r="K84" s="36">
         <v>1643201700</v>
       </c>
       <c r="L84" s="8">
@@ -17334,7 +16831,7 @@
         <v>46</v>
       </c>
       <c r="P84" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q84" s="5">
         <v>100</v>
@@ -17355,7 +16852,7 @@
         <v>46</v>
       </c>
       <c r="W84" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X84" s="19" t="s">
         <v>39</v>
@@ -17387,15 +16884,15 @@
         <v>1</v>
       </c>
       <c r="H85" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="I85" s="40">
+        <v>280</v>
+      </c>
+      <c r="I85" s="36">
         <v>1643806500</v>
       </c>
       <c r="J85" s="14">
         <v>1643806800</v>
       </c>
-      <c r="K85" s="40">
+      <c r="K85" s="36">
         <v>1643806500</v>
       </c>
       <c r="L85" s="8">
@@ -17411,7 +16908,7 @@
         <v>46</v>
       </c>
       <c r="P85" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q85" s="5">
         <v>100</v>
@@ -17432,7 +16929,7 @@
         <v>46</v>
       </c>
       <c r="W85" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X85" s="19" t="s">
         <v>39</v>
@@ -17464,15 +16961,15 @@
         <v>1</v>
       </c>
       <c r="H86" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="I86" s="40">
+        <v>280</v>
+      </c>
+      <c r="I86" s="36">
         <v>1644411300</v>
       </c>
       <c r="J86" s="14">
         <v>1644411600</v>
       </c>
-      <c r="K86" s="40">
+      <c r="K86" s="36">
         <v>1644411300</v>
       </c>
       <c r="L86" s="8">
@@ -17488,7 +16985,7 @@
         <v>46</v>
       </c>
       <c r="P86" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q86" s="5">
         <v>100</v>
@@ -17509,7 +17006,7 @@
         <v>46</v>
       </c>
       <c r="W86" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X86" s="19" t="s">
         <v>39</v>
@@ -17541,15 +17038,15 @@
         <v>1</v>
       </c>
       <c r="H87" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="I87" s="40">
+        <v>280</v>
+      </c>
+      <c r="I87" s="36">
         <v>1645016100</v>
       </c>
       <c r="J87" s="14">
         <v>1645016400</v>
       </c>
-      <c r="K87" s="40">
+      <c r="K87" s="36">
         <v>1645016100</v>
       </c>
       <c r="L87" s="8">
@@ -17565,7 +17062,7 @@
         <v>46</v>
       </c>
       <c r="P87" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q87" s="5">
         <v>100</v>
@@ -17586,7 +17083,7 @@
         <v>46</v>
       </c>
       <c r="W87" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X87" s="19" t="s">
         <v>39</v>
@@ -17618,15 +17115,15 @@
         <v>1</v>
       </c>
       <c r="H88" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="I88" s="40">
+        <v>280</v>
+      </c>
+      <c r="I88" s="36">
         <v>1645620900</v>
       </c>
       <c r="J88" s="14">
         <v>1645621200</v>
       </c>
-      <c r="K88" s="40">
+      <c r="K88" s="36">
         <v>1645620900</v>
       </c>
       <c r="L88" s="8">
@@ -17642,7 +17139,7 @@
         <v>46</v>
       </c>
       <c r="P88" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q88" s="5">
         <v>100</v>
@@ -17663,7 +17160,7 @@
         <v>46</v>
       </c>
       <c r="W88" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X88" s="19" t="s">
         <v>39</v>
@@ -17695,7 +17192,7 @@
         <v>1</v>
       </c>
       <c r="H89" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I89" s="8">
         <v>1646225700</v>
@@ -17719,7 +17216,7 @@
         <v>46</v>
       </c>
       <c r="P89" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q89" s="5">
         <v>100</v>
@@ -17740,7 +17237,7 @@
         <v>46</v>
       </c>
       <c r="W89" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X89" s="19" t="s">
         <v>39</v>
@@ -17772,7 +17269,7 @@
         <v>1</v>
       </c>
       <c r="H90" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I90" s="8">
         <v>1646830500</v>
@@ -17796,7 +17293,7 @@
         <v>46</v>
       </c>
       <c r="P90" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q90" s="5">
         <v>100</v>
@@ -17817,7 +17314,7 @@
         <v>46</v>
       </c>
       <c r="W90" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X90" s="19" t="s">
         <v>39</v>
@@ -17849,7 +17346,7 @@
         <v>1</v>
       </c>
       <c r="H91" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I91" s="8">
         <v>1647435300</v>
@@ -17873,7 +17370,7 @@
         <v>46</v>
       </c>
       <c r="P91" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q91" s="5">
         <v>100</v>
@@ -17894,7 +17391,7 @@
         <v>46</v>
       </c>
       <c r="W91" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X91" s="19" t="s">
         <v>39</v>
@@ -17926,7 +17423,7 @@
         <v>1</v>
       </c>
       <c r="H92" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I92" s="8">
         <v>1648040100</v>
@@ -17950,7 +17447,7 @@
         <v>46</v>
       </c>
       <c r="P92" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q92" s="5">
         <v>100</v>
@@ -17971,7 +17468,7 @@
         <v>46</v>
       </c>
       <c r="W92" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X92" s="19" t="s">
         <v>39</v>
@@ -18003,7 +17500,7 @@
         <v>1</v>
       </c>
       <c r="H93" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I93" s="8">
         <v>1648644900</v>
@@ -18027,7 +17524,7 @@
         <v>46</v>
       </c>
       <c r="P93" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q93" s="5">
         <v>100</v>
@@ -18048,7 +17545,7 @@
         <v>46</v>
       </c>
       <c r="W93" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X93" s="19" t="s">
         <v>39</v>
@@ -18080,7 +17577,7 @@
         <v>1</v>
       </c>
       <c r="H94" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I94" s="8">
         <v>1649249700</v>
@@ -18104,7 +17601,7 @@
         <v>46</v>
       </c>
       <c r="P94" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q94" s="5">
         <v>100</v>
@@ -18125,7 +17622,7 @@
         <v>46</v>
       </c>
       <c r="W94" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X94" s="19" t="s">
         <v>39</v>
@@ -18157,7 +17654,7 @@
         <v>1</v>
       </c>
       <c r="H95" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I95" s="8">
         <v>1649854500</v>
@@ -18181,7 +17678,7 @@
         <v>46</v>
       </c>
       <c r="P95" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q95" s="5">
         <v>100</v>
@@ -18202,7 +17699,7 @@
         <v>46</v>
       </c>
       <c r="W95" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X95" s="19" t="s">
         <v>39</v>
@@ -18234,7 +17731,7 @@
         <v>1</v>
       </c>
       <c r="H96" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I96" s="8">
         <v>1650459300</v>
@@ -18258,7 +17755,7 @@
         <v>46</v>
       </c>
       <c r="P96" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q96" s="5">
         <v>100</v>
@@ -18279,7 +17776,7 @@
         <v>46</v>
       </c>
       <c r="W96" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X96" s="19" t="s">
         <v>39</v>
@@ -18311,7 +17808,7 @@
         <v>1</v>
       </c>
       <c r="H97" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I97" s="8">
         <v>1651064100</v>
@@ -18335,7 +17832,7 @@
         <v>46</v>
       </c>
       <c r="P97" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q97" s="5">
         <v>100</v>
@@ -18356,7 +17853,7 @@
         <v>46</v>
       </c>
       <c r="W97" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X97" s="19" t="s">
         <v>39</v>
@@ -18388,7 +17885,7 @@
         <v>1</v>
       </c>
       <c r="H98" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I98" s="8">
         <v>1651668900</v>
@@ -18412,7 +17909,7 @@
         <v>46</v>
       </c>
       <c r="P98" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q98" s="5">
         <v>100</v>
@@ -18433,7 +17930,7 @@
         <v>46</v>
       </c>
       <c r="W98" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X98" s="19" t="s">
         <v>39</v>
@@ -18465,7 +17962,7 @@
         <v>1</v>
       </c>
       <c r="H99" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I99" s="8">
         <v>1652273700</v>
@@ -18489,7 +17986,7 @@
         <v>46</v>
       </c>
       <c r="P99" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q99" s="5">
         <v>100</v>
@@ -18510,7 +18007,7 @@
         <v>46</v>
       </c>
       <c r="W99" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X99" s="19" t="s">
         <v>39</v>
@@ -18542,7 +18039,7 @@
         <v>1</v>
       </c>
       <c r="H100" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I100" s="8">
         <v>1652878500</v>
@@ -18566,7 +18063,7 @@
         <v>46</v>
       </c>
       <c r="P100" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q100" s="5">
         <v>100</v>
@@ -18587,7 +18084,7 @@
         <v>46</v>
       </c>
       <c r="W100" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X100" s="19" t="s">
         <v>39</v>
@@ -18619,7 +18116,7 @@
         <v>1</v>
       </c>
       <c r="H101" s="6" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="I101" s="8">
         <v>1653483300</v>
@@ -18643,7 +18140,7 @@
         <v>46</v>
       </c>
       <c r="P101" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="Q101" s="5">
         <v>100</v>
@@ -18664,7 +18161,7 @@
         <v>46</v>
       </c>
       <c r="W101" s="18" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="X101" s="19" t="s">
         <v>39</v>
@@ -18685,7 +18182,7 @@
   <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD9"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -18767,14 +18264,14 @@
       <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="41" t="s">
-        <v>316</v>
+      <c r="D2" s="37" t="s">
+        <v>279</v>
       </c>
       <c r="E2" s="3">
         <v>100000</v>
       </c>
       <c r="F2" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -18782,11 +18279,11 @@
       <c r="H2">
         <v>1</v>
       </c>
-      <c r="I2" s="42" t="str">
+      <c r="I2" s="38" t="str">
         <f t="shared" ref="I2:I6" si="0">IF(NOT(ISERROR((FIND("第",S2)))),RIGHT(S2,LEN(S2)-LEN("第")),LEFT(S2,2*LEN(S2)-LENB(S2)))</f>
         <v>1</v>
       </c>
-      <c r="J2" s="42" t="str">
+      <c r="J2" s="38" t="str">
         <f t="shared" ref="J2:J5" si="1">IF(((ISERROR((FIND("之后",T2))))),LEFT(T2,2*LEN(T2)-LENB(T2)),99999)</f>
         <v>1</v>
       </c>
@@ -18796,7 +18293,7 @@
       </c>
       <c r="L2" s="21"/>
       <c r="M2" s="3" t="s">
-        <v>318</v>
+        <v>281</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>10</v>
@@ -18821,14 +18318,14 @@
       <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="41" t="s">
-        <v>319</v>
+      <c r="D3" s="37" t="s">
+        <v>282</v>
       </c>
       <c r="E3" s="3">
         <v>30000</v>
       </c>
       <c r="F3" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -18836,11 +18333,11 @@
       <c r="H3">
         <v>1</v>
       </c>
-      <c r="I3" s="42" t="str">
+      <c r="I3" s="38" t="str">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J3" s="42" t="str">
+      <c r="J3" s="38" t="str">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -18850,7 +18347,7 @@
       </c>
       <c r="L3" s="21"/>
       <c r="M3" s="3" t="s">
-        <v>318</v>
+        <v>281</v>
       </c>
       <c r="Q3" s="4" t="s">
         <v>11</v>
@@ -18875,14 +18372,14 @@
       <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="41" t="s">
-        <v>320</v>
+      <c r="D4" s="37" t="s">
+        <v>283</v>
       </c>
       <c r="E4" s="3">
         <v>10000</v>
       </c>
       <c r="F4" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -18890,11 +18387,11 @@
       <c r="H4">
         <v>1</v>
       </c>
-      <c r="I4" s="42" t="str">
+      <c r="I4" s="38" t="str">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J4" s="42" t="str">
+      <c r="J4" s="38" t="str">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -18904,7 +18401,7 @@
       </c>
       <c r="L4" s="21"/>
       <c r="M4" s="3" t="s">
-        <v>321</v>
+        <v>284</v>
       </c>
       <c r="Q4" s="4" t="s">
         <v>12</v>
@@ -18927,16 +18424,16 @@
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="D5" s="41" t="s">
-        <v>323</v>
+        <v>285</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>286</v>
       </c>
       <c r="E5" s="3">
         <v>5000</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -18944,11 +18441,11 @@
       <c r="H5">
         <v>1</v>
       </c>
-      <c r="I5" s="42" t="str">
+      <c r="I5" s="38" t="str">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="J5" s="42" t="str">
+      <c r="J5" s="38" t="str">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
@@ -18958,7 +18455,7 @@
       </c>
       <c r="L5" s="22"/>
       <c r="M5" s="3" t="s">
-        <v>324</v>
+        <v>287</v>
       </c>
       <c r="Q5" s="23" t="s">
         <v>48</v>
@@ -18983,16 +18480,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="D6" s="41" t="s">
-        <v>326</v>
+        <v>288</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>289</v>
       </c>
       <c r="E6" s="3">
         <v>3000</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>327</v>
+        <v>290</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -19000,11 +18497,11 @@
       <c r="H6">
         <v>1</v>
       </c>
-      <c r="I6" s="42" t="str">
+      <c r="I6" s="38" t="str">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J6" s="42">
+      <c r="J6" s="38">
         <v>21</v>
       </c>
       <c r="K6" s="3" t="str">
@@ -19013,7 +18510,7 @@
       </c>
       <c r="L6" s="22"/>
       <c r="M6" s="3" t="s">
-        <v>328</v>
+        <v>291</v>
       </c>
       <c r="Q6" s="23" t="s">
         <v>50</v>
@@ -19038,16 +18535,16 @@
         <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="D7" s="41" t="s">
-        <v>330</v>
+        <v>292</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>293</v>
       </c>
       <c r="E7" s="3">
         <v>2000</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>327</v>
+        <v>290</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -19055,10 +18552,10 @@
       <c r="H7">
         <v>1</v>
       </c>
-      <c r="I7" s="42">
+      <c r="I7" s="38">
         <v>22</v>
       </c>
-      <c r="J7" s="42">
+      <c r="J7" s="38">
         <v>39</v>
       </c>
       <c r="K7" s="3" t="str">
@@ -19067,7 +18564,7 @@
       </c>
       <c r="L7" s="22"/>
       <c r="M7" s="3" t="s">
-        <v>328</v>
+        <v>291</v>
       </c>
       <c r="Q7" s="23" t="s">
         <v>52</v>
@@ -19092,16 +18589,16 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="D8" s="41" t="s">
-        <v>332</v>
+        <v>294</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>295</v>
       </c>
       <c r="E8" s="3">
         <v>1500</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>333</v>
+        <v>296</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -19109,10 +18606,10 @@
       <c r="H8">
         <v>1</v>
       </c>
-      <c r="I8" s="42">
+      <c r="I8" s="38">
         <v>40</v>
       </c>
-      <c r="J8" s="42">
+      <c r="J8" s="38">
         <v>60</v>
       </c>
       <c r="K8" s="3" t="str">
@@ -19121,7 +18618,7 @@
       </c>
       <c r="L8" s="21"/>
       <c r="M8" s="3" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
       <c r="Q8" s="23" t="s">
         <v>54</v>
@@ -19146,16 +18643,16 @@
         <v>1</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="D9" s="41" t="s">
-        <v>335</v>
+        <v>297</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>298</v>
       </c>
       <c r="E9" s="3">
         <v>1000</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>336</v>
+        <v>299</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -19163,10 +18660,10 @@
       <c r="H9">
         <v>1</v>
       </c>
-      <c r="I9" s="42">
+      <c r="I9" s="38">
         <v>61</v>
       </c>
-      <c r="J9" s="42">
+      <c r="J9" s="38">
         <v>96</v>
       </c>
       <c r="K9" s="3" t="str">
@@ -19175,7 +18672,7 @@
       </c>
       <c r="L9" s="21"/>
       <c r="M9" s="3" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
       <c r="Q9" s="23" t="s">
         <v>56</v>
@@ -19219,828 +18716,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="18.375" customWidth="1"/>
-    <col min="14" max="14" width="13.375" customWidth="1"/>
-    <col min="15" max="15" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.625" customWidth="1"/>
-    <col min="17" max="17" width="18.75" customWidth="1"/>
-    <col min="19" max="19" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" s="2" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="V1" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="C2" s="13">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="G2" s="8">
-        <v>1</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>347</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="L2" s="13">
-        <v>1000</v>
-      </c>
-      <c r="M2" s="13">
-        <v>2000000</v>
-      </c>
-      <c r="N2" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O2" s="3">
-        <v>10</v>
-      </c>
-      <c r="P2" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="R2">
-        <v>1</v>
-      </c>
-      <c r="S2">
-        <v>101</v>
-      </c>
-      <c r="T2">
-        <v>76</v>
-      </c>
-      <c r="U2">
-        <v>1</v>
-      </c>
-      <c r="V2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="C3" s="13">
-        <v>3</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="G3" s="8">
-        <v>2</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>311</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>346</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="L3" s="13">
-        <v>10000</v>
-      </c>
-      <c r="M3" s="13">
-        <v>20000000</v>
-      </c>
-      <c r="N3" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O3" s="3">
-        <v>10</v>
-      </c>
-      <c r="P3" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="R3">
-        <v>1</v>
-      </c>
-      <c r="S3">
-        <v>101</v>
-      </c>
-      <c r="T3">
-        <v>77</v>
-      </c>
-      <c r="U3">
-        <v>1</v>
-      </c>
-      <c r="V3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="C4" s="13">
-        <v>4</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>343</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="G4" s="8">
-        <v>3</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>340</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="L4" s="43">
-        <v>100000</v>
-      </c>
-      <c r="M4" s="3">
-        <v>99999999999</v>
-      </c>
-      <c r="N4" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O4" s="3">
-        <v>10</v>
-      </c>
-      <c r="P4" s="15" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="R4">
-        <v>1</v>
-      </c>
-      <c r="S4">
-        <v>101</v>
-      </c>
-      <c r="T4">
-        <v>80</v>
-      </c>
-      <c r="U4">
-        <v>1</v>
-      </c>
-      <c r="V4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="C5" s="13">
-        <v>5</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>344</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="G5" s="8">
-        <v>4</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>345</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="L5" s="43">
-        <v>1000000</v>
-      </c>
-      <c r="M5" s="3">
-        <v>99999999999</v>
-      </c>
-      <c r="N5" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O5" s="3">
-        <v>10</v>
-      </c>
-      <c r="P5" s="15" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="R5">
-        <v>1</v>
-      </c>
-      <c r="S5">
-        <v>102</v>
-      </c>
-      <c r="T5">
-        <v>82</v>
-      </c>
-      <c r="U5">
-        <v>2</v>
-      </c>
-      <c r="V5">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="31.375" customWidth="1"/>
-    <col min="3" max="3" width="16.5" customWidth="1"/>
-    <col min="4" max="4" width="18.5" customWidth="1"/>
-    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.875" customWidth="1"/>
-    <col min="7" max="7" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.125" customWidth="1"/>
-    <col min="9" max="9" width="36.125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>354</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>355</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="37">
-        <v>1500</v>
-      </c>
-      <c r="G2" s="37">
-        <v>-1</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>357</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="37">
-        <v>1201</v>
-      </c>
-      <c r="G3" s="37">
-        <v>1499</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="37">
-        <v>1000</v>
-      </c>
-      <c r="G4" s="37">
-        <v>1200</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="38">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>360</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>361</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="37">
-        <v>1500</v>
-      </c>
-      <c r="G5" s="37">
-        <v>-1</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="38">
-        <v>2</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="37">
-        <v>1201</v>
-      </c>
-      <c r="G6" s="37">
-        <v>1499</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="38">
-        <v>2</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" s="37">
-        <v>1000</v>
-      </c>
-      <c r="G7" s="37">
-        <v>1200</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>364</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>361</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8" s="37">
-        <v>1500</v>
-      </c>
-      <c r="G8" s="37">
-        <v>-1</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5">
-        <v>3</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9" s="37">
-        <v>1201</v>
-      </c>
-      <c r="G9" s="37">
-        <v>1499</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5">
-        <v>3</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10" s="37">
-        <v>1000</v>
-      </c>
-      <c r="G10" s="37">
-        <v>1200</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>354</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>361</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11" s="37">
-        <v>1500</v>
-      </c>
-      <c r="G11" s="37">
-        <v>-1</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="5">
-        <v>4</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12" s="37">
-        <v>1201</v>
-      </c>
-      <c r="G12" s="37">
-        <v>1499</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5">
-        <v>4</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13" s="37">
-        <v>1000</v>
-      </c>
-      <c r="G13" s="37">
-        <v>1200</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="5"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="12"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="5"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="12"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H16" s="15"/>
-    </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="H17" s="36"/>
-    </row>
-    <row r="18" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F20" s="39"/>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F21" s="39"/>
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F22" s="39"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>